--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Trial_API_Framework_13_09_23\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BF3AE8-8284-4AEC-9967-185383A7E40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC340D0F-E063-4902-AB8A-646BB5FA1882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Users_Test_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="165">
   <si>
     <t>Password</t>
   </si>
@@ -60,23 +63,479 @@
     <t>undefined</t>
   </si>
   <si>
-    <t>shubham</t>
-  </si>
-  <si>
     <t>Right_1r1s</t>
   </si>
   <si>
     <t>Test_02</t>
   </si>
   <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>Test_03</t>
+  </si>
+  <si>
+    <t>Test_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Test_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wrongUsername</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wrongPassowrd</t>
+  </si>
+  <si>
+    <t>auth_params</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>mname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>addr1</t>
+  </si>
+  <si>
+    <t>addr2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>aemail</t>
+  </si>
+  <si>
+    <t>hphone</t>
+  </si>
+  <si>
+    <t>wphone</t>
+  </si>
+  <si>
+    <t>fphone</t>
+  </si>
+  <si>
+    <t>aphone</t>
+  </si>
+  <si>
+    <t>phone_type</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>urole_id</t>
+  </si>
+  <si>
+    <t>region_id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>testFname</t>
+  </si>
+  <si>
+    <t>testLname</t>
+  </si>
+  <si>
+    <t>Memnager</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Asia/Kolkata</t>
+  </si>
+  <si>
+    <t>Demo_user1</t>
+  </si>
+  <si>
+    <t>test409</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>pw_current</t>
+  </si>
+  <si>
+    <t>pw_new1</t>
+  </si>
+  <si>
+    <t>pw_new2</t>
+  </si>
+  <si>
     <t>Right_1r1</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>alertEnabled</t>
+  </si>
+  <si>
+    <t>sendSms</t>
+  </si>
+  <si>
+    <t>sendMms</t>
+  </si>
+  <si>
+    <t>sendEmail</t>
+  </si>
+  <si>
+    <t>sendInappNotification</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>Test_10</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>isServiceUser</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>user@gmail.com</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>test_title</t>
+  </si>
+  <si>
+    <t>Password@123</t>
+  </si>
+  <si>
+    <t>Addr1</t>
+  </si>
+  <si>
+    <t>Addr2</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Pw_current</t>
+  </si>
+  <si>
+    <t>Region_id</t>
+  </si>
+  <si>
+    <t>Hphone</t>
+  </si>
+  <si>
+    <t>AccountId</t>
+  </si>
+  <si>
+    <t>Fphone</t>
+  </si>
+  <si>
+    <t>Pw_new1</t>
+  </si>
+  <si>
+    <t>Pw_new2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Phone_type</t>
+  </si>
+  <si>
+    <t>Aphone</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>User_id</t>
+  </si>
+  <si>
+    <t>Urole_id</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>IsServiceUser</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Wphone</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Timezone</t>
+  </si>
+  <si>
+    <t>Aemail</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Auth_params</t>
+  </si>
+  <si>
+    <t>Users Role</t>
+  </si>
+  <si>
+    <t>rolename</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>alertGroup</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>blob</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>caseGroup</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>investigation</t>
+  </si>
+  <si>
+    <t>publication</t>
+  </si>
+  <si>
+    <t>userRole</t>
+  </si>
+  <si>
+    <t>visionAware</t>
+  </si>
+  <si>
+    <t>notifier</t>
+  </si>
+  <si>
+    <t>analytics</t>
+  </si>
+  <si>
+    <t>enrollmentReview</t>
+  </si>
+  <si>
+    <t>auditLog</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>faceThreshold</t>
+  </si>
+  <si>
+    <t>maskedFaceThreshold</t>
+  </si>
+  <si>
+    <t>eventsSuppressionInterval</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>seriousOffender</t>
+  </si>
+  <si>
+    <t>alertHexColor</t>
+  </si>
+  <si>
+    <t>activeThreat</t>
+  </si>
+  <si>
+    <t>test description</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>Enrollment Group</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>Test_06</t>
+  </si>
+  <si>
+    <t>Test_07</t>
+  </si>
+  <si>
+    <t>Test_08</t>
+  </si>
+  <si>
+    <t>att.net</t>
+  </si>
+  <si>
+    <t>Chile/EasterIsland</t>
+  </si>
+  <si>
+    <t>testTitle</t>
+  </si>
+  <si>
+    <t>testCompany</t>
+  </si>
+  <si>
+    <t>Test_09</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>isServiceUserRequest</t>
+  </si>
+  <si>
+    <t>UpdatePassword@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +557,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +586,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -256,11 +736,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -268,9 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -295,14 +934,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,70 +1333,1798 @@
     <col min="5" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="41"/>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66993600-FB9F-4C5F-AA18-AB24831E50DF}">
+  <dimension ref="A1:AI21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="25" max="25" width="24.6640625" customWidth="1"/>
+    <col min="26" max="26" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.44140625" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="17">
+        <v>12345</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="S2" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="T2" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="U2" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="V2" s="17">
+        <v>0</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="17">
+        <v>12345</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="S4" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="T4" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="U4" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
+        <v>2359</v>
+      </c>
+      <c r="L7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
+      <c r="N7" s="29">
+        <v>2359</v>
+      </c>
+      <c r="O7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>2359</v>
+      </c>
+      <c r="R7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="29">
+        <v>0</v>
+      </c>
+      <c r="T7" s="29">
+        <v>2359</v>
+      </c>
+      <c r="U7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" s="29">
+        <v>0</v>
+      </c>
+      <c r="W7" s="29">
+        <v>2359</v>
+      </c>
+      <c r="X7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
+      <c r="B9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+    </row>
+    <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="17">
+        <v>12345</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="S11" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="T11" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="U11" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="V11" s="17">
+        <v>0</v>
+      </c>
+      <c r="W11" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+    </row>
+    <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="V14" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z14" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE14" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG14" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI14" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+    </row>
+    <row r="21" spans="26:26" x14ac:dyDescent="0.3">
+      <c r="Z21" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{8B2EE289-56E8-41B1-9FC0-DA82C70D1790}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{4903AF91-FCBE-4057-A481-17F1EF5EEEB3}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{7177CE0D-E80B-4CA4-93F9-AB7F3BA0CB9D}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{D9517058-3420-4537-A390-33C54019A0E9}"/>
+    <hyperlink ref="P4" r:id="rId5" xr:uid="{0F8D9443-9959-4A41-A6A2-5FB07A83424B}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{1779B907-4A29-4190-BCD1-2132F8E7F97D}"/>
+    <hyperlink ref="P5" r:id="rId7" xr:uid="{00D2418C-4F76-4147-A9E2-0F44E521B21D}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{B9570737-529E-43D4-9753-A503DA581C00}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{172376B6-4824-4CEB-8EC6-DA4F7BA32631}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{AE54AF74-3D85-4552-BA43-70FB38829072}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{250DCD88-E24F-44FC-A509-22FE7B413DD9}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{EBA6E3C8-BA22-4475-886A-EBAF69944688}"/>
+    <hyperlink ref="T9" r:id="rId13" xr:uid="{0BAA8CE3-F123-4413-82F7-A2BEE0CF37D0}"/>
+    <hyperlink ref="AE15" r:id="rId14" xr:uid="{80FAB9BB-3632-4A13-8B29-7AE57463FD79}"/>
+    <hyperlink ref="AF15" r:id="rId15" xr:uid="{086EB7E1-F1BC-4AB2-BB3E-C7E5B64E4106}"/>
+    <hyperlink ref="AG15" r:id="rId16" xr:uid="{10890F92-2D0A-434B-A118-61818FC06BD3}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{0519FFB8-7749-497B-B65E-976726FA7640}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879C3BF6-AB29-4F64-BC81-0E2D392BB489}">
+  <dimension ref="A1:AC5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="8">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8">
+        <v>15</v>
+      </c>
+      <c r="M2" s="8">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8">
+        <v>15</v>
+      </c>
+      <c r="P2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>15</v>
+      </c>
+      <c r="R2" s="8">
+        <v>15</v>
+      </c>
+      <c r="S2" s="8">
+        <v>15</v>
+      </c>
+      <c r="T2" s="8">
+        <v>15</v>
+      </c>
+      <c r="U2" s="8">
+        <v>15</v>
+      </c>
+      <c r="V2" s="8">
+        <v>15</v>
+      </c>
+      <c r="W2" s="8">
+        <v>15</v>
+      </c>
+      <c r="X2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADFAC4-A726-4E80-A98A-6953E02CDC88}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Trial_API_Framework_13_09_23\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC340D0F-E063-4902-AB8A-646BB5FA1882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BF190D-E740-4FB2-805F-40947CC59083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Users_Test_Data" sheetId="2" r:id="rId2"/>
-    <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Identify_Enroll_Test_Data" sheetId="5" r:id="rId3"/>
+    <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="199">
   <si>
     <t>Password</t>
   </si>
@@ -529,6 +530,108 @@
   </si>
   <si>
     <t>UpdatePassword@123</t>
+  </si>
+  <si>
+    <t>CgroupId</t>
+  </si>
+  <si>
+    <t>OptOut</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>BodyMarkings</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>CaseEventType</t>
+  </si>
+  <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>HeightType</t>
+  </si>
+  <si>
+    <t>MethodOffence</t>
+  </si>
+  <si>
+    <t>NarrativeDesc</t>
+  </si>
+  <si>
+    <t>ProfileId</t>
+  </si>
+  <si>
+    <t>ReportedBy</t>
+  </si>
+  <si>
+    <t>ReportedLoss</t>
+  </si>
+  <si>
+    <t>StoreId</t>
+  </si>
+  <si>
+    <t>TimeIncident</t>
+  </si>
+  <si>
+    <t>RegionId</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>call police</t>
+  </si>
+  <si>
+    <t>BOMB THREAT</t>
+  </si>
+  <si>
+    <t>mole on han</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>STORE THREAT</t>
+  </si>
+  <si>
+    <t>theft</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>5.0-5.5</t>
+  </si>
+  <si>
+    <t>GRAB AND DASH</t>
+  </si>
+  <si>
+    <t>narratives</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>09/29/2023 13:24</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>caseId</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1006,6 +1109,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,10 +1141,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1427,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1460,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1374,7 +1480,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1498,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1516,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1534,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1455,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66993600-FB9F-4C5F-AA18-AB24831E50DF}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,7 +1687,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1667,7 +1773,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1853,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1933,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +2013,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +2088,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="28" t="s">
         <v>153</v>
       </c>
@@ -2055,7 +2161,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2160,7 +2266,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="8" t="s">
         <v>154</v>
       </c>
@@ -2217,7 +2323,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2413,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="8" t="s">
         <v>155</v>
       </c>
@@ -2395,7 +2501,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2434,12 +2540,12 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>160</v>
       </c>
@@ -2452,7 +2558,7 @@
       <c r="E13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="40" t="s">
         <v>164</v>
       </c>
       <c r="G13" s="17" t="b">
@@ -2478,12 +2584,12 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2588,7 +2694,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
@@ -2670,6 +2776,283 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA3B561-59D9-4322-8E3B-BAC26EC93642}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="17">
+        <v>1</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="S2" s="17">
+        <v>5000</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879C3BF6-AB29-4F64-BC81-0E2D392BB489}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
@@ -2785,7 +3168,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2874,7 +3257,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -2905,7 +3288,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -2936,7 +3319,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -2974,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADFAC4-A726-4E80-A98A-6953E02CDC88}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -3032,7 +3415,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3049,7 +3432,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3082,13 +3465,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Trial_API_Framework_13_09_23\API_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC340D0F-E063-4902-AB8A-646BB5FA1882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Users_Test_Data" sheetId="2" r:id="rId2"/>
     <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId3"/>
     <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Notification_Groups_Test_Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Zones_Test_Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Account_Test_Data" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
   <si>
     <t>Password</t>
   </si>
@@ -529,12 +526,54 @@
   </si>
   <si>
     <t>UpdatePassword@123</t>
+  </si>
+  <si>
+    <t>ownerID</t>
+  </si>
+  <si>
+    <t>userIds</t>
+  </si>
+  <si>
+    <t>caseGroupIdsUserIds</t>
+  </si>
+  <si>
+    <t>zoneIds</t>
+  </si>
+  <si>
+    <t>Notification Groups</t>
+  </si>
+  <si>
+    <t>Test_notification_Api</t>
+  </si>
+  <si>
+    <t>DYNAMIC</t>
+  </si>
+  <si>
+    <t>agroupID</t>
+  </si>
+  <si>
+    <t>set_cgroups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false  </t>
+  </si>
+  <si>
+    <t>New Description</t>
+  </si>
+  <si>
+    <t>aGroupId</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -902,7 +941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1006,6 +1045,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,10 +1080,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1133,7 +1178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1310,18 +1355,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1354,7 +1399,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1374,7 +1419,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1437,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1455,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1473,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1452,10 +1497,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66993600-FB9F-4C5F-AA18-AB24831E50DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1581,7 +1626,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1667,7 +1712,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1792,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1872,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1952,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -1982,7 +2027,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="28" t="s">
         <v>153</v>
       </c>
@@ -2055,7 +2100,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2160,7 +2205,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="8" t="s">
         <v>154</v>
       </c>
@@ -2217,7 +2262,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2352,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="8" t="s">
         <v>155</v>
       </c>
@@ -2395,7 +2440,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2434,12 +2479,12 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="8" t="s">
         <v>160</v>
       </c>
@@ -2452,7 +2497,7 @@
       <c r="E13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="40" t="s">
         <v>164</v>
       </c>
       <c r="G13" s="17" t="b">
@@ -2478,12 +2523,12 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2588,7 +2633,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
@@ -2647,30 +2692,30 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{8B2EE289-56E8-41B1-9FC0-DA82C70D1790}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{4903AF91-FCBE-4057-A481-17F1EF5EEEB3}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{7177CE0D-E80B-4CA4-93F9-AB7F3BA0CB9D}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{D9517058-3420-4537-A390-33C54019A0E9}"/>
-    <hyperlink ref="P4" r:id="rId5" xr:uid="{0F8D9443-9959-4A41-A6A2-5FB07A83424B}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{1779B907-4A29-4190-BCD1-2132F8E7F97D}"/>
-    <hyperlink ref="P5" r:id="rId7" xr:uid="{00D2418C-4F76-4147-A9E2-0F44E521B21D}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{B9570737-529E-43D4-9753-A503DA581C00}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{172376B6-4824-4CEB-8EC6-DA4F7BA32631}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{AE54AF74-3D85-4552-BA43-70FB38829072}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{250DCD88-E24F-44FC-A509-22FE7B413DD9}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{EBA6E3C8-BA22-4475-886A-EBAF69944688}"/>
-    <hyperlink ref="T9" r:id="rId13" xr:uid="{0BAA8CE3-F123-4413-82F7-A2BEE0CF37D0}"/>
-    <hyperlink ref="AE15" r:id="rId14" xr:uid="{80FAB9BB-3632-4A13-8B29-7AE57463FD79}"/>
-    <hyperlink ref="AF15" r:id="rId15" xr:uid="{086EB7E1-F1BC-4AB2-BB3E-C7E5B64E4106}"/>
-    <hyperlink ref="AG15" r:id="rId16" xr:uid="{10890F92-2D0A-434B-A118-61818FC06BD3}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{0519FFB8-7749-497B-B65E-976726FA7640}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="P11" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="L9" r:id="rId12"/>
+    <hyperlink ref="T9" r:id="rId13"/>
+    <hyperlink ref="AE15" r:id="rId14"/>
+    <hyperlink ref="AF15" r:id="rId15"/>
+    <hyperlink ref="AG15" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879C3BF6-AB29-4F64-BC81-0E2D392BB489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2785,7 +2830,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="47" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2874,7 +2919,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -2905,7 +2950,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -2936,7 +2981,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -2975,7 +3020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADFAC4-A726-4E80-A98A-6953E02CDC88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3032,7 +3077,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3049,7 +3094,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3082,13 +3127,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
@@ -3127,4 +3172,505 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="41">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Trial_API_Framework_13_09_23\API_Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BF190D-E740-4FB2-805F-40947CC59083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140E29F-8022-4264-BB04-75208C512D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>Test_02</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
     <t>Test_03</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
   </si>
   <si>
     <t>caseId</t>
+  </si>
+  <si>
+    <t>shubham</t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1485,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -1500,13 +1500,13 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -1518,13 +1518,13 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>8</v>
@@ -1536,7 +1536,7 @@
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1608,135 +1608,135 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="O2" s="17">
         <v>12345</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" s="17">
         <v>123456789</v>
@@ -1754,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="W2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>157</v>
-      </c>
       <c r="Y2" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="18" t="s">
         <v>9</v>
@@ -1780,73 +1780,73 @@
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>9</v>
@@ -1855,48 +1855,48 @@
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="O4" s="17">
         <v>12345</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" s="17">
         <v>123456789</v>
@@ -1914,19 +1914,19 @@
         <v>0</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="Y4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="AB4" s="18" t="s">
         <v>9</v>
@@ -1935,78 +1935,78 @@
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB5" s="20" t="s">
         <v>9</v>
@@ -2018,79 +2018,79 @@
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="L6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="O6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="R6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="U6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="X6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="b">
@@ -2166,115 +2166,115 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="R8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="V8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="AB8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="21" t="s">
+      <c r="AD8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AI8" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="AB8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="45"/>
       <c r="B9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -2282,7 +2282,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="29" t="b">
         <v>1</v>
@@ -2296,7 +2296,7 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U9" s="17">
         <v>0</v>
@@ -2308,16 +2308,16 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="17"/>
       <c r="AE9" s="17"/>
       <c r="AF9" s="17"/>
       <c r="AG9" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH9" s="17"/>
       <c r="AI9" s="17"/>
@@ -2328,137 +2328,137 @@
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="N10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="S10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="T10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="U10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="V10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="W10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="Y10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Z10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="AA10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AB10" s="21" t="s">
+      <c r="AC10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AD10" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="AD10" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="K11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="17" t="s">
+      <c r="N11" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="O11" s="17">
         <v>12345</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" s="17">
         <v>123456789</v>
@@ -2476,28 +2476,28 @@
         <v>0</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA11" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AC11" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD11" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2506,19 +2506,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="17"/>
@@ -2547,19 +2547,19 @@
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>
@@ -2594,109 +2594,109 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="K14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="L14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="P14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="Q14" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="S14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="T14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="U14" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="V14" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="V14" s="21" t="s">
+      <c r="W14" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="W14" s="21" t="s">
+      <c r="X14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="Y14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="Y14" s="21" t="s">
+      <c r="Z14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="Z14" s="21" t="s">
+      <c r="AA14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" s="21" t="s">
+      <c r="AB14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="AB14" s="21" t="s">
+      <c r="AC14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" s="21" t="s">
+      <c r="AD14" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="AD14" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="AE14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AF14" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG14" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AG14" s="33" t="s">
+      <c r="AH14" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AH14" s="33" t="s">
+      <c r="AI14" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="AI14" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -2730,16 +2730,16 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF15" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
@@ -2779,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA3B561-59D9-4322-8E3B-BAC26EC93642}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
@@ -2810,64 +2810,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>181</v>
-      </c>
-      <c r="V1" s="41" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2878,7 +2878,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>0</v>
@@ -2887,65 +2887,65 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="L2" s="17">
         <v>1</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="S2" s="17">
         <v>5000</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="U2" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="V2" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="17"/>
@@ -2972,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="17"/>
@@ -3086,102 +3086,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="8">
         <v>15</v>
@@ -3387,36 +3387,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -3437,10 +3437,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="8">
         <v>0.83</v>
@@ -3452,13 +3452,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K3" s="8" t="b">
         <v>0</v>
@@ -3467,19 +3467,19 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="8">
         <v>0.83</v>
@@ -3491,13 +3491,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K5" s="8" t="b">
         <v>0</v>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Users_Test_Data" sheetId="2" r:id="rId2"/>
-    <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId4"/>
-    <sheet name="Notification_Groups_Test_Data" sheetId="5" r:id="rId5"/>
-    <sheet name="Zones_Test_Data" sheetId="6" r:id="rId6"/>
-    <sheet name="Account_Test_Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Identify_Enroll_Test_Data" sheetId="5" r:id="rId3"/>
+    <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId5"/>
+    <sheet name="Notification_Groups_Test_Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Zones_Test_Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Account_Test_Data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="213">
   <si>
     <t>Password</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Test_02</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
     <t>Test_03</t>
   </si>
   <si>
@@ -526,6 +524,111 @@
   </si>
   <si>
     <t>UpdatePassword@123</t>
+  </si>
+  <si>
+    <t>CgroupId</t>
+  </si>
+  <si>
+    <t>OptOut</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ActivityType</t>
+  </si>
+  <si>
+    <t>BodyMarkings</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>CaseEventType</t>
+  </si>
+  <si>
+    <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>HeightType</t>
+  </si>
+  <si>
+    <t>MethodOffence</t>
+  </si>
+  <si>
+    <t>NarrativeDesc</t>
+  </si>
+  <si>
+    <t>ProfileId</t>
+  </si>
+  <si>
+    <t>ReportedBy</t>
+  </si>
+  <si>
+    <t>ReportedLoss</t>
+  </si>
+  <si>
+    <t>StoreId</t>
+  </si>
+  <si>
+    <t>TimeIncident</t>
+  </si>
+  <si>
+    <t>RegionId</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>call police</t>
+  </si>
+  <si>
+    <t>BOMB THREAT</t>
+  </si>
+  <si>
+    <t>mole on han</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>STORE THREAT</t>
+  </si>
+  <si>
+    <t>theft</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>5.0-5.5</t>
+  </si>
+  <si>
+    <t>GRAB AND DASH</t>
+  </si>
+  <si>
+    <t>narratives</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>09/29/2023 13:24</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>caseId</t>
+  </si>
+  <si>
+    <t>shubham</t>
   </si>
   <si>
     <t>ownerID</t>
@@ -941,7 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1049,38 +1152,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1355,7 +1461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1365,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,14 +1505,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1419,12 +1525,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -1437,15 +1543,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -1455,15 +1561,15 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>8</v>
@@ -1473,9 +1579,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -1501,7 +1607,7 @@
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,135 +1653,135 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="O2" s="17">
         <v>12345</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" s="17">
         <v>123456789</v>
@@ -1693,149 +1799,149 @@
         <v>0</v>
       </c>
       <c r="W2" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>157</v>
-      </c>
       <c r="Y2" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="O4" s="17">
         <v>12345</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" s="17">
         <v>123456789</v>
@@ -1853,183 +1959,183 @@
         <v>0</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="Y4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="AB4" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="17" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="L6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="O6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="R6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="U6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="X6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="b">
@@ -2100,120 +2206,120 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="21" t="s">
+      <c r="R8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="V8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="AB8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="21" t="s">
+      <c r="AD8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AI8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI8" s="21" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -2221,7 +2327,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="29" t="b">
         <v>1</v>
@@ -2235,7 +2341,7 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U9" s="17">
         <v>0</v>
@@ -2247,157 +2353,157 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD9" s="17"/>
       <c r="AE9" s="17"/>
       <c r="AF9" s="17"/>
       <c r="AG9" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH9" s="17"/>
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="M10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="N10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="O10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="P10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="Q10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="R10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="S10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="T10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="U10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="V10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="W10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="X10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="Y10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Z10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="AA10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AB10" s="21" t="s">
+      <c r="AC10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AD10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="21" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="K11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="17" t="s">
+      <c r="N11" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="O11" s="17">
         <v>12345</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" s="17">
         <v>123456789</v>
@@ -2415,49 +2521,49 @@
         <v>0</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA11" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="18" t="s">
         <v>9</v>
       </c>
       <c r="AC11" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD11" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="17"/>
@@ -2484,21 +2590,21 @@
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>
@@ -2528,114 +2634,114 @@
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="E14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="F14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="K14" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="L14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="M14" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="P14" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="Q14" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="S14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="T14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="U14" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="V14" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="V14" s="21" t="s">
+      <c r="W14" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="W14" s="21" t="s">
+      <c r="X14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="Y14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="Y14" s="21" t="s">
+      <c r="Z14" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="Z14" s="21" t="s">
+      <c r="AA14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" s="21" t="s">
+      <c r="AB14" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="AB14" s="21" t="s">
+      <c r="AC14" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" s="21" t="s">
+      <c r="AD14" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="AD14" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="AE14" s="34" t="s">
         <v>0</v>
       </c>
       <c r="AF14" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG14" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AG14" s="33" t="s">
+      <c r="AH14" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AH14" s="33" t="s">
+      <c r="AI14" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" s="33" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -2669,16 +2775,16 @@
       <c r="AB15" s="17"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF15" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
@@ -2716,6 +2822,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="17">
+        <v>1</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="S2" s="17">
+        <v>5000</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2748,102 +3131,102 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" s="21" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>111</v>
+      <c r="A2" s="46" t="s">
+        <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="8">
         <v>15</v>
@@ -2919,7 +3302,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -2950,7 +3333,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -2981,7 +3364,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3019,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -3049,36 +3432,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>150</v>
+      <c r="A2" s="49" t="s">
+        <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -3094,15 +3477,15 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="8">
         <v>0.83</v>
@@ -3114,34 +3497,34 @@
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="8">
         <v>0.83</v>
@@ -3153,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="K5" s="8" t="b">
         <v>0</v>
@@ -3174,25 +3557,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
@@ -3202,158 +3575,158 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>169</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" s="41">
+        <v>205</v>
+      </c>
+      <c r="G4" s="51">
         <v>0</v>
       </c>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="41">
+        <v>205</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="51">
         <v>0</v>
       </c>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
       <c r="B7" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>205</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
       <c r="B8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>171</v>
+        <v>153</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>205</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
@@ -3361,7 +3734,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3371,150 +3744,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -3545,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3566,8 +3796,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>178</v>
+      <c r="A2" s="45" t="s">
+        <v>211</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3578,7 +3808,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -3588,27 +3818,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="41"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3618,27 +3848,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3648,7 +3878,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -3673,4 +3903,138 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" activeCellId="1" sqref="A1:H11 N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140E29F-8022-4264-BB04-75208C512D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC6C01-B6E8-49F0-B401-C6B894D4BDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="218">
   <si>
     <t>Password</t>
   </si>
@@ -632,6 +632,63 @@
   </si>
   <si>
     <t>shubham</t>
+  </si>
+  <si>
+    <t>DetailLevel</t>
+  </si>
+  <si>
+    <t>MaxMatches</t>
+  </si>
+  <si>
+    <t>IncludeMatrics</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>ascending</t>
+  </si>
+  <si>
+    <t>detailLevel</t>
+  </si>
+  <si>
+    <t>isExact</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>orderBy</t>
+  </si>
+  <si>
+    <t>startEnrollmentDate</t>
+  </si>
+  <si>
+    <t>endEnrollmentDate</t>
+  </si>
+  <si>
+    <t>startExpirationDate</t>
+  </si>
+  <si>
+    <t>endExpirationDate</t>
+  </si>
+  <si>
+    <t>notInCGroup</t>
+  </si>
+  <si>
+    <t>searchInOr</t>
+  </si>
+  <si>
+    <t>cgroup_id</t>
+  </si>
+  <si>
+    <t>storeId</t>
   </si>
 </sst>
 </file>
@@ -696,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1000,12 +1057,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,6 +1212,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1426,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2777,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA3B561-59D9-4322-8E3B-BAC26EC93642}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2789,12 +2865,15 @@
     <col min="2" max="2" width="30.21875" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="12.77734375" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
@@ -2966,7 +3045,7 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
@@ -2996,12 +3075,20 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -3021,11 +3108,19 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -3044,10 +3139,121 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44"/>
+      <c r="B8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3</v>
+      </c>
+      <c r="H8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="Notification_Groups_Test_Data" sheetId="6" r:id="rId6"/>
     <sheet name="Zones_Test_Data" sheetId="7" r:id="rId7"/>
     <sheet name="Account_Test_Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Notes_Test_Data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="241">
   <si>
     <t>Password</t>
   </si>
@@ -671,6 +672,90 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>bodyMarkings</t>
+  </si>
+  <si>
+    <t>narrativeDesc</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>storeId</t>
+  </si>
+  <si>
+    <t>caseNumber</t>
+  </si>
+  <si>
+    <t>timeIncident</t>
+  </si>
+  <si>
+    <t>reportedBy</t>
+  </si>
+  <si>
+    <t>reportedLoss</t>
+  </si>
+  <si>
+    <t>caseEventType</t>
+  </si>
+  <si>
+    <t>activityType</t>
+  </si>
+  <si>
+    <t>heightType</t>
+  </si>
+  <si>
+    <t>methodOffence</t>
+  </si>
+  <si>
+    <t>ClearGeo</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>nsarra</t>
+  </si>
+  <si>
+    <t>Call Police</t>
+  </si>
+  <si>
+    <t>theft one bottle</t>
+  </si>
+  <si>
+    <t>09/21/2023 07:47</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>DOMESTIC VIOLENCE</t>
+  </si>
+  <si>
+    <t>5.6-5.9</t>
+  </si>
+  <si>
+    <t>73.84841725892831,18.511004603403823</t>
+  </si>
+  <si>
+    <t>NoteId</t>
+  </si>
+  <si>
+    <t>SetCases</t>
+  </si>
+  <si>
+    <t>noteId</t>
+  </si>
+  <si>
+    <t>Images</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1155,6 +1240,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,11 +1273,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1461,7 +1549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1505,7 +1593,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1525,7 +1613,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1543,7 +1631,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1561,7 +1649,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1667,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1732,7 +1820,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1818,7 +1906,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1898,7 +1986,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +2066,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2058,7 +2146,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2133,7 +2221,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2206,7 +2294,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +2399,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2368,7 +2456,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2546,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2546,7 +2634,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2590,7 +2678,7 @@
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -2634,7 +2722,7 @@
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2739,7 +2827,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -2916,7 +3004,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2984,7 +3072,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3012,7 +3100,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3042,7 +3130,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3066,7 +3154,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="9"/>
@@ -3213,7 +3301,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3302,7 +3390,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -3333,7 +3421,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3364,7 +3452,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3460,7 +3548,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3477,7 +3565,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3510,13 +3598,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3594,7 +3682,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3620,7 +3708,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -3642,7 +3730,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3658,35 +3746,35 @@
       <c r="F4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="42">
         <v>0</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="42">
         <v>0</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -3702,14 +3790,14 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="43" t="s">
         <v>205</v>
       </c>
       <c r="E7" s="17"/>
@@ -3718,14 +3806,14 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="43" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="17"/>
@@ -3734,7 +3822,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3744,7 +3832,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -3796,7 +3884,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="8"/>
@@ -3808,7 +3896,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -3818,27 +3906,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3848,27 +3936,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3878,7 +3966,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -3909,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" activeCellId="1" sqref="A1:H11 N11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3930,7 +4018,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="8"/>
@@ -3942,7 +4030,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -3952,27 +4040,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="51"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3982,27 +4070,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4012,7 +4100,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4037,4 +4125,381 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="L2" s="9">
+        <v>8000</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="9">
+        <v>7000</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="260">
   <si>
     <t>Password</t>
   </si>
@@ -756,6 +756,63 @@
   </si>
   <si>
     <t>Images</t>
+  </si>
+  <si>
+    <t>DetailLevel</t>
+  </si>
+  <si>
+    <t>MaxMatches</t>
+  </si>
+  <si>
+    <t>IncludeMatrics</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>ascending</t>
+  </si>
+  <si>
+    <t>detailLevel</t>
+  </si>
+  <si>
+    <t>isExact</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>orderBy</t>
+  </si>
+  <si>
+    <t>startEnrollmentDate</t>
+  </si>
+  <si>
+    <t>endEnrollmentDate</t>
+  </si>
+  <si>
+    <t>startExpirationDate</t>
+  </si>
+  <si>
+    <t>endExpirationDate</t>
+  </si>
+  <si>
+    <t>notInCGroup</t>
+  </si>
+  <si>
+    <t>searchInOr</t>
+  </si>
+  <si>
+    <t>cgroup_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identify Enroll </t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1246,6 +1303,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,8 +1333,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1549,7 +1609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1593,7 +1653,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1613,7 +1673,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1631,7 +1691,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1649,7 +1709,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1727,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1820,7 +1880,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1906,7 +1966,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +2046,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2126,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2146,7 +2206,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2221,7 +2281,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2294,7 +2354,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2399,7 +2459,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2456,7 +2516,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2546,7 +2606,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2634,7 +2694,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2738,7 @@
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -2722,7 +2782,7 @@
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2827,7 +2887,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -2910,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3004,8 +3064,8 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>7</v>
+      <c r="A2" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -3072,7 +3132,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3099,8 +3159,8 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="46"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3129,12 +3189,20 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="5" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46"/>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>243</v>
+      </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -3154,11 +3222,19 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -3176,6 +3252,114 @@
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3</v>
+      </c>
+      <c r="H8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3301,7 +3485,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3390,7 +3574,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -3421,7 +3605,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3452,7 +3636,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3548,7 +3732,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3565,7 +3749,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3598,13 +3782,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3682,7 +3866,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3708,7 +3892,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -3730,7 +3914,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3752,7 +3936,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -3774,7 +3958,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -3790,7 +3974,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
@@ -3806,7 +3990,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
@@ -3822,7 +4006,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3832,7 +4016,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -3884,7 +4068,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="8"/>
@@ -3896,7 +4080,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -3906,7 +4090,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3916,7 +4100,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -3926,7 +4110,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -3936,7 +4120,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -3946,7 +4130,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -3956,7 +4140,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3966,7 +4150,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4018,7 +4202,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="8"/>
@@ -4030,7 +4214,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4040,7 +4224,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4050,7 +4234,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4060,7 +4244,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4070,7 +4254,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4080,7 +4264,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4090,7 +4274,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4100,7 +4284,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4131,7 +4315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -4204,7 +4388,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4263,8 +4447,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="21" t="s">
         <v>213</v>
       </c>
@@ -4316,7 +4500,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4371,7 +4555,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>196</v>
@@ -4396,7 +4580,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -4423,7 +4607,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>237</v>
@@ -4448,7 +4632,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6193AC-3CAA-4681-BF35-24EA79AEE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <sheet name="Account_Test_Data" sheetId="8" r:id="rId8"/>
     <sheet name="Notes_Test_Data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="269">
   <si>
     <t>Password</t>
   </si>
@@ -813,12 +819,39 @@
   </si>
   <si>
     <t xml:space="preserve">Identify Enroll </t>
+  </si>
+  <si>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>cgroupId</t>
+  </si>
+  <si>
+    <t>profileId</t>
+  </si>
+  <si>
+    <t>optOut</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>regionId</t>
+  </si>
+  <si>
+    <t>setCgroups</t>
+  </si>
+  <si>
+    <t>cgroupIds</t>
+  </si>
+  <si>
+    <t>basis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -877,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1181,12 +1214,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,6 +1350,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,8 +1380,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,14 +1665,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1653,7 +1709,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1673,7 +1729,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1691,7 +1747,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1765,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1783,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1880,7 +1936,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1966,7 +2022,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2102,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2182,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2262,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2337,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2354,7 +2410,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2515,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2516,7 +2572,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2606,7 +2662,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2694,7 +2750,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2738,7 +2794,7 @@
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -2782,7 +2838,7 @@
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +2943,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -2946,34 +3002,34 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="P3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="P4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="P5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="P11" r:id="rId9"/>
-    <hyperlink ref="Q11" r:id="rId10"/>
-    <hyperlink ref="F9" r:id="rId11"/>
-    <hyperlink ref="L9" r:id="rId12"/>
-    <hyperlink ref="T9" r:id="rId13"/>
-    <hyperlink ref="AE15" r:id="rId14"/>
-    <hyperlink ref="AF15" r:id="rId15"/>
-    <hyperlink ref="AG15" r:id="rId16"/>
-    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A10" sqref="A10:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2982,20 +3038,28 @@
     <col min="2" max="2" width="30.21875" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="13.44140625" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3063,8 +3127,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
         <v>259</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3131,8 +3195,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="56"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3159,8 +3223,8 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="56"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3189,8 +3253,8 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:27" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="56"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3221,8 +3285,8 @@
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="56"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3317,8 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="56"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -3275,31 +3340,31 @@
       <c r="H7" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="45" t="s">
         <v>258</v>
       </c>
       <c r="R7" s="17"/>
@@ -3308,7 +3373,8 @@
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="56"/>
       <c r="B8" s="14" t="s">
         <v>152</v>
       </c>
@@ -3361,16 +3427,161 @@
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
     </row>
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="V9" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="X9" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z9" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA9" s="45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="58">
+        <v>500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>187</v>
+      </c>
+      <c r="O10" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" t="s">
+        <v>190</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3485,7 +3696,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3574,7 +3785,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -3605,7 +3816,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3636,7 +3847,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3675,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3732,7 +3943,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3749,7 +3960,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3782,13 +3993,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3830,7 +4041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3866,7 +4077,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3892,7 +4103,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -3914,7 +4125,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3936,7 +4147,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -3958,7 +4169,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -3974,7 +4185,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
@@ -3990,7 +4201,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
@@ -4006,7 +4217,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4016,7 +4227,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4044,7 +4255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4068,7 +4279,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="8"/>
@@ -4080,7 +4291,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4090,7 +4301,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4100,7 +4311,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4110,7 +4321,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4120,7 +4331,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4130,7 +4341,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4140,7 +4351,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4150,7 +4361,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4178,7 +4389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4202,7 +4413,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="8"/>
@@ -4214,7 +4425,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4224,7 +4435,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4234,7 +4445,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4244,7 +4455,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4254,7 +4465,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4264,7 +4475,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4274,7 +4485,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4284,7 +4495,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4312,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4388,7 +4599,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4447,7 +4658,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="44"/>
       <c r="C3" s="21" t="s">
         <v>213</v>
@@ -4500,7 +4711,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4555,7 +4766,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>196</v>
@@ -4580,7 +4791,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -4607,7 +4818,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>237</v>
@@ -4632,7 +4843,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
     <sheet name="Zones_Test_Data" sheetId="7" r:id="rId7"/>
     <sheet name="Account_Test_Data" sheetId="8" r:id="rId8"/>
     <sheet name="Notes_Test_Data" sheetId="9" r:id="rId9"/>
+    <sheet name="Tags_Test_Data" sheetId="10" r:id="rId10"/>
+    <sheet name="Detect_Face_Test_Data" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="280">
   <si>
     <t>Password</t>
   </si>
@@ -813,6 +815,66 @@
   </si>
   <si>
     <t xml:space="preserve">Identify Enroll </t>
+  </si>
+  <si>
+    <t>Description1</t>
+  </si>
+  <si>
+    <t>Desc Test</t>
+  </si>
+  <si>
+    <t>Test Case No</t>
+  </si>
+  <si>
+    <t>seriousEvent</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>TagNames</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Name123</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>newName</t>
+  </si>
+  <si>
+    <t>65167bf202302bffd7a8ba88</t>
+  </si>
+  <si>
+    <t>Testnewname</t>
+  </si>
+  <si>
+    <t>MaxFaces</t>
+  </si>
+  <si>
+    <t>DetectionThreshold</t>
+  </si>
+  <si>
+    <t>MinEyeDistance</t>
+  </si>
+  <si>
+    <t>IncludeEyeCoordinates</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Detect Faces</t>
+  </si>
+  <si>
+    <t>binary</t>
   </si>
 </sst>
 </file>
@@ -1284,12 +1346,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,6 +1360,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1332,9 +1397,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,7 +1671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1653,7 +1715,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1673,7 +1735,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1691,7 +1753,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1709,7 +1771,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1789,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1747,6 +1809,177 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>50</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1880,7 +2113,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1966,7 +2199,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2046,7 +2279,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2126,7 +2359,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2439,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2514,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2354,7 +2587,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2459,7 +2692,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2516,7 +2749,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2606,7 +2839,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2694,7 +2927,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2733,12 +2966,12 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -2751,7 +2984,7 @@
       <c r="E13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="38" t="s">
         <v>163</v>
       </c>
       <c r="G13" s="17" t="b">
@@ -2777,12 +3010,12 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2887,7 +3120,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -2972,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
@@ -3008,63 +3241,63 @@
       <c r="D1" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="39" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>259</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3132,7 +3365,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3160,7 +3393,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3190,7 +3423,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3200,7 +3433,7 @@
       <c r="D5" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>243</v>
       </c>
       <c r="F5" s="17"/>
@@ -3222,7 +3455,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3263,43 +3496,43 @@
       <c r="D7" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="Q7" s="54" t="s">
+      <c r="Q7" s="43" t="s">
         <v>258</v>
       </c>
       <c r="R7" s="17"/>
@@ -3373,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3485,158 +3718,270 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="44" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="8">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8">
+        <v>15</v>
+      </c>
+      <c r="M2" s="8">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8">
+        <v>15</v>
+      </c>
+      <c r="O2" s="8">
+        <v>15</v>
+      </c>
+      <c r="P2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>15</v>
+      </c>
+      <c r="R2" s="8">
+        <v>15</v>
+      </c>
+      <c r="S2" s="8">
+        <v>15</v>
+      </c>
+      <c r="T2" s="8">
+        <v>15</v>
+      </c>
+      <c r="U2" s="8">
+        <v>15</v>
+      </c>
+      <c r="V2" s="8">
+        <v>15</v>
+      </c>
+      <c r="W2" s="8">
+        <v>15</v>
+      </c>
+      <c r="X2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="51"/>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="8">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8">
-        <v>15</v>
-      </c>
-      <c r="K2" s="8">
-        <v>15</v>
-      </c>
-      <c r="L2" s="8">
-        <v>15</v>
-      </c>
-      <c r="M2" s="8">
-        <v>15</v>
-      </c>
-      <c r="N2" s="8">
-        <v>15</v>
-      </c>
-      <c r="O2" s="8">
-        <v>15</v>
-      </c>
-      <c r="P2" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>15</v>
-      </c>
-      <c r="R2" s="8">
-        <v>15</v>
-      </c>
-      <c r="S2" s="8">
-        <v>15</v>
-      </c>
-      <c r="T2" s="8">
-        <v>15</v>
-      </c>
-      <c r="U2" s="8">
-        <v>15</v>
-      </c>
-      <c r="V2" s="8">
-        <v>15</v>
-      </c>
-      <c r="W2" s="8">
-        <v>15</v>
-      </c>
-      <c r="X2" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>15</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>15</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
+      <c r="F3" s="8">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8">
+        <v>15</v>
+      </c>
+      <c r="K3" s="8">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8">
+        <v>15</v>
+      </c>
+      <c r="M3" s="8">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8">
+        <v>15</v>
+      </c>
+      <c r="O3" s="8">
+        <v>15</v>
+      </c>
+      <c r="P3" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>15</v>
+      </c>
+      <c r="R3" s="8">
+        <v>15</v>
+      </c>
+      <c r="S3" s="8">
+        <v>15</v>
+      </c>
+      <c r="T3" s="8">
+        <v>15</v>
+      </c>
+      <c r="U3" s="8">
+        <v>15</v>
+      </c>
+      <c r="V3" s="8">
+        <v>15</v>
+      </c>
+      <c r="W3" s="8">
+        <v>15</v>
+      </c>
+      <c r="X3" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="8">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8">
+        <v>15</v>
+      </c>
+      <c r="K4" s="8">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8">
+        <v>15</v>
+      </c>
+      <c r="M4" s="8">
+        <v>15</v>
+      </c>
+      <c r="N4" s="8">
+        <v>15</v>
+      </c>
+      <c r="O4" s="8">
+        <v>15</v>
+      </c>
+      <c r="P4" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8">
+        <v>15</v>
+      </c>
+      <c r="S4" s="8">
+        <v>15</v>
+      </c>
+      <c r="T4" s="8">
+        <v>15</v>
+      </c>
+      <c r="U4" s="8">
+        <v>15</v>
+      </c>
+      <c r="V4" s="8">
+        <v>15</v>
+      </c>
+      <c r="W4" s="8">
+        <v>15</v>
+      </c>
+      <c r="X4" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3732,7 +4077,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3749,7 +4094,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3782,13 +4127,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3866,7 +4211,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3892,7 +4237,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -3914,7 +4259,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3930,35 +4275,35 @@
       <c r="F4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="40">
         <v>0</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="40">
         <v>0</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -3974,14 +4319,14 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="41" t="s">
         <v>205</v>
       </c>
       <c r="E7" s="17"/>
@@ -3990,14 +4335,14 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="41" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="17"/>
@@ -4006,7 +4351,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4016,7 +4361,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4068,7 +4413,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="8"/>
@@ -4080,7 +4425,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4090,27 +4435,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4120,27 +4465,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4150,7 +4495,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4202,7 +4547,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="8"/>
@@ -4214,7 +4559,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4224,27 +4569,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4254,27 +4599,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4284,7 +4629,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4388,7 +4733,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4447,8 +4792,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="21" t="s">
         <v>213</v>
       </c>
@@ -4500,7 +4845,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4555,7 +4900,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>196</v>
@@ -4580,14 +4925,14 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
@@ -4607,7 +4952,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>237</v>
@@ -4632,7 +4977,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6193AC-3CAA-4681-BF35-24EA79AEE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04098CC0-2390-468F-87C8-5B8A647CCCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="278">
   <si>
     <t>Password</t>
   </si>
@@ -846,6 +846,33 @@
   </si>
   <si>
     <t>basis</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>IncludeCaseIds</t>
+  </si>
+  <si>
+    <t>OrderBy</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>geoCenter</t>
+  </si>
+  <si>
+    <t>geoMaxDistance</t>
+  </si>
+  <si>
+    <t>regionIds</t>
+  </si>
+  <si>
+    <t>includeCaseIds</t>
+  </si>
+  <si>
+    <t>Test_11</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1347,50 +1374,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1709,7 +1761,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1729,7 +1781,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1799,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1817,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1783,7 +1835,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1936,7 +1988,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2022,7 +2074,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2102,7 +2154,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2234,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +2314,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2337,7 +2389,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2410,7 +2462,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +2567,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2572,7 +2624,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2714,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2750,7 +2802,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2794,7 +2846,7 @@
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +2890,7 @@
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2943,7 +2995,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -3028,7 +3080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:AA10"/>
     </sheetView>
   </sheetViews>
@@ -3128,7 +3180,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>259</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3196,7 +3248,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3224,7 +3276,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3253,8 +3305,8 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:27" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3286,7 +3338,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3317,8 +3369,8 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -3340,31 +3392,31 @@
       <c r="H7" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="M7" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="N7" s="45" t="s">
+      <c r="N7" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="44" t="s">
         <v>258</v>
       </c>
       <c r="R7" s="17"/>
@@ -3374,7 +3426,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="14" t="s">
         <v>152</v>
       </c>
@@ -3449,61 +3501,61 @@
       <c r="H9" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="N9" s="45" t="s">
+      <c r="N9" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="Q9" s="45" t="s">
+      <c r="Q9" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="S9" s="45" t="s">
+      <c r="S9" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="U9" s="45" t="s">
+      <c r="U9" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="V9" s="45" t="s">
+      <c r="V9" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="W9" s="45" t="s">
+      <c r="W9" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="X9" s="45" t="s">
+      <c r="X9" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="Y9" s="45" t="s">
+      <c r="Y9" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="Z9" s="45" t="s">
+      <c r="Z9" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="AA9" s="45" t="s">
+      <c r="AA9" s="44" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3514,13 +3566,13 @@
       <c r="D10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="45" t="s">
         <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="46">
         <v>500</v>
       </c>
       <c r="H10" t="s">
@@ -3696,7 +3748,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3785,7 +3837,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -3816,7 +3868,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3847,7 +3899,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3943,7 +3995,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3960,7 +4012,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3993,13 +4045,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4077,7 +4129,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4103,7 +4155,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -4125,7 +4177,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -4147,7 +4199,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -4169,7 +4221,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -4185,7 +4237,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
@@ -4201,7 +4253,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
@@ -4217,7 +4269,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4227,7 +4279,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4279,7 +4331,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="8"/>
@@ -4291,7 +4343,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4301,7 +4353,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4311,7 +4363,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4321,7 +4373,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4331,7 +4383,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4341,7 +4393,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4351,7 +4403,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4361,7 +4413,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4413,7 +4465,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="8"/>
@@ -4425,7 +4477,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4435,7 +4487,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4445,7 +4497,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4455,7 +4507,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4465,7 +4517,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4475,7 +4527,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4485,7 +4537,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4495,7 +4547,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4524,10 +4576,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4540,359 +4592,526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="61" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="59">
         <v>8000</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="9" t="b">
+      <c r="R2" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="59" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="S3" s="21"/>
+      <c r="S3" s="61"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="59">
         <v>7000</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="9" t="b">
+      <c r="R4" s="59" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
+      <c r="S4" s="59"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+    </row>
+    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="58">
+        <v>20</v>
+      </c>
+      <c r="F10" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58">
+        <v>0</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+    </row>
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+    </row>
+    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="58">
+        <v>93677</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
+      <c r="B14" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="58">
+        <v>20</v>
+      </c>
+      <c r="E14" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="58">
+        <v>0</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6193AC-3CAA-4681-BF35-24EA79AEE4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
     <sheet name="Account_Test_Data" sheetId="8" r:id="rId8"/>
     <sheet name="Notes_Test_Data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="278">
   <si>
     <t>Password</t>
   </si>
@@ -846,12 +840,39 @@
   </si>
   <si>
     <t>basis</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>IncludeCaseIds</t>
+  </si>
+  <si>
+    <t>OrderBy</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>geoCenter</t>
+  </si>
+  <si>
+    <t>geoMaxDistance</t>
+  </si>
+  <si>
+    <t>regionIds</t>
+  </si>
+  <si>
+    <t>includeCaseIds</t>
+  </si>
+  <si>
+    <t>Test_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1230,7 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1353,6 +1374,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,6 +1392,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,17 +1413,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1665,14 +1689,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,7 +1733,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1729,7 +1753,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1771,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1789,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1783,7 +1807,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1936,7 +1960,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2022,7 +2046,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2102,7 +2126,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2206,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +2286,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2337,7 +2361,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2410,7 +2434,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2515,7 +2539,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2572,7 +2596,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2686,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2750,7 +2774,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2794,7 +2818,7 @@
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +2862,7 @@
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2943,7 +2967,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -3002,33 +3026,33 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="P11" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="L9" r:id="rId12"/>
+    <hyperlink ref="T9" r:id="rId13"/>
+    <hyperlink ref="AE15" r:id="rId14"/>
+    <hyperlink ref="AF15" r:id="rId15"/>
+    <hyperlink ref="AG15" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:AA10"/>
     </sheetView>
   </sheetViews>
@@ -3128,7 +3152,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>259</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3196,7 +3220,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3224,7 +3248,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3253,8 +3277,8 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:27" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3286,7 +3310,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3317,8 +3341,8 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="53"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -3374,7 +3398,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="14" t="s">
         <v>152</v>
       </c>
@@ -3514,13 +3538,13 @@
       <c r="D10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="46" t="s">
         <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="47">
         <v>500</v>
       </c>
       <c r="H10" t="s">
@@ -3581,7 +3605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3696,7 +3720,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3785,7 +3809,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -3816,7 +3840,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3847,7 +3871,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3886,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3943,7 +3967,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3960,7 +3984,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3993,13 +4017,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4041,7 +4065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4101,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4103,7 +4127,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -4125,7 +4149,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -4147,7 +4171,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -4169,7 +4193,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -4185,7 +4209,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
@@ -4201,7 +4225,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
@@ -4217,7 +4241,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4227,7 +4251,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4255,7 +4279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4279,7 +4303,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="8"/>
@@ -4291,7 +4315,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4301,7 +4325,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4311,7 +4335,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4321,7 +4345,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4331,7 +4355,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4341,7 +4365,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4351,7 +4375,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4361,7 +4385,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4389,7 +4413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4413,7 +4437,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="8"/>
@@ -4425,7 +4449,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4435,7 +4459,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4445,7 +4469,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4455,7 +4479,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4465,7 +4489,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4475,7 +4499,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4485,7 +4509,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4495,7 +4519,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4523,18 +4547,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
@@ -4599,7 +4624,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="54" t="s">
         <v>212</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4658,7 +4683,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="44"/>
       <c r="C3" s="21" t="s">
         <v>213</v>
@@ -4711,7 +4736,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4766,7 +4791,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>196</v>
@@ -4791,7 +4816,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -4818,7 +4843,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>237</v>
@@ -4843,7 +4868,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -4870,29 +4895,196 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="F10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="8">
+        <v>93677</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="56"/>
+      <c r="B14" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Notes_Test_Data" sheetId="9" r:id="rId9"/>
     <sheet name="Tags_Test_Data" sheetId="10" r:id="rId10"/>
     <sheet name="Detect_Face_Test_Data" sheetId="11" r:id="rId11"/>
+    <sheet name="Visitor_Search_Test_Data" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="286">
   <si>
     <t>Password</t>
   </si>
@@ -631,9 +632,6 @@
     <t>caseId</t>
   </si>
   <si>
-    <t>shubham</t>
-  </si>
-  <si>
     <t>ownerID</t>
   </si>
   <si>
@@ -875,6 +873,27 @@
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>StartDateTime</t>
+  </si>
+  <si>
+    <t>EndDateTime</t>
+  </si>
+  <si>
+    <t>regionId</t>
+  </si>
+  <si>
+    <t>651e796b1b0bb591803547ea</t>
+  </si>
+  <si>
+    <t>Visitor Search</t>
+  </si>
+  <si>
+    <t>core</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1371,6 +1390,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1671,7 +1692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1681,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,14 +1736,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1735,7 +1756,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1753,12 +1774,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>16</v>
@@ -1771,7 +1792,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1810,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1827,84 +1848,84 @@
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>138</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>265</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D5" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1941,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,27 +1958,27 @@
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="39" t="s">
         <v>276</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -1975,11 +1996,75 @@
         <v>1</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="46">
+        <v>45087.083333333336</v>
+      </c>
+      <c r="E2" s="46">
+        <v>45087.104166666664</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2113,7 +2198,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2199,7 +2284,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2364,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +2444,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2439,7 +2524,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +2599,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2587,7 +2672,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +2777,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2749,7 +2834,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2839,7 +2924,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2927,7 +3012,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2971,7 +3056,7 @@
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -3015,7 +3100,7 @@
       <c r="AD13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -3120,7 +3205,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -3297,8 +3382,8 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>259</v>
+      <c r="A2" s="48" t="s">
+        <v>258</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -3365,7 +3450,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3393,7 +3478,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3423,18 +3508,18 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="39" t="s">
         <v>242</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>243</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -3455,7 +3540,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3491,49 +3576,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="F7" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="G7" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="H7" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="I7" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="J7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="K7" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="L7" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="M7" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="N7" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="O7" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="P7" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="Q7" s="43" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>258</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
@@ -3546,7 +3631,7 @@
         <v>152</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>194</v>
@@ -3606,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -3718,7 +3803,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3731,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F2" s="8">
         <v>15</v>
@@ -3807,7 +3892,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3894,7 +3979,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -3905,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="8">
         <v>15</v>
@@ -3981,7 +4066,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -4077,7 +4162,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4094,7 +4179,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -4127,13 +4212,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4198,51 +4283,51 @@
         <v>112</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>112</v>
@@ -4251,29 +4336,29 @@
         <v>138</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="G4" s="40">
         <v>0</v>
@@ -4281,21 +4366,21 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>205</v>
       </c>
       <c r="G5" s="40">
         <v>0</v>
@@ -4303,12 +4388,12 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>61</v>
@@ -4319,15 +4404,15 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
@@ -4335,15 +4420,15 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
@@ -4351,7 +4436,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4361,7 +4446,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4413,8 +4498,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>211</v>
+      <c r="A2" s="51" t="s">
+        <v>210</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4425,7 +4510,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4435,7 +4520,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4445,7 +4530,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="40"/>
@@ -4455,7 +4540,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4465,7 +4550,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
@@ -4475,7 +4560,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
@@ -4485,7 +4570,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4495,7 +4580,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4547,8 +4632,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>212</v>
+      <c r="A2" s="51" t="s">
+        <v>211</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4559,7 +4644,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4569,7 +4654,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4579,7 +4664,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="40"/>
@@ -4589,7 +4674,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4599,7 +4684,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
@@ -4609,7 +4694,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
@@ -4619,7 +4704,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4629,7 +4714,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4681,60 +4766,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>186</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="Q1" s="21" t="s">
         <v>176</v>
       </c>
       <c r="R1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="S1" s="21" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
-        <v>212</v>
+      <c r="A2" s="51" t="s">
+        <v>211</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
@@ -4746,25 +4831,25 @@
         <v>186</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="L2" s="9">
         <v>8000</v>
@@ -4773,10 +4858,10 @@
         <v>187</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>191</v>
@@ -4788,64 +4873,64 @@
         <v>1</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="42"/>
       <c r="C3" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>186</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="P3" s="21" t="s">
-        <v>225</v>
-      </c>
       <c r="Q3" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="R3" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>238</v>
-      </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4856,25 +4941,25 @@
         <v>186</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>233</v>
       </c>
       <c r="L4" s="9">
         <v>7000</v>
@@ -4883,10 +4968,10 @@
         <v>187</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>191</v>
@@ -4900,13 +4985,13 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>196</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -4925,7 +5010,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -4952,13 +5037,13 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -4977,7 +5062,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04098CC0-2390-468F-87C8-5B8A647CCCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8775E-CB03-49E5-B9D6-8B5CEA4D6F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Identify_Enroll_Test_Data" sheetId="5" r:id="rId3"/>
     <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId4"/>
     <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId5"/>
-    <sheet name="Notification_Groups_Test_Data" sheetId="6" r:id="rId6"/>
-    <sheet name="Zones_Test_Data" sheetId="7" r:id="rId7"/>
-    <sheet name="Account_Test_Data" sheetId="8" r:id="rId8"/>
-    <sheet name="Notes_Test_Data" sheetId="9" r:id="rId9"/>
+    <sheet name="Audit_Log_Test_Data" sheetId="10" r:id="rId6"/>
+    <sheet name="Notification_Groups_Test_Data" sheetId="6" r:id="rId7"/>
+    <sheet name="Zones_Test_Data" sheetId="7" r:id="rId8"/>
+    <sheet name="Account_Test_Data" sheetId="8" r:id="rId9"/>
+    <sheet name="Notes_Test_Data" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="282">
   <si>
     <t>Password</t>
   </si>
@@ -635,9 +636,6 @@
     <t>caseId</t>
   </si>
   <si>
-    <t>shubham</t>
-  </si>
-  <si>
     <t>ownerID</t>
   </si>
   <si>
@@ -873,6 +871,21 @@
   </si>
   <si>
     <t>Test_11</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit log </t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>2023-10-09T12:17:20.685Z</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1383,6 +1396,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1416,34 +1441,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1728,7 +1732,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,14 +1765,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1781,7 +1785,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1799,12 +1803,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>16</v>
@@ -1817,7 +1821,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1839,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1855,6 +1859,550 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="L2" s="9">
+        <v>8000</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="58"/>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="9">
+        <v>7000</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="F10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="8">
+        <v>93677</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="59"/>
+      <c r="B14" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1988,7 +2536,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2074,7 +2622,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2154,7 +2702,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2234,7 +2782,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2314,7 +2862,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2389,7 +2937,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2462,7 +3010,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2567,7 +3115,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2624,7 +3172,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2714,7 +3262,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -2802,7 +3350,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -2846,7 +3394,7 @@
       <c r="AD12" s="39"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -2890,7 +3438,7 @@
       <c r="AD13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -2995,7 +3543,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -3081,7 +3629,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:AA10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3180,8 +3728,8 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>259</v>
+      <c r="A2" s="55" t="s">
+        <v>258</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -3248,7 +3796,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3276,7 +3824,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3306,18 +3854,18 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="41" t="s">
         <v>242</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>243</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -3338,7 +3886,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3370,54 +3918,54 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="G7" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="H7" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="I7" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="J7" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="K7" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="L7" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="N7" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="O7" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="P7" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="Q7" s="44" t="s">
         <v>257</v>
-      </c>
-      <c r="Q7" s="44" t="s">
-        <v>258</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
@@ -3426,12 +3974,12 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="14" t="s">
         <v>152</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>194</v>
@@ -3484,79 +4032,79 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" s="44" t="s">
+      <c r="K9" s="44" t="s">
         <v>262</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>263</v>
       </c>
       <c r="L9" s="44" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N9" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="O9" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="O9" s="44" t="s">
-        <v>223</v>
-      </c>
       <c r="P9" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R9" s="44" t="s">
         <v>186</v>
       </c>
       <c r="S9" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="U9" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="T9" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>215</v>
-      </c>
       <c r="V9" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W9" s="44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X9" s="44" t="s">
         <v>197</v>
       </c>
       <c r="Y9" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z9" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="Z9" s="44" t="s">
+      <c r="AA9" s="44" t="s">
         <v>267</v>
-      </c>
-      <c r="AA9" s="44" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -3748,7 +4296,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3837,7 +4385,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="37"/>
       <c r="C3" s="36"/>
       <c r="D3" s="27"/>
@@ -3868,7 +4416,7 @@
       <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -3899,7 +4447,7 @@
       <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -3941,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3995,7 +4543,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4012,7 +4560,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -4045,13 +4593,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4093,6 +4641,105 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD2FDBB-9EEC-4206-AE39-144F4AF14DDF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4116,51 +4763,51 @@
         <v>112</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="H1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>203</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>112</v>
@@ -4169,29 +4816,29 @@
         <v>138</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="G4" s="42">
         <v>0</v>
@@ -4199,21 +4846,21 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>205</v>
       </c>
       <c r="G5" s="42">
         <v>0</v>
@@ -4221,12 +4868,12 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>61</v>
@@ -4237,15 +4884,15 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
@@ -4253,15 +4900,15 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
@@ -4269,7 +4916,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4279,7 +4926,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4306,7 +4953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4331,8 +4978,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>211</v>
+      <c r="A2" s="54" t="s">
+        <v>210</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4343,7 +4990,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4353,7 +5000,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4363,7 +5010,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4373,7 +5020,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4383,7 +5030,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4393,7 +5040,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4403,7 +5050,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4413,7 +5060,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4440,7 +5087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4465,8 +5112,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>212</v>
+      <c r="A2" s="54" t="s">
+        <v>211</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4477,7 +5124,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4487,7 +5134,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4497,7 +5144,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="42"/>
@@ -4507,7 +5154,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4517,7 +5164,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="8"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43"/>
@@ -4527,7 +5174,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="8"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
@@ -4537,7 +5184,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4547,7 +5194,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4572,548 +5219,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q1" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="L2" s="59">
-        <v>8000</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" s="59" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="S3" s="61"/>
-    </row>
-    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="59">
-        <v>7000</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="59"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-    </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-    </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="58">
-        <v>20</v>
-      </c>
-      <c r="F10" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="58">
-        <v>0</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-    </row>
-    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-    </row>
-    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="58">
-        <v>93677</v>
-      </c>
-      <c r="E12" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="58">
-        <v>20</v>
-      </c>
-      <c r="E14" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="58">
-        <v>0</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8775E-CB03-49E5-B9D6-8B5CEA4D6F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6E81A-0905-4AC7-A7C7-B8808B0876F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -23,24 +23,18 @@
     <sheet name="Zones_Test_Data" sheetId="7" r:id="rId8"/>
     <sheet name="Account_Test_Data" sheetId="8" r:id="rId9"/>
     <sheet name="Notes_Test_Data" sheetId="9" r:id="rId10"/>
+    <sheet name="Tags_Test_Data" sheetId="11" r:id="rId11"/>
+    <sheet name="Detect_Face_Test_Data" sheetId="12" r:id="rId12"/>
+    <sheet name="Events_Test_Data" sheetId="13" r:id="rId13"/>
+    <sheet name="All_Module_Search_Test_Data" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="322">
   <si>
     <t>Password</t>
   </si>
@@ -492,9 +486,6 @@
     <t>Enrollment Group</t>
   </si>
   <si>
-    <t>GroupName</t>
-  </si>
-  <si>
     <t>RoleName</t>
   </si>
   <si>
@@ -886,13 +877,136 @@
   </si>
   <si>
     <t>2023-10-09T12:17:20.685Z</t>
+  </si>
+  <si>
+    <t>Desc Test</t>
+  </si>
+  <si>
+    <t>Test Case No</t>
+  </si>
+  <si>
+    <t>seriousEvent</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>TagNames</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>Name123</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>newName</t>
+  </si>
+  <si>
+    <t>65167bf202302bffd7a8ba88</t>
+  </si>
+  <si>
+    <t>Testnewname</t>
+  </si>
+  <si>
+    <t>MaxFaces</t>
+  </si>
+  <si>
+    <t>DetectionThreshold</t>
+  </si>
+  <si>
+    <t>MinEyeDistance</t>
+  </si>
+  <si>
+    <t>IncludeEyeCoordinates</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Detect Faces</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>enrollmentGroupIds</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>cameraIds</t>
+  </si>
+  <si>
+    <t>eventIds</t>
+  </si>
+  <si>
+    <t>Events Search API</t>
+  </si>
+  <si>
+    <t>2023-09-11T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2023-10-12T18:29:00.000Z</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>startAge</t>
+  </si>
+  <si>
+    <t>endAge</t>
+  </si>
+  <si>
+    <t>isMale</t>
+  </si>
+  <si>
+    <t>trackId</t>
+  </si>
+  <si>
+    <t>visitorIds</t>
+  </si>
+  <si>
+    <t>2023-10-12T11:42:00.000Z</t>
+  </si>
+  <si>
+    <t>2023-10-12T12:44:00.000Z</t>
+  </si>
+  <si>
+    <t>GroupNameTest</t>
+  </si>
+  <si>
+    <t>GroupNameNew</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>ResultsDeleted</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Visitors search jobs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,8 +1043,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +1078,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -1270,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1368,9 +1503,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,6 +1540,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1441,13 +1605,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1765,14 +1949,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="62" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1785,7 +1969,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1803,12 +1987,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>16</v>
@@ -1821,7 +2005,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +2023,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1887,105 +2071,105 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="S1" s="21" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
-        <v>211</v>
+      <c r="A2" s="68" t="s">
+        <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="L2" s="9">
         <v>8000</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="P2" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>59</v>
@@ -1994,108 +2178,108 @@
         <v>1</v>
       </c>
       <c r="S2" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>237</v>
-      </c>
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="L4" s="9">
         <v>7000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>234</v>
-      </c>
       <c r="P4" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>59</v>
@@ -2106,13 +2290,13 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2131,14 +2315,14 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="17"/>
@@ -2158,13 +2342,13 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -2183,9 +2367,9 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>59</v>
@@ -2210,25 +2394,25 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -2243,15 +2427,15 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="8">
         <v>20</v>
@@ -2263,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -2278,16 +2462,16 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>273</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -2305,12 +2489,12 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>235</v>
+      <c r="C12" s="47" t="s">
+        <v>234</v>
       </c>
       <c r="D12" s="8">
         <v>93677</v>
@@ -2334,22 +2518,22 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F13" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -2365,9 +2549,9 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>59</v>
@@ -2382,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -2403,6 +2587,442 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="74"/>
+      <c r="B4" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="52">
+        <v>50</v>
+      </c>
+      <c r="D2" s="58">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F88B0C-ACD9-4232-A54D-C95F5F05B2AD}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="28">
+        <v>20</v>
+      </c>
+      <c r="F4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C6" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="61">
+        <v>10</v>
+      </c>
+      <c r="F6" s="61">
+        <v>98</v>
+      </c>
+      <c r="G6" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="80"/>
+      <c r="B8" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1697481000000</v>
+      </c>
+      <c r="D8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1694802600000</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="17">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2536,7 +3156,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="65" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2546,10 +3166,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>44</v>
@@ -2603,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="W2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="Y2" s="23" t="s">
         <v>59</v>
@@ -2622,7 +3242,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2702,16 +3322,16 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>44</v>
@@ -2763,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>51</v>
@@ -2782,7 +3402,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2862,7 +3482,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2937,9 +3557,9 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="b">
@@ -3010,7 +3630,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -3115,9 +3735,9 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -3172,7 +3792,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -3262,16 +3882,16 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>44</v>
@@ -3325,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X11" s="17" t="s">
         <v>51</v>
@@ -3350,7 +3970,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -3361,13 +3981,13 @@
         <v>61</v>
       </c>
       <c r="E12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="17"/>
@@ -3389,14 +4009,14 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>59</v>
@@ -3407,8 +4027,8 @@
       <c r="E13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>163</v>
+      <c r="F13" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>
@@ -3433,12 +4053,12 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -3543,7 +4163,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -3667,69 +4287,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="41" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>258</v>
+      <c r="A2" s="66" t="s">
+        <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -3744,65 +4364,65 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="L2" s="17">
         <v>1</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>192</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>59</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S2" s="17">
         <v>5000</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="V2" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="17"/>
@@ -3824,12 +4444,12 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>59</v>
@@ -3854,18 +4474,18 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="40" t="s">
         <v>241</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>242</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -3886,7 +4506,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3918,54 +4538,54 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="H7" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="I7" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="J7" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="K7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="L7" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="O7" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="P7" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="Q7" s="43" t="s">
         <v>256</v>
-      </c>
-      <c r="Q7" s="44" t="s">
-        <v>257</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
@@ -3974,15 +4594,15 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="9">
         <v>20</v>
@@ -4032,102 +4652,102 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="41" t="s">
+      <c r="K9" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="N9" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="O9" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q9" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="44" t="s">
+      <c r="R9" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="W9" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="N9" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="P9" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q9" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="R9" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="V9" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="W9" s="44" t="s">
+      <c r="X9" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y9" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="X9" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y9" s="44" t="s">
+      <c r="Z9" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="Z9" s="44" t="s">
+      <c r="AA9" s="43" t="s">
         <v>266</v>
-      </c>
-      <c r="AA9" s="44" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="45">
+        <v>500</v>
+      </c>
+      <c r="H10" t="s">
         <v>194</v>
       </c>
-      <c r="F10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="46">
-        <v>500</v>
-      </c>
-      <c r="H10" t="s">
-        <v>195</v>
-      </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>59</v>
@@ -4139,22 +4759,22 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T10" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" t="s">
         <v>189</v>
-      </c>
-      <c r="V10" t="s">
-        <v>190</v>
       </c>
       <c r="W10" s="23" t="s">
         <v>59</v>
@@ -4185,7 +4805,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4296,14 +4916,14 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="68" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>151</v>
+      <c r="C2" s="37" t="s">
+        <v>150</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -4385,69 +5005,181 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="52">
+        <v>15</v>
+      </c>
+      <c r="G3" s="52">
+        <v>15</v>
+      </c>
+      <c r="H3" s="52">
+        <v>15</v>
+      </c>
+      <c r="I3" s="52">
+        <v>15</v>
+      </c>
+      <c r="J3" s="52">
+        <v>15</v>
+      </c>
+      <c r="K3" s="52">
+        <v>15</v>
+      </c>
+      <c r="L3" s="52">
+        <v>15</v>
+      </c>
+      <c r="M3" s="52">
+        <v>15</v>
+      </c>
+      <c r="N3" s="52">
+        <v>15</v>
+      </c>
+      <c r="O3" s="52">
+        <v>15</v>
+      </c>
+      <c r="P3" s="52">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>15</v>
+      </c>
+      <c r="R3" s="52">
+        <v>15</v>
+      </c>
+      <c r="S3" s="52">
+        <v>15</v>
+      </c>
+      <c r="T3" s="52">
+        <v>15</v>
+      </c>
+      <c r="U3" s="52">
+        <v>15</v>
+      </c>
+      <c r="V3" s="52">
+        <v>15</v>
+      </c>
+      <c r="W3" s="52">
+        <v>15</v>
+      </c>
+      <c r="X3" s="52">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="52">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="52">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="52">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="52">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="52">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="52">
+        <v>15</v>
+      </c>
+      <c r="G4" s="52">
+        <v>15</v>
+      </c>
+      <c r="H4" s="52">
+        <v>15</v>
+      </c>
+      <c r="I4" s="52">
+        <v>15</v>
+      </c>
+      <c r="J4" s="52">
+        <v>15</v>
+      </c>
+      <c r="K4" s="52">
+        <v>15</v>
+      </c>
+      <c r="L4" s="52">
+        <v>15</v>
+      </c>
+      <c r="M4" s="52">
+        <v>15</v>
+      </c>
+      <c r="N4" s="52">
+        <v>15</v>
+      </c>
+      <c r="O4" s="52">
+        <v>15</v>
+      </c>
+      <c r="P4" s="52">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>15</v>
+      </c>
+      <c r="R4" s="52">
+        <v>15</v>
+      </c>
+      <c r="S4" s="52">
+        <v>15</v>
+      </c>
+      <c r="T4" s="52">
+        <v>15</v>
+      </c>
+      <c r="U4" s="52">
+        <v>15</v>
+      </c>
+      <c r="V4" s="52">
+        <v>15</v>
+      </c>
+      <c r="W4" s="52">
+        <v>15</v>
+      </c>
+      <c r="X4" s="52">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="52">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="52">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="52">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -4489,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D25"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4543,7 +5275,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="71" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4560,12 +5292,12 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>146</v>
@@ -4593,18 +5325,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>146</v>
@@ -4641,10 +5373,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD2FDBB-9EEC-4206-AE39-144F4AF14DDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4657,23 +5389,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -4682,15 +5414,15 @@
         <v>59</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>277</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -4699,14 +5431,14 @@
         <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -4714,10 +5446,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4728,10 +5460,10 @@
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +5472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4763,51 +5495,51 @@
         <v>112</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>202</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>112</v>
@@ -4816,64 +5548,64 @@
         <v>138</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>0</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="42">
+      <c r="D5" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="41">
         <v>0</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>61</v>
@@ -4884,15 +5616,15 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>204</v>
+        <v>151</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
@@ -4900,15 +5632,15 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>204</v>
+        <v>152</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
@@ -4916,7 +5648,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4926,7 +5658,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4954,7 +5686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4978,8 +5710,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>210</v>
+      <c r="A2" s="65" t="s">
+        <v>209</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4990,7 +5722,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5000,27 +5732,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5030,27 +5762,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5060,7 +5792,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -5088,7 +5820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5112,8 +5844,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
-        <v>211</v>
+      <c r="A2" s="65" t="s">
+        <v>210</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -5124,7 +5856,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5134,27 +5866,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5164,27 +5896,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5194,7 +5926,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Tags_Test_Data" sheetId="10" r:id="rId10"/>
     <sheet name="Detect_Face_Test_Data" sheetId="11" r:id="rId11"/>
     <sheet name="Visitor_Search_Test_Data" sheetId="12" r:id="rId12"/>
+    <sheet name="Enrollment_Data_Test_Data" sheetId="13" r:id="rId13"/>
+    <sheet name="Enroll_Template_Data" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="309">
   <si>
     <t>Password</t>
   </si>
@@ -887,13 +889,82 @@
     <t>regionId</t>
   </si>
   <si>
-    <t>651e796b1b0bb591803547ea</t>
-  </si>
-  <si>
     <t>Visitor Search</t>
   </si>
   <si>
     <t>core</t>
+  </si>
+  <si>
+    <t>6525224c7751dc6faf31095e</t>
+  </si>
+  <si>
+    <t>EndAge</t>
+  </si>
+  <si>
+    <t>StartAge</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Test_11</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>SortDirection</t>
+  </si>
+  <si>
+    <t>2023-10-10T13:44:00.000Z</t>
+  </si>
+  <si>
+    <t>Test_12</t>
+  </si>
+  <si>
+    <t>AgeBucket</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UnknownEthnicity</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>algVersion</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>Enrollment Template Data</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,6 +1463,21 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,6 +1503,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1702,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,14 +1828,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1756,7 +1848,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1774,12 +1866,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>16</v>
@@ -1792,7 +1884,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1902,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +1953,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>264</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1878,7 +1970,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1985,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="21" t="s">
         <v>261</v>
       </c>
@@ -1911,7 +2003,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2006,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,51 +2112,278 @@
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="46">
+        <v>45087.083333333336</v>
+      </c>
+      <c r="E2" s="46">
+        <v>45087.104166666664</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="52">
+        <v>60</v>
+      </c>
+      <c r="D4" s="53">
+        <v>20</v>
+      </c>
+      <c r="E4" s="53">
+        <v>20</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="P7" s="56"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>284</v>
+      <c r="C1" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="46">
-        <v>45087.083333333336</v>
-      </c>
-      <c r="E2" s="46">
-        <v>45087.104166666664</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>283</v>
-      </c>
+      <c r="C2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2198,7 +2517,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2284,7 +2603,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2364,7 +2683,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2763,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2524,7 +2843,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2918,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="28" t="s">
         <v>152</v>
       </c>
@@ -2672,7 +2991,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -2777,7 +3096,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
@@ -2834,7 +3153,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -2924,7 +3243,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="8" t="s">
         <v>154</v>
       </c>
@@ -3012,7 +3331,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -3056,7 +3375,7 @@
       <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="8" t="s">
         <v>159</v>
       </c>
@@ -3100,7 +3419,7 @@
       <c r="AD13" s="37"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -3205,7 +3524,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -3382,7 +3701,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>258</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3450,7 +3769,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>196</v>
@@ -3478,7 +3797,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -3508,7 +3827,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -3540,7 +3859,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3803,7 +4122,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3892,7 +4211,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3979,7 +4298,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4385,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -4162,7 +4481,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4179,7 +4498,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -4212,13 +4531,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4296,7 +4615,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>202</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4322,7 +4641,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -4344,7 +4663,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +4685,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -4388,7 +4707,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -4404,7 +4723,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
@@ -4420,7 +4739,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
@@ -4436,7 +4755,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4446,7 +4765,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4498,7 +4817,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -4510,7 +4829,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4520,7 +4839,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4530,7 +4849,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="40"/>
@@ -4540,7 +4859,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4550,7 +4869,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="8"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
@@ -4560,7 +4879,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="8"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
@@ -4570,7 +4889,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4580,7 +4899,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4632,7 +4951,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="8"/>
@@ -4644,7 +4963,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4654,7 +4973,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -4664,7 +4983,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="40"/>
@@ -4674,7 +4993,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -4684,7 +5003,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="8"/>
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
@@ -4694,7 +5013,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="8"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
@@ -4704,7 +5023,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4714,7 +5033,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4818,7 +5137,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="60" t="s">
         <v>211</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -4877,7 +5196,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="42"/>
       <c r="C3" s="21" t="s">
         <v>212</v>
@@ -4930,7 +5249,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -4985,7 +5304,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>196</v>
@@ -5010,7 +5329,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -5037,7 +5356,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>236</v>
@@ -5062,7 +5381,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A6E81A-0905-4AC7-A7C7-B8808B0876F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640AE623-4BF7-4E6E-B379-A9E5B8612272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,25 @@
     <sheet name="Detect_Face_Test_Data" sheetId="12" r:id="rId12"/>
     <sheet name="Events_Test_Data" sheetId="13" r:id="rId13"/>
     <sheet name="All_Module_Search_Test_Data" sheetId="14" r:id="rId14"/>
+    <sheet name="Region_Test_Data" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="338">
   <si>
     <t>Password</t>
   </si>
@@ -1000,6 +1011,54 @@
   </si>
   <si>
     <t>Visitors search jobs</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>unitType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstName </t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>faxNumber</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>geocode</t>
+  </si>
+  <si>
+    <t>new_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham </t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>admin@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1400,12 +1459,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,6 +1640,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,18 +1691,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1949,7 +2021,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1969,7 +2041,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +2059,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2005,7 +2077,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2095,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2123,7 +2195,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2182,7 +2254,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>211</v>
@@ -2235,7 +2307,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2362,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>195</v>
@@ -2315,7 +2387,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2342,7 +2414,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>235</v>
@@ -2367,7 +2439,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -2394,7 +2466,7 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>216</v>
@@ -2427,7 +2499,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
       </c>
@@ -2462,7 +2534,7 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>271</v>
@@ -2489,7 +2561,7 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2518,7 +2590,7 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>196</v>
@@ -2549,7 +2621,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
       </c>
@@ -2625,7 +2697,7 @@
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -2643,7 +2715,7 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -2659,7 +2731,7 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
       </c>
@@ -2677,7 +2749,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -2807,11 +2879,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F88B0C-ACD9-4232-A54D-C95F5F05B2AD}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2819,7 +2889,7 @@
     <col min="4" max="5" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +2940,7 @@
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>216</v>
@@ -2894,7 +2964,7 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
@@ -2990,8 +3060,8 @@
       <c r="H7" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="80"/>
@@ -3007,7 +3077,7 @@
       <c r="E8" s="17">
         <v>1694802600000</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="62" t="s">
         <v>307</v>
       </c>
       <c r="G8" s="17">
@@ -3016,12 +3086,156 @@
       <c r="H8" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DC6664-5295-4D2B-B455-9E815198C594}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="82"/>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2">
+        <v>123456789</v>
+      </c>
+      <c r="L2">
+        <v>1234</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{5B4CAE9E-1F18-4D4D-8E97-95541CAB17C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3156,7 +3370,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3242,7 +3456,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3322,7 +3536,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -3402,7 +3616,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -3482,7 +3696,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -3557,7 +3771,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
       </c>
@@ -3630,7 +3844,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -3735,7 +3949,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
@@ -3792,7 +4006,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -3882,7 +4096,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
@@ -3970,7 +4184,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -4014,7 +4228,7 @@
       <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
       </c>
@@ -4058,7 +4272,7 @@
       <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -4163,7 +4377,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -4348,7 +4562,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4416,7 +4630,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>195</v>
@@ -4444,7 +4658,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -4474,7 +4688,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4506,7 +4720,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -4538,7 +4752,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -4594,7 +4808,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -4916,7 +5130,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5005,7 +5219,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -5092,7 +5306,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
@@ -5179,7 +5393,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -5275,7 +5489,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5292,7 +5506,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5325,13 +5539,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5508,7 +5722,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5534,7 +5748,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -5556,7 +5770,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -5578,7 +5792,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -5600,7 +5814,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -5616,7 +5830,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
@@ -5632,7 +5846,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -5648,7 +5862,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5658,7 +5872,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -5710,7 +5924,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="8"/>
@@ -5722,7 +5936,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5732,7 +5946,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -5742,7 +5956,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -5752,7 +5966,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5762,7 +5976,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -5772,7 +5986,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -5782,7 +5996,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5792,7 +6006,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -5844,7 +6058,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -5856,7 +6070,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5866,7 +6080,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -5876,7 +6090,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -5886,7 +6100,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5896,7 +6110,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -5906,7 +6120,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -5916,7 +6130,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5926,7 +6140,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,21 @@
     <sheet name="Identify_Enroll_Test_Data" sheetId="5" r:id="rId3"/>
     <sheet name="User_Role_Test_Data" sheetId="3" r:id="rId4"/>
     <sheet name="Enrollment_Group_Test_Data" sheetId="4" r:id="rId5"/>
-    <sheet name="Notification_Groups_Test_Data" sheetId="6" r:id="rId6"/>
-    <sheet name="Zones_Test_Data" sheetId="7" r:id="rId7"/>
-    <sheet name="Account_Test_Data" sheetId="8" r:id="rId8"/>
-    <sheet name="Notes_Test_Data" sheetId="9" r:id="rId9"/>
-    <sheet name="Tags_Test_Data" sheetId="10" r:id="rId10"/>
-    <sheet name="Detect_Face_Test_Data" sheetId="11" r:id="rId11"/>
-    <sheet name="Visitor_Search_Test_Data" sheetId="12" r:id="rId12"/>
-    <sheet name="Enrollment_Data_Test_Data" sheetId="13" r:id="rId13"/>
-    <sheet name="Enroll_Template_Data" sheetId="14" r:id="rId14"/>
+    <sheet name="Audit_Log_Test_Data" sheetId="10" r:id="rId6"/>
+    <sheet name="Notification_Groups_Test_Data" sheetId="6" r:id="rId7"/>
+    <sheet name="Zones_Test_Data" sheetId="7" r:id="rId8"/>
+    <sheet name="Account_Test_Data" sheetId="8" r:id="rId9"/>
+    <sheet name="Notes_Test_Data" sheetId="9" r:id="rId10"/>
+    <sheet name="Tags_Test_Data" sheetId="11" r:id="rId11"/>
+    <sheet name="Detect_Face_Test_Data" sheetId="12" r:id="rId12"/>
+    <sheet name="Events_Test_Data" sheetId="13" r:id="rId13"/>
+    <sheet name="All_Module_Search_Test_Data" sheetId="14" r:id="rId14"/>
+    <sheet name="Region_Test_Data" sheetId="15" r:id="rId15"/>
+    <sheet name="Visitor_Search_Test_Data" sheetId="16" r:id="rId16"/>
+    <sheet name="Enrollment_Data_Test_Data" sheetId="17" r:id="rId17"/>
+    <sheet name="Enroll_Template_Data" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="364">
   <si>
     <t>Password</t>
   </si>
@@ -490,9 +494,6 @@
     <t>Enrollment Group</t>
   </si>
   <si>
-    <t>GroupName</t>
-  </si>
-  <si>
     <t>RoleName</t>
   </si>
   <si>
@@ -817,7 +818,73 @@
     <t xml:space="preserve">Identify Enroll </t>
   </si>
   <si>
-    <t>Description1</t>
+    <t>expiration</t>
+  </si>
+  <si>
+    <t>cgroupId</t>
+  </si>
+  <si>
+    <t>profileId</t>
+  </si>
+  <si>
+    <t>optOut</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>regionId</t>
+  </si>
+  <si>
+    <t>setCgroups</t>
+  </si>
+  <si>
+    <t>cgroupIds</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>IncludeCaseIds</t>
+  </si>
+  <si>
+    <t>OrderBy</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>geoCenter</t>
+  </si>
+  <si>
+    <t>geoMaxDistance</t>
+  </si>
+  <si>
+    <t>regionIds</t>
+  </si>
+  <si>
+    <t>includeCaseIds</t>
+  </si>
+  <si>
+    <t>Test_11</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit log </t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>2023-10-09T12:17:20.685Z</t>
   </si>
   <si>
     <t>Desc Test</t>
@@ -877,6 +944,120 @@
     <t>binary</t>
   </si>
   <si>
+    <t>enrollmentGroupIds</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>cameraIds</t>
+  </si>
+  <si>
+    <t>eventIds</t>
+  </si>
+  <si>
+    <t>Events Search API</t>
+  </si>
+  <si>
+    <t>2023-09-11T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2023-10-12T18:29:00.000Z</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>startAge</t>
+  </si>
+  <si>
+    <t>endAge</t>
+  </si>
+  <si>
+    <t>isMale</t>
+  </si>
+  <si>
+    <t>trackId</t>
+  </si>
+  <si>
+    <t>visitorIds</t>
+  </si>
+  <si>
+    <t>2023-10-12T11:42:00.000Z</t>
+  </si>
+  <si>
+    <t>2023-10-12T12:44:00.000Z</t>
+  </si>
+  <si>
+    <t>GroupNameTest</t>
+  </si>
+  <si>
+    <t>GroupNameNew</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>ResultsDeleted</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Visitors search jobs</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>unitType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstName </t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>faxNumber</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>geocode</t>
+  </si>
+  <si>
+    <t>new_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham </t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>admin@mail.com</t>
+  </si>
+  <si>
     <t>threshold</t>
   </si>
   <si>
@@ -886,15 +1067,9 @@
     <t>EndDateTime</t>
   </si>
   <si>
-    <t>regionId</t>
-  </si>
-  <si>
     <t>Visitor Search</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
     <t>6525224c7751dc6faf31095e</t>
   </si>
   <si>
@@ -907,9 +1082,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Test_11</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -922,40 +1094,37 @@
     <t>2023-10-10T13:44:00.000Z</t>
   </si>
   <si>
+    <t>AgeBucket</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>UnknownEthnicity</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
     <t>Test_12</t>
-  </si>
-  <si>
-    <t>AgeBucket</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>UnknownEthnicity</t>
-  </si>
-  <si>
-    <t>Ascending</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>algVersion</t>
@@ -971,7 +1140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,8 +1177,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,8 +1212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1333,12 +1523,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1436,6 +1646,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,18 +1662,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,7 +1735,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,6 +1753,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1505,11 +1774,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1784,7 +2074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1794,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1828,14 +2118,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="76" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>9</v>
@@ -1848,7 +2138,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1866,12 +2156,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>16</v>
@@ -1884,7 +2174,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1902,7 +2192,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1927,97 +2217,650 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="L2" s="9">
+        <v>8000</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="83"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="83"/>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="9">
+        <v>7000</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="83"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="83"/>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="83"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="83"/>
+      <c r="B8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="83"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="83"/>
+      <c r="B10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="F10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="83"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="83"/>
+      <c r="B12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="8">
+        <v>93677</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="83"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8">
+        <v>20</v>
+      </c>
+      <c r="E14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>263</v>
-      </c>
+      <c r="D1" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="17" t="b">
+      <c r="C2" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>266</v>
-      </c>
+      <c r="E2" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="17" t="b">
+      <c r="C3" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>266</v>
-      </c>
+      <c r="E3" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>263</v>
+      <c r="A4" s="88"/>
+      <c r="B4" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="17" t="b">
+      <c r="C5" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>266</v>
+      <c r="E5" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2038,57 +2881,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>276</v>
+      <c r="B1" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="52">
         <v>50</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="58">
         <v>0.3</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="58">
         <v>0.01</v>
       </c>
-      <c r="F2" s="17" t="b">
+      <c r="F2" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>278</v>
+      <c r="G2" s="58" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2096,231 +2941,618 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="90"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="91"/>
+      <c r="B4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="28">
+        <v>20</v>
+      </c>
+      <c r="F4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C6" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="61">
+        <v>10</v>
+      </c>
+      <c r="F6" s="61">
+        <v>98</v>
+      </c>
+      <c r="G6" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="92" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="93"/>
+      <c r="B8" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1697481000000</v>
+      </c>
+      <c r="D8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1694802600000</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="17">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="D2" s="46">
-        <v>45087.083333333336</v>
-      </c>
-      <c r="E2" s="46">
-        <v>45087.104166666664</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="52">
-        <v>60</v>
-      </c>
-      <c r="D4" s="53">
-        <v>20</v>
-      </c>
-      <c r="E4" s="53">
-        <v>20</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="95"/>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2">
+        <v>123456789</v>
+      </c>
+      <c r="L2">
+        <v>1234</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="N7" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="O7" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="P7" s="56"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="2">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2">
-        <v>50</v>
-      </c>
-      <c r="N8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="64">
+        <v>45087.083333333336</v>
+      </c>
+      <c r="E2" s="64">
+        <v>45087.104166666664</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="70">
+        <v>60</v>
+      </c>
+      <c r="D4" s="71">
+        <v>20</v>
+      </c>
+      <c r="E4" s="71">
+        <v>20</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="K7" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="L7" s="73" t="s">
+        <v>344</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="O7" s="73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2328,59 +3560,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="66" t="b">
+      <c r="E2" s="74" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2517,7 +3741,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="79" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2527,10 +3751,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>44</v>
@@ -2584,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="W2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>156</v>
       </c>
       <c r="Y2" s="23" t="s">
         <v>59</v>
@@ -2603,7 +3827,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2683,16 +3907,16 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>44</v>
@@ -2744,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>51</v>
@@ -2763,7 +3987,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2843,7 +4067,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -2918,9 +4142,9 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="b">
@@ -2991,7 +4215,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -3096,9 +4320,9 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -3153,7 +4377,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -3243,16 +4467,16 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>44</v>
@@ -3306,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X11" s="17" t="s">
         <v>51</v>
@@ -3331,7 +4555,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -3342,13 +4566,13 @@
         <v>61</v>
       </c>
       <c r="E12" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>162</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="17"/>
@@ -3370,14 +4594,14 @@
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>59</v>
@@ -3388,8 +4612,8 @@
       <c r="E13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>163</v>
+      <c r="F13" s="39" t="s">
+        <v>162</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>
@@ -3414,12 +4638,12 @@
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -3524,7 +4748,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -3607,10 +4831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3619,20 +4843,28 @@
     <col min="2" max="2" width="30.21875" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="13.44140625" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3640,69 +4872,69 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="O1" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="R1" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="S1" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="T1" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="U1" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="V1" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="V1" s="39" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
-        <v>258</v>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>2</v>
@@ -3717,65 +4949,65 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="L2" s="17">
         <v>1</v>
       </c>
       <c r="M2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>192</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>59</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S2" s="17">
         <v>5000</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>195</v>
       </c>
       <c r="V2" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="17"/>
@@ -3796,13 +5028,13 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="81"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>59</v>
@@ -3826,19 +5058,19 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="81"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="40" t="s">
         <v>241</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>242</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -3858,8 +5090,8 @@
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
     </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="81"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -3890,54 +5122,55 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="81"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="F7" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="G7" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="H7" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="I7" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="J7" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="K7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="L7" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="M7" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="N7" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="O7" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="P7" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="Q7" s="43" t="s">
         <v>256</v>
-      </c>
-      <c r="Q7" s="43" t="s">
-        <v>257</v>
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
@@ -3945,15 +5178,16 @@
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="81"/>
       <c r="B8" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="9">
         <v>20</v>
@@ -3998,9 +5232,154 @@
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
     </row>
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y9" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z9" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA9" s="43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="45">
+        <v>500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>186</v>
+      </c>
+      <c r="O10" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>192</v>
+      </c>
+      <c r="T10" t="s">
+        <v>188</v>
+      </c>
+      <c r="V10" t="s">
+        <v>189</v>
+      </c>
+      <c r="W10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4011,7 +5390,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4122,20 +5501,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="82" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>151</v>
+      <c r="C2" s="37" t="s">
+        <v>150</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>259</v>
+        <v>137</v>
       </c>
       <c r="F2" s="8">
         <v>15</v>
@@ -4211,181 +5590,181 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="9" t="b">
+      <c r="C3" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="8">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8">
-        <v>15</v>
-      </c>
-      <c r="I3" s="8">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8">
-        <v>15</v>
-      </c>
-      <c r="K3" s="8">
-        <v>15</v>
-      </c>
-      <c r="L3" s="8">
-        <v>15</v>
-      </c>
-      <c r="M3" s="8">
-        <v>15</v>
-      </c>
-      <c r="N3" s="8">
-        <v>15</v>
-      </c>
-      <c r="O3" s="8">
-        <v>15</v>
-      </c>
-      <c r="P3" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>15</v>
-      </c>
-      <c r="R3" s="8">
-        <v>15</v>
-      </c>
-      <c r="S3" s="8">
-        <v>15</v>
-      </c>
-      <c r="T3" s="8">
-        <v>15</v>
-      </c>
-      <c r="U3" s="8">
-        <v>15</v>
-      </c>
-      <c r="V3" s="8">
-        <v>15</v>
-      </c>
-      <c r="W3" s="8">
-        <v>15</v>
-      </c>
-      <c r="X3" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="8">
+      <c r="F3" s="52">
+        <v>15</v>
+      </c>
+      <c r="G3" s="52">
+        <v>15</v>
+      </c>
+      <c r="H3" s="52">
+        <v>15</v>
+      </c>
+      <c r="I3" s="52">
+        <v>15</v>
+      </c>
+      <c r="J3" s="52">
+        <v>15</v>
+      </c>
+      <c r="K3" s="52">
+        <v>15</v>
+      </c>
+      <c r="L3" s="52">
+        <v>15</v>
+      </c>
+      <c r="M3" s="52">
+        <v>15</v>
+      </c>
+      <c r="N3" s="52">
+        <v>15</v>
+      </c>
+      <c r="O3" s="52">
+        <v>15</v>
+      </c>
+      <c r="P3" s="52">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>15</v>
+      </c>
+      <c r="R3" s="52">
+        <v>15</v>
+      </c>
+      <c r="S3" s="52">
+        <v>15</v>
+      </c>
+      <c r="T3" s="52">
+        <v>15</v>
+      </c>
+      <c r="U3" s="52">
+        <v>15</v>
+      </c>
+      <c r="V3" s="52">
+        <v>15</v>
+      </c>
+      <c r="W3" s="52">
+        <v>15</v>
+      </c>
+      <c r="X3" s="52">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="52">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="52">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="52">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="52">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="9" t="b">
+      <c r="C4" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="8">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8">
-        <v>15</v>
-      </c>
-      <c r="I4" s="8">
-        <v>15</v>
-      </c>
-      <c r="J4" s="8">
-        <v>15</v>
-      </c>
-      <c r="K4" s="8">
-        <v>15</v>
-      </c>
-      <c r="L4" s="8">
-        <v>15</v>
-      </c>
-      <c r="M4" s="8">
-        <v>15</v>
-      </c>
-      <c r="N4" s="8">
-        <v>15</v>
-      </c>
-      <c r="O4" s="8">
-        <v>15</v>
-      </c>
-      <c r="P4" s="8">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>15</v>
-      </c>
-      <c r="R4" s="8">
-        <v>15</v>
-      </c>
-      <c r="S4" s="8">
-        <v>15</v>
-      </c>
-      <c r="T4" s="8">
-        <v>15</v>
-      </c>
-      <c r="U4" s="8">
-        <v>15</v>
-      </c>
-      <c r="V4" s="8">
-        <v>15</v>
-      </c>
-      <c r="W4" s="8">
-        <v>15</v>
-      </c>
-      <c r="X4" s="8">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>15</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="8">
+      <c r="E4" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="52">
+        <v>15</v>
+      </c>
+      <c r="G4" s="52">
+        <v>15</v>
+      </c>
+      <c r="H4" s="52">
+        <v>15</v>
+      </c>
+      <c r="I4" s="52">
+        <v>15</v>
+      </c>
+      <c r="J4" s="52">
+        <v>15</v>
+      </c>
+      <c r="K4" s="52">
+        <v>15</v>
+      </c>
+      <c r="L4" s="52">
+        <v>15</v>
+      </c>
+      <c r="M4" s="52">
+        <v>15</v>
+      </c>
+      <c r="N4" s="52">
+        <v>15</v>
+      </c>
+      <c r="O4" s="52">
+        <v>15</v>
+      </c>
+      <c r="P4" s="52">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>15</v>
+      </c>
+      <c r="R4" s="52">
+        <v>15</v>
+      </c>
+      <c r="S4" s="52">
+        <v>15</v>
+      </c>
+      <c r="T4" s="52">
+        <v>15</v>
+      </c>
+      <c r="U4" s="52">
+        <v>15</v>
+      </c>
+      <c r="V4" s="52">
+        <v>15</v>
+      </c>
+      <c r="W4" s="52">
+        <v>15</v>
+      </c>
+      <c r="X4" s="52">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="52">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="52">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="52">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="52">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -4427,8 +5806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4481,7 +5860,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="85" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4498,12 +5877,12 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>146</v>
@@ -4531,18 +5910,18 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>146</v>
@@ -4579,6 +5958,105 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -4602,51 +6080,51 @@
         <v>112</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>202</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>112</v>
@@ -4655,64 +6133,64 @@
         <v>138</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="40">
+      <c r="G4" s="41">
         <v>0</v>
       </c>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="40">
+      <c r="D5" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="41">
         <v>0</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>61</v>
@@ -4723,15 +6201,15 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>204</v>
+        <v>151</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
@@ -4739,15 +6217,15 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>204</v>
+        <v>152</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
@@ -4755,7 +6233,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -4765,141 +6243,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4931,7 +6275,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4951,8 +6295,8 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>211</v>
+      <c r="A2" s="79" t="s">
+        <v>209</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4963,7 +6307,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4973,27 +6317,27 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -5003,27 +6347,27 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="17"/>
       <c r="F7" s="30"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="17"/>
       <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5033,7 +6377,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -5062,377 +6406,134 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="L2" s="9">
-        <v>8000</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="S3" s="21"/>
-    </row>
-    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="9">
-        <v>7000</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>59</v>
-      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="79"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="79"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="79"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA68392-E47A-4029-9DDA-A3EE5618331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -25,6 +31,8 @@
     <sheet name="Visitor_Search_Test_Data" sheetId="16" r:id="rId16"/>
     <sheet name="Enrollment_Data_Test_Data" sheetId="17" r:id="rId17"/>
     <sheet name="Enroll_Template_Data" sheetId="18" r:id="rId18"/>
+    <sheet name="Integration_Test_Data" sheetId="19" r:id="rId19"/>
+    <sheet name="second_Integration_Test_Data" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="395">
   <si>
     <t>Password</t>
   </si>
@@ -1134,12 +1142,105 @@
   </si>
   <si>
     <t>Enrollment Template Data</t>
+  </si>
+  <si>
+    <t>Users No.</t>
+  </si>
+  <si>
+    <t>User_01</t>
+  </si>
+  <si>
+    <t>INT_01_RoleName</t>
+  </si>
+  <si>
+    <t>INT_01_User</t>
+  </si>
+  <si>
+    <t>INT_01_NG</t>
+  </si>
+  <si>
+    <t>INT_01_DES</t>
+  </si>
+  <si>
+    <t>INT_01_EG</t>
+  </si>
+  <si>
+    <t>User_02</t>
+  </si>
+  <si>
+    <t>INT_02_RoleName</t>
+  </si>
+  <si>
+    <t>INT_02_User</t>
+  </si>
+  <si>
+    <t>INT_02_NG</t>
+  </si>
+  <si>
+    <t>INT_02_DES</t>
+  </si>
+  <si>
+    <t>INT_02_EG</t>
+  </si>
+  <si>
+    <t>User_03</t>
+  </si>
+  <si>
+    <t>INT_03_RoleName</t>
+  </si>
+  <si>
+    <t>INT_03_User</t>
+  </si>
+  <si>
+    <t>INT_03_NG</t>
+  </si>
+  <si>
+    <t>INT_03_DES</t>
+  </si>
+  <si>
+    <t>INT_03_EG</t>
+  </si>
+  <si>
+    <t>User_04</t>
+  </si>
+  <si>
+    <t>INT_04_RoleName</t>
+  </si>
+  <si>
+    <t>INT_04_User</t>
+  </si>
+  <si>
+    <t>INT_04_NG</t>
+  </si>
+  <si>
+    <t>INT_04_DES</t>
+  </si>
+  <si>
+    <t>INT_04_EG</t>
+  </si>
+  <si>
+    <t>User_05</t>
+  </si>
+  <si>
+    <t>INT_05_RoleName</t>
+  </si>
+  <si>
+    <t>INT_05_User</t>
+  </si>
+  <si>
+    <t>INT_05_NG</t>
+  </si>
+  <si>
+    <t>INT_05_DES</t>
+  </si>
+  <si>
+    <t>INT_05_EG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1548,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1730,7 +1831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1741,6 +1841,34 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,7 +1926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2074,14 +2202,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2118,7 +2246,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2138,7 +2266,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2284,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2302,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2192,7 +2320,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="78"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2216,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2292,7 +2420,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="91" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2351,7 +2479,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>211</v>
@@ -2404,7 +2532,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2459,7 +2587,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>195</v>
@@ -2484,7 +2612,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2511,7 +2639,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>235</v>
@@ -2536,7 +2664,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -2563,7 +2691,7 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>216</v>
@@ -2596,7 +2724,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
       </c>
@@ -2631,7 +2759,7 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>271</v>
@@ -2658,7 +2786,7 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2687,7 +2815,7 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>196</v>
@@ -2718,7 +2846,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
       </c>
@@ -2760,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,7 +2922,7 @@
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="96" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -2812,7 +2940,7 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -2828,7 +2956,7 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
       </c>
@@ -2846,7 +2974,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -2872,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2942,7 +3070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2975,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3037,7 +3165,7 @@
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="90"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>216</v>
@@ -3061,7 +3189,7 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
@@ -3135,7 +3263,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="101" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="21"/>
@@ -3161,7 +3289,7 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="17" t="s">
         <v>151</v>
       </c>
@@ -3217,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3232,7 +3360,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3291,7 +3419,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
+      <c r="A2" s="104"/>
       <c r="C2" t="s">
         <v>307</v>
       </c>
@@ -3331,14 +3459,14 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3413,13 +3541,13 @@
       <c r="C4" s="70">
         <v>60</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="17">
         <v>20</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="17">
         <v>20</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3469,31 +3597,31 @@
       <c r="F7" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="J7" s="73" t="s">
+      <c r="J7" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="L7" s="73" t="s">
+      <c r="L7" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="O7" s="73" t="s">
+      <c r="O7" s="72" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3547,7 +3675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,10 +3689,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -3601,18 +3729,1314 @@
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="74" t="b">
+      <c r="E2" s="73" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D7C9E5-368C-4C46-9CDA-9B6FB1A57F46}">
+  <dimension ref="A1:BU6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="9">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
+        <v>15</v>
+      </c>
+      <c r="O2" s="9">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>15</v>
+      </c>
+      <c r="R2" s="9">
+        <v>15</v>
+      </c>
+      <c r="S2" s="9">
+        <v>15</v>
+      </c>
+      <c r="T2" s="9">
+        <v>15</v>
+      </c>
+      <c r="U2" s="9">
+        <v>15</v>
+      </c>
+      <c r="V2" s="9">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9">
+        <v>15</v>
+      </c>
+      <c r="X2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR2" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA2" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD2" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="9">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9">
+        <v>15</v>
+      </c>
+      <c r="I3" s="9">
+        <v>15</v>
+      </c>
+      <c r="J3" s="9">
+        <v>15</v>
+      </c>
+      <c r="K3" s="9">
+        <v>15</v>
+      </c>
+      <c r="L3" s="9">
+        <v>15</v>
+      </c>
+      <c r="M3" s="9">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9">
+        <v>15</v>
+      </c>
+      <c r="O3" s="9">
+        <v>15</v>
+      </c>
+      <c r="P3" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>15</v>
+      </c>
+      <c r="R3" s="9">
+        <v>15</v>
+      </c>
+      <c r="S3" s="9">
+        <v>15</v>
+      </c>
+      <c r="T3" s="9">
+        <v>15</v>
+      </c>
+      <c r="U3" s="9">
+        <v>15</v>
+      </c>
+      <c r="V3" s="9">
+        <v>15</v>
+      </c>
+      <c r="W3" s="9">
+        <v>15</v>
+      </c>
+      <c r="X3" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR3" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS3" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA3" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="BD3" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="BO3" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP3" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU3" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="9">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9">
+        <v>15</v>
+      </c>
+      <c r="J4" s="9">
+        <v>15</v>
+      </c>
+      <c r="K4" s="9">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9">
+        <v>15</v>
+      </c>
+      <c r="M4" s="9">
+        <v>15</v>
+      </c>
+      <c r="N4" s="9">
+        <v>15</v>
+      </c>
+      <c r="O4" s="9">
+        <v>15</v>
+      </c>
+      <c r="P4" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>15</v>
+      </c>
+      <c r="R4" s="9">
+        <v>15</v>
+      </c>
+      <c r="S4" s="9">
+        <v>15</v>
+      </c>
+      <c r="T4" s="9">
+        <v>15</v>
+      </c>
+      <c r="U4" s="9">
+        <v>15</v>
+      </c>
+      <c r="V4" s="9">
+        <v>15</v>
+      </c>
+      <c r="W4" s="9">
+        <v>15</v>
+      </c>
+      <c r="X4" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR4" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS4" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA4" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB4" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="BD4" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL4" s="82"/>
+      <c r="BM4" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="BO4" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP4" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU4" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="9">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9">
+        <v>15</v>
+      </c>
+      <c r="I5" s="9">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9">
+        <v>15</v>
+      </c>
+      <c r="K5" s="9">
+        <v>15</v>
+      </c>
+      <c r="L5" s="9">
+        <v>15</v>
+      </c>
+      <c r="M5" s="9">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9">
+        <v>15</v>
+      </c>
+      <c r="O5" s="9">
+        <v>15</v>
+      </c>
+      <c r="P5" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>15</v>
+      </c>
+      <c r="R5" s="9">
+        <v>15</v>
+      </c>
+      <c r="S5" s="9">
+        <v>15</v>
+      </c>
+      <c r="T5" s="9">
+        <v>15</v>
+      </c>
+      <c r="U5" s="9">
+        <v>15</v>
+      </c>
+      <c r="V5" s="9">
+        <v>15</v>
+      </c>
+      <c r="W5" s="9">
+        <v>15</v>
+      </c>
+      <c r="X5" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR5" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS5" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW5" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA5" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB5" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="BD5" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BO5" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP5" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU5" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="9">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9">
+        <v>15</v>
+      </c>
+      <c r="J6" s="9">
+        <v>15</v>
+      </c>
+      <c r="K6" s="9">
+        <v>15</v>
+      </c>
+      <c r="L6" s="9">
+        <v>15</v>
+      </c>
+      <c r="M6" s="9">
+        <v>15</v>
+      </c>
+      <c r="N6" s="9">
+        <v>15</v>
+      </c>
+      <c r="O6" s="9">
+        <v>15</v>
+      </c>
+      <c r="P6" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>15</v>
+      </c>
+      <c r="R6" s="9">
+        <v>15</v>
+      </c>
+      <c r="S6" s="9">
+        <v>15</v>
+      </c>
+      <c r="T6" s="9">
+        <v>15</v>
+      </c>
+      <c r="U6" s="9">
+        <v>15</v>
+      </c>
+      <c r="V6" s="9">
+        <v>15</v>
+      </c>
+      <c r="W6" s="9">
+        <v>15</v>
+      </c>
+      <c r="X6" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR6" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS6" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA6" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB6" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BD6" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="BH6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="BO6" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP6" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU6" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{8A803423-589B-40B9-AA38-A28158093C31}"/>
+    <hyperlink ref="AS2" r:id="rId2" xr:uid="{90D4CE0F-8F15-4EB9-B6FE-43BF151B23F4}"/>
+    <hyperlink ref="AR3" r:id="rId3" xr:uid="{02C5E88A-65FF-4F01-971F-D135B7C1A629}"/>
+    <hyperlink ref="AS3" r:id="rId4" xr:uid="{A8D043EF-3772-44BD-9F7D-20354C2B927A}"/>
+    <hyperlink ref="AR4" r:id="rId5" xr:uid="{79CD9159-0787-48FA-8103-3EA5E5E4BC16}"/>
+    <hyperlink ref="AS4" r:id="rId6" xr:uid="{0B4D6605-AACF-465F-95F1-208D94350E5B}"/>
+    <hyperlink ref="AR5" r:id="rId7" xr:uid="{56CB0A47-A3FB-40D6-BD67-6E879D925E08}"/>
+    <hyperlink ref="AS5" r:id="rId8" xr:uid="{7BD4CBD8-83EC-4E71-A551-BF4F352F8197}"/>
+    <hyperlink ref="AR6" r:id="rId9" xr:uid="{1ABFE1B8-46F6-4F22-8110-7B3F2D04CA94}"/>
+    <hyperlink ref="AS6" r:id="rId10" xr:uid="{B8A87734-4CBF-4ADB-A8C5-1D2DD2E952A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3741,7 +5165,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="88" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3827,7 +5251,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3907,7 +5331,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -3987,7 +5411,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4067,7 +5491,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -4142,7 +5566,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
       </c>
@@ -4215,7 +5639,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -4320,7 +5744,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
@@ -4377,7 +5801,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -4467,7 +5891,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
@@ -4555,7 +5979,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -4599,7 +6023,7 @@
       <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
       </c>
@@ -4643,7 +6067,7 @@
       <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -4748,7 +6172,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -4807,30 +6231,74 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="P3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="P4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="P5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="P11" r:id="rId9"/>
-    <hyperlink ref="Q11" r:id="rId10"/>
-    <hyperlink ref="F9" r:id="rId11"/>
-    <hyperlink ref="L9" r:id="rId12"/>
-    <hyperlink ref="T9" r:id="rId13"/>
-    <hyperlink ref="AE15" r:id="rId14"/>
-    <hyperlink ref="AF15" r:id="rId15"/>
-    <hyperlink ref="AG15" r:id="rId16"/>
-    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2876FD-7438-405D-823B-B5E740FCEA6D}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4933,7 +6401,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="89" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -5001,7 +6469,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>195</v>
@@ -5029,7 +6497,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -5059,7 +6527,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="81"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -5091,7 +6559,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="81"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -5123,7 +6591,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="81"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -5179,7 +6647,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="81"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -5386,7 +6854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5501,7 +6969,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="91" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5590,7 +7058,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -5677,7 +7145,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
@@ -5764,7 +7232,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -5803,7 +7271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -5860,7 +7328,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5877,7 +7345,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5910,13 +7378,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5958,7 +7426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6057,7 +7525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6093,7 +7561,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="88" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -6119,7 +7587,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -6141,7 +7609,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -6163,7 +7631,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -6185,7 +7653,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -6201,7 +7669,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
@@ -6217,7 +7685,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -6233,7 +7701,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -6243,7 +7711,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -6271,7 +7739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6295,7 +7763,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="88" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="8"/>
@@ -6307,7 +7775,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -6317,7 +7785,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -6327,7 +7795,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -6337,7 +7805,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -6347,7 +7815,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -6357,7 +7825,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -6367,7 +7835,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -6377,7 +7845,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -6405,7 +7873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6429,7 +7897,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="88" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -6441,7 +7909,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -6451,7 +7919,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -6461,7 +7929,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -6471,7 +7939,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -6481,7 +7949,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -6491,7 +7959,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -6501,7 +7969,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -6511,7 +7979,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA68392-E47A-4029-9DDA-A3EE5618331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +28,7 @@
     <sheet name="Integration_Test_Data" sheetId="19" r:id="rId19"/>
     <sheet name="second_Integration_Test_Data" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="397">
   <si>
     <t>Password</t>
   </si>
@@ -1078,9 +1072,6 @@
     <t>Visitor Search</t>
   </si>
   <si>
-    <t>6525224c7751dc6faf31095e</t>
-  </si>
-  <si>
     <t>EndAge</t>
   </si>
   <si>
@@ -1235,12 +1226,21 @@
   </si>
   <si>
     <t>INT_05_EG</t>
+  </si>
+  <si>
+    <t>6538ba91cb1a6580d3f95d19</t>
+  </si>
+  <si>
+    <t>UnknownGender</t>
+  </si>
+  <si>
+    <t>Test_13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2202,14 +2202,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2344,7 +2344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2888,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,7 +3000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3070,7 +3070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3103,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3345,7 +3345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,21 +3459,30 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
@@ -3512,20 +3521,20 @@
         <v>45087.104166666664</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="66"/>
       <c r="C3" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>240</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F3" s="69" t="s">
         <v>241</v>
@@ -3548,19 +3557,19 @@
         <v>20</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="E5" s="68" t="s">
         <v>347</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>348</v>
       </c>
       <c r="F5" s="69" t="s">
         <v>67</v>
@@ -3580,46 +3589,46 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="66"/>
       <c r="C7" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="E7" s="68" t="s">
         <v>351</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="F7" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="G7" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="H7" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="I7" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="J7" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="K7" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="L7" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="N7" s="72" t="s">
         <v>358</v>
-      </c>
-      <c r="L7" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="M7" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="N7" s="72" t="s">
-        <v>359</v>
       </c>
       <c r="O7" s="72" t="s">
         <v>267</v>
@@ -3627,7 +3636,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" s="2">
         <v>25</v>
@@ -3668,6 +3677,98 @@
       <c r="O8" s="2">
         <v>10</v>
       </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="K9" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="L9" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="M9" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3675,7 +3776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3689,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,16 +3810,16 @@
         <v>289</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>361</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>362</v>
       </c>
       <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -3740,21 +3841,24 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D7C9E5-368C-4C46-9CDA-9B6FB1A57F46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>111</v>
@@ -3965,10 +4069,10 @@
     </row>
     <row r="2" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="77" t="s">
         <v>365</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>366</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -4122,16 +4226,16 @@
         <v>59</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BD2" s="81" t="s">
         <v>9</v>
       </c>
       <c r="BF2" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="BG2" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -4147,10 +4251,10 @@
       </c>
       <c r="BL2" s="82"/>
       <c r="BM2" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -4176,10 +4280,10 @@
     </row>
     <row r="3" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="77" t="s">
         <v>371</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>372</v>
       </c>
       <c r="D3" s="9" t="b">
         <v>1</v>
@@ -4333,16 +4437,16 @@
         <v>59</v>
       </c>
       <c r="BC3" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BD3" s="81" t="s">
         <v>9</v>
       </c>
       <c r="BF3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="BG3" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="BG3" s="9" t="s">
-        <v>375</v>
       </c>
       <c r="BH3" s="9" t="s">
         <v>203</v>
@@ -4358,10 +4462,10 @@
       </c>
       <c r="BL3" s="82"/>
       <c r="BM3" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BN3" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BO3" s="9">
         <v>0.83</v>
@@ -4387,10 +4491,10 @@
     </row>
     <row r="4" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>377</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>378</v>
       </c>
       <c r="D4" s="9" t="b">
         <v>1</v>
@@ -4544,16 +4648,16 @@
         <v>59</v>
       </c>
       <c r="BC4" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BD4" s="81" t="s">
         <v>9</v>
       </c>
       <c r="BF4" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="BG4" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="BG4" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="BH4" s="9" t="s">
         <v>203</v>
@@ -4569,10 +4673,10 @@
       </c>
       <c r="BL4" s="82"/>
       <c r="BM4" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BN4" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BO4" s="9">
         <v>0.83</v>
@@ -4598,10 +4702,10 @@
     </row>
     <row r="5" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>383</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>384</v>
       </c>
       <c r="D5" s="9" t="b">
         <v>1</v>
@@ -4755,16 +4859,16 @@
         <v>59</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BD5" s="81" t="s">
         <v>9</v>
       </c>
       <c r="BF5" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG5" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="BH5" s="9" t="s">
         <v>203</v>
@@ -4780,10 +4884,10 @@
       </c>
       <c r="BL5" s="82"/>
       <c r="BM5" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BN5" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BO5" s="9">
         <v>0.83</v>
@@ -4809,10 +4913,10 @@
     </row>
     <row r="6" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>389</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>390</v>
       </c>
       <c r="D6" s="9" t="b">
         <v>1</v>
@@ -4966,16 +5070,16 @@
         <v>59</v>
       </c>
       <c r="BC6" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BD6" s="81" t="s">
         <v>9</v>
       </c>
       <c r="BF6" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BG6" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="BG6" s="9" t="s">
-        <v>393</v>
       </c>
       <c r="BH6" s="9" t="s">
         <v>203</v>
@@ -4991,10 +5095,10 @@
       </c>
       <c r="BL6" s="82"/>
       <c r="BM6" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BN6" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BO6" s="9">
         <v>0.83</v>
@@ -5020,23 +5124,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{8A803423-589B-40B9-AA38-A28158093C31}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{90D4CE0F-8F15-4EB9-B6FE-43BF151B23F4}"/>
-    <hyperlink ref="AR3" r:id="rId3" xr:uid="{02C5E88A-65FF-4F01-971F-D135B7C1A629}"/>
-    <hyperlink ref="AS3" r:id="rId4" xr:uid="{A8D043EF-3772-44BD-9F7D-20354C2B927A}"/>
-    <hyperlink ref="AR4" r:id="rId5" xr:uid="{79CD9159-0787-48FA-8103-3EA5E5E4BC16}"/>
-    <hyperlink ref="AS4" r:id="rId6" xr:uid="{0B4D6605-AACF-465F-95F1-208D94350E5B}"/>
-    <hyperlink ref="AR5" r:id="rId7" xr:uid="{56CB0A47-A3FB-40D6-BD67-6E879D925E08}"/>
-    <hyperlink ref="AS5" r:id="rId8" xr:uid="{7BD4CBD8-83EC-4E71-A551-BF4F352F8197}"/>
-    <hyperlink ref="AR6" r:id="rId9" xr:uid="{1ABFE1B8-46F6-4F22-8110-7B3F2D04CA94}"/>
-    <hyperlink ref="AS6" r:id="rId10" xr:uid="{B8A87734-4CBF-4ADB-A8C5-1D2DD2E952A1}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
+    <hyperlink ref="AR3" r:id="rId3"/>
+    <hyperlink ref="AS3" r:id="rId4"/>
+    <hyperlink ref="AR4" r:id="rId5"/>
+    <hyperlink ref="AS4" r:id="rId6"/>
+    <hyperlink ref="AR5" r:id="rId7"/>
+    <hyperlink ref="AS5" r:id="rId8"/>
+    <hyperlink ref="AR6" r:id="rId9"/>
+    <hyperlink ref="AS6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6231,30 +6335,30 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="P11" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="L9" r:id="rId12"/>
+    <hyperlink ref="T9" r:id="rId13"/>
+    <hyperlink ref="AE15" r:id="rId14"/>
+    <hyperlink ref="AF15" r:id="rId15"/>
+    <hyperlink ref="AG15" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2876FD-7438-405D-823B-B5E740FCEA6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6298,7 +6402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6854,7 +6958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7271,7 +7375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -7426,7 +7530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7525,7 +7629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7739,7 +7843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7873,7 +7977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA68392-E47A-4029-9DDA-A3EE5618331C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -32,9 +26,9 @@
     <sheet name="Enrollment_Data_Test_Data" sheetId="17" r:id="rId17"/>
     <sheet name="Enroll_Template_Data" sheetId="18" r:id="rId18"/>
     <sheet name="Integration_Test_Data" sheetId="19" r:id="rId19"/>
-    <sheet name="second_Integration_Test_Data" sheetId="20" r:id="rId20"/>
+    <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="401">
   <si>
     <t>Password</t>
   </si>
@@ -1235,12 +1229,30 @@
   </si>
   <si>
     <t>INT_05_EG</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>10/01/2023 12:00 AM</t>
+  </si>
+  <si>
+    <t>IsMale</t>
+  </si>
+  <si>
+    <t>65437532263a4d61e9244baa</t>
+  </si>
+  <si>
+    <t>11/03/2023 4:05 PM</t>
+  </si>
+  <si>
+    <t>65437a182a20514fe0422a27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1649,7 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1929,6 +1941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2202,14 +2215,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2344,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2888,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3070,7 +3083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3103,7 +3116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3345,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,14 +3472,14 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3689,7 +3702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3740,11 +3753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D7C9E5-368C-4C46-9CDA-9B6FB1A57F46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3963,7 +3976,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>365</v>
       </c>
@@ -4119,7 +4132,7 @@
         <v>59</v>
       </c>
       <c r="BB2" s="80" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="BC2" s="9" t="s">
         <v>367</v>
@@ -4174,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>371</v>
       </c>
@@ -4330,7 +4343,7 @@
         <v>59</v>
       </c>
       <c r="BB3" s="80" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="BC3" s="9" t="s">
         <v>373</v>
@@ -4385,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>377</v>
       </c>
@@ -4541,7 +4554,7 @@
         <v>59</v>
       </c>
       <c r="BB4" s="80" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="BC4" s="9" t="s">
         <v>379</v>
@@ -4596,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>383</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>59</v>
       </c>
       <c r="BB5" s="80" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="BC5" s="9" t="s">
         <v>385</v>
@@ -4807,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>389</v>
       </c>
@@ -4963,7 +4976,7 @@
         <v>59</v>
       </c>
       <c r="BB6" s="80" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="BC6" s="9" t="s">
         <v>391</v>
@@ -5020,23 +5033,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{8A803423-589B-40B9-AA38-A28158093C31}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{90D4CE0F-8F15-4EB9-B6FE-43BF151B23F4}"/>
-    <hyperlink ref="AR3" r:id="rId3" xr:uid="{02C5E88A-65FF-4F01-971F-D135B7C1A629}"/>
-    <hyperlink ref="AS3" r:id="rId4" xr:uid="{A8D043EF-3772-44BD-9F7D-20354C2B927A}"/>
-    <hyperlink ref="AR4" r:id="rId5" xr:uid="{79CD9159-0787-48FA-8103-3EA5E5E4BC16}"/>
-    <hyperlink ref="AS4" r:id="rId6" xr:uid="{0B4D6605-AACF-465F-95F1-208D94350E5B}"/>
-    <hyperlink ref="AR5" r:id="rId7" xr:uid="{56CB0A47-A3FB-40D6-BD67-6E879D925E08}"/>
-    <hyperlink ref="AS5" r:id="rId8" xr:uid="{7BD4CBD8-83EC-4E71-A551-BF4F352F8197}"/>
-    <hyperlink ref="AR6" r:id="rId9" xr:uid="{1ABFE1B8-46F6-4F22-8110-7B3F2D04CA94}"/>
-    <hyperlink ref="AS6" r:id="rId10" xr:uid="{B8A87734-4CBF-4ADB-A8C5-1D2DD2E952A1}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
+    <hyperlink ref="AR3" r:id="rId3"/>
+    <hyperlink ref="AS3" r:id="rId4"/>
+    <hyperlink ref="AR4" r:id="rId5"/>
+    <hyperlink ref="AS4" r:id="rId6"/>
+    <hyperlink ref="AR5" r:id="rId7"/>
+    <hyperlink ref="AS5" r:id="rId8"/>
+    <hyperlink ref="AR6" r:id="rId9"/>
+    <hyperlink ref="AS6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6231,37 +6244,42 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="P11" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="L9" r:id="rId12"/>
+    <hyperlink ref="T9" r:id="rId13"/>
+    <hyperlink ref="AE15" r:id="rId14"/>
+    <hyperlink ref="AF15" r:id="rId15"/>
+    <hyperlink ref="AG15" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2876FD-7438-405D-823B-B5E740FCEA6D}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
@@ -6274,7 +6292,7 @@
         <v>338</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>339</v>
@@ -6283,22 +6301,85 @@
         <v>340</v>
       </c>
       <c r="G1" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J1" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
       <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6854,7 +6935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7271,7 +7352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -7426,7 +7507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7525,7 +7606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7739,7 +7820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7873,7 +7954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="403">
   <si>
     <t>Password</t>
   </si>
@@ -1247,6 +1247,12 @@
   </si>
   <si>
     <t>65437a182a20514fe0422a27</t>
+  </si>
+  <si>
+    <t>CaseId</t>
+  </si>
+  <si>
+    <t>65437535263a4d61e9244be1</t>
   </si>
 </sst>
 </file>
@@ -1881,6 +1887,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1941,7 +1948,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2215,7 +2221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2259,7 +2265,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2279,7 +2285,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2297,7 +2303,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2315,7 +2321,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +2339,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2360,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2433,7 +2439,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2492,7 +2498,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>211</v>
@@ -2545,7 +2551,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2600,7 +2606,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>195</v>
@@ -2625,7 +2631,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2652,7 +2658,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>235</v>
@@ -2677,7 +2683,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -2704,7 +2710,7 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>216</v>
@@ -2737,7 +2743,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
       </c>
@@ -2772,7 +2778,7 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>271</v>
@@ -2799,7 +2805,7 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2828,7 +2834,7 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>196</v>
@@ -2859,7 +2865,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
       </c>
@@ -2935,7 +2941,7 @@
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -2953,7 +2959,7 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -2969,7 +2975,7 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
       </c>
@@ -2987,7 +2993,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3184,7 @@
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>216</v>
@@ -3202,7 +3208,7 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3282,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="21"/>
@@ -3302,7 +3308,7 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="17" t="s">
         <v>151</v>
       </c>
@@ -3373,7 +3379,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3432,7 +3438,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
+      <c r="A2" s="105"/>
       <c r="C2" t="s">
         <v>307</v>
       </c>
@@ -3756,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -5178,7 +5184,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5264,7 +5270,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5344,7 +5350,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5424,7 +5430,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5504,7 +5510,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -5579,7 +5585,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
       </c>
@@ -5652,7 +5658,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -5757,7 +5763,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
@@ -5814,7 +5820,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -5904,7 +5910,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
@@ -5992,7 +5998,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -6036,7 +6042,7 @@
       <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
       </c>
@@ -6080,7 +6086,7 @@
       <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -6185,7 +6191,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -6268,10 +6274,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6281,7 +6287,7 @@
     <col min="10" max="10" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -6313,8 +6319,59 @@
         <v>263</v>
       </c>
       <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -6324,10 +6381,10 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="85" t="s">
         <v>399</v>
       </c>
       <c r="G2">
@@ -6342,8 +6399,59 @@
       <c r="J2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="U2" s="9">
+        <v>7000</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -6353,10 +6461,10 @@
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="85" t="s">
         <v>399</v>
       </c>
       <c r="G3">
@@ -6482,7 +6590,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6550,7 +6658,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="90"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>195</v>
@@ -6578,7 +6686,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="90"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -6608,7 +6716,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -6640,7 +6748,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="90"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -6672,7 +6780,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -6728,7 +6836,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -7050,7 +7158,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7139,7 +7247,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -7226,7 +7334,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
@@ -7313,7 +7421,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -7409,7 +7517,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7426,7 +7534,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -7459,13 +7567,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -7642,7 +7750,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7668,7 +7776,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -7690,7 +7798,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -7712,7 +7820,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -7734,7 +7842,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -7750,7 +7858,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
@@ -7766,7 +7874,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -7782,7 +7890,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -7792,7 +7900,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7844,7 +7952,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="8"/>
@@ -7856,7 +7964,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -7866,7 +7974,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -7876,7 +7984,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -7886,7 +7994,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -7896,7 +8004,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -7906,7 +8014,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -7916,7 +8024,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -7926,7 +8034,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7978,7 +8086,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -7990,7 +8098,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -8000,7 +8108,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -8010,7 +8118,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -8020,7 +8128,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -8030,7 +8138,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8040,7 +8148,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -8050,7 +8158,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -8060,7 +8168,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="403">
   <si>
     <t>Password</t>
   </si>
@@ -1247,6 +1247,12 @@
   </si>
   <si>
     <t>65437a182a20514fe0422a27</t>
+  </si>
+  <si>
+    <t>CaseId</t>
+  </si>
+  <si>
+    <t>65437535263a4d61e9244be1</t>
   </si>
 </sst>
 </file>
@@ -1881,6 +1887,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1941,7 +1948,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2259,7 +2265,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2279,7 +2285,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2297,7 +2303,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2315,7 +2321,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +2339,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2433,7 +2439,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2492,7 +2498,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>211</v>
@@ -2545,7 +2551,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2600,7 +2606,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>195</v>
@@ -2625,7 +2631,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2652,7 +2658,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>235</v>
@@ -2677,7 +2683,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -2704,7 +2710,7 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>216</v>
@@ -2737,7 +2743,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
       </c>
@@ -2772,7 +2778,7 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>271</v>
@@ -2799,7 +2805,7 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2828,7 +2834,7 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>196</v>
@@ -2859,7 +2865,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
       </c>
@@ -2935,7 +2941,7 @@
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -2953,7 +2959,7 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -2969,7 +2975,7 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
       </c>
@@ -2987,7 +2993,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -3178,7 +3184,7 @@
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
+      <c r="A3" s="100"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>216</v>
@@ -3202,7 +3208,7 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3282,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="102" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="21"/>
@@ -3302,7 +3308,7 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="17" t="s">
         <v>151</v>
       </c>
@@ -3373,7 +3379,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3432,7 +3438,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
+      <c r="A2" s="105"/>
       <c r="C2" t="s">
         <v>307</v>
       </c>
@@ -3756,7 +3762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -5178,7 +5184,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5264,7 +5270,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5344,7 +5350,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5424,7 +5430,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5504,7 +5510,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -5579,7 +5585,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
       </c>
@@ -5652,7 +5658,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -5757,7 +5763,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
@@ -5814,7 +5820,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -5904,7 +5910,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
@@ -5992,7 +5998,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -6036,7 +6042,7 @@
       <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
       </c>
@@ -6080,7 +6086,7 @@
       <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -6185,7 +6191,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -6268,10 +6274,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6281,7 +6287,7 @@
     <col min="10" max="10" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -6313,8 +6319,59 @@
         <v>263</v>
       </c>
       <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -6324,10 +6381,10 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="85" t="s">
         <v>399</v>
       </c>
       <c r="G2">
@@ -6342,8 +6399,59 @@
       <c r="J2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="U2" s="9">
+        <v>7000</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -6353,10 +6461,10 @@
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="85" t="s">
         <v>396</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="85" t="s">
         <v>399</v>
       </c>
       <c r="G3">
@@ -6482,7 +6590,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6550,7 +6658,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="90"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>195</v>
@@ -6578,7 +6686,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="90"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -6608,7 +6716,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -6640,7 +6748,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="90"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -6672,7 +6780,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="90"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -6728,7 +6836,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="90"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -7050,7 +7158,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7139,7 +7247,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -7226,7 +7334,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
@@ -7313,7 +7421,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -7409,7 +7517,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7426,7 +7534,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -7459,13 +7567,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -7642,7 +7750,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7668,7 +7776,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -7690,7 +7798,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -7712,7 +7820,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -7734,7 +7842,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -7750,7 +7858,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
@@ -7766,7 +7874,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -7782,7 +7890,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -7792,7 +7900,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7844,7 +7952,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="8"/>
@@ -7856,7 +7964,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -7866,7 +7974,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -7876,7 +7984,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -7886,7 +7994,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -7896,7 +8004,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -7906,7 +8014,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -7916,7 +8024,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -7926,7 +8034,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7978,7 +8086,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -7990,7 +8098,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -8000,7 +8108,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -8010,7 +8118,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -8020,7 +8128,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -8030,7 +8138,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8040,7 +8148,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -8050,7 +8158,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -8060,7 +8168,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE8AD8D-6B85-4904-AD1C-81DCF5114F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -25,26 +31,18 @@
     <sheet name="Visitor_Search_Test_Data" sheetId="16" r:id="rId16"/>
     <sheet name="Enrollment_Data_Test_Data" sheetId="17" r:id="rId17"/>
     <sheet name="Enroll_Template_Data" sheetId="18" r:id="rId18"/>
-    <sheet name="Integration_Test_Data" sheetId="19" r:id="rId19"/>
-    <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId20"/>
+    <sheet name="User_Integration_Test_Data" sheetId="19" r:id="rId19"/>
+    <sheet name="Approve_enrollment_test_data" sheetId="21" r:id="rId20"/>
+    <sheet name="Disable_enrollment_test_data" sheetId="23" r:id="rId21"/>
+    <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId22"/>
+    <sheet name="Approve_Create_Enrollment_Data" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="423">
   <si>
     <t>Password</t>
   </si>
@@ -1253,12 +1251,72 @@
   </si>
   <si>
     <t>65437535263a4d61e9244be1</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_RoleName</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_User</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_NG</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_DES</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_EG</t>
+  </si>
+  <si>
+    <t>User_Role_Test_Data</t>
+  </si>
+  <si>
+    <t>Create_User_Test_Data</t>
+  </si>
+  <si>
+    <t>Create_Notification_Group_Test_Data</t>
+  </si>
+  <si>
+    <t>Create_Enrollment_Group_Test_Data</t>
+  </si>
+  <si>
+    <t>Enrollment_Test_Data</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isLinked         </t>
+  </si>
+  <si>
+    <t>IsExact</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_RoleName</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_NG</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_DES</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_EG</t>
+  </si>
+  <si>
+    <t>INT_01_Disbale_EN_User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,7 +1370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,8 +1395,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1662,12 +1726,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1838,20 +1935,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1859,10 +1948,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1878,9 +1963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,6 +1970,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1947,6 +2044,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2221,14 +2339,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2265,7 +2383,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2285,7 +2403,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2421,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2321,7 +2439,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2339,7 +2457,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="88"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2363,7 +2481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2439,7 +2557,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2498,7 +2616,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>211</v>
@@ -2551,7 +2669,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2606,7 +2724,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>195</v>
@@ -2631,7 +2749,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2776,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>235</v>
@@ -2683,7 +2801,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -2710,7 +2828,7 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>216</v>
@@ -2743,7 +2861,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
       </c>
@@ -2778,7 +2896,7 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>271</v>
@@ -2805,7 +2923,7 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2834,7 +2952,7 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>196</v>
@@ -2865,7 +2983,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
       </c>
@@ -2907,7 +3025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2941,7 +3059,7 @@
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="95" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -2959,7 +3077,7 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -2975,7 +3093,7 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
       </c>
@@ -2993,7 +3111,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -3019,7 +3137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3089,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3122,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3184,7 +3302,7 @@
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
+      <c r="A3" s="98"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>216</v>
@@ -3208,7 +3326,7 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="101"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
@@ -3282,7 +3400,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="100" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="21"/>
@@ -3308,7 +3426,7 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="17" t="s">
         <v>151</v>
       </c>
@@ -3364,7 +3482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,7 +3497,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="102" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3438,7 +3556,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
+      <c r="A2" s="103"/>
       <c r="C2" t="s">
         <v>307</v>
       </c>
@@ -3478,21 +3596,28 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
@@ -3521,32 +3646,32 @@
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="8">
         <v>0.25</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="69">
         <v>45087.083333333336</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="69">
         <v>45087.104166666664</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="70" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="81" t="s">
         <v>344</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="82" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3557,31 +3682,31 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="9">
         <v>60</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="8">
         <v>20</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="8">
         <v>20</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="83" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="81" t="s">
         <v>347</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="82" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3603,44 +3728,44 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="66"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="67" t="s">
         <v>353</v>
       </c>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="68" t="s">
         <v>356</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="68" t="s">
         <v>358</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="N7" s="72" t="s">
+      <c r="N7" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="O7" s="72" t="s">
+      <c r="O7" s="68" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3694,7 +3819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3708,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3748,10 +3873,10 @@
       <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="73" t="b">
+      <c r="E2" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3759,16 +3884,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="BZ4" sqref="BZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="54" max="54" width="25.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +3984,9 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="75"/>
+      <c r="AD1" s="107" t="s">
+        <v>409</v>
+      </c>
       <c r="AE1" s="12" t="s">
         <v>17</v>
       </c>
@@ -3935,6 +4065,9 @@
       <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="BE1" s="105" t="s">
+        <v>410</v>
+      </c>
       <c r="BF1" s="21" t="s">
         <v>138</v>
       </c>
@@ -3953,7 +4086,9 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="76"/>
+      <c r="BL1" s="107" t="s">
+        <v>411</v>
+      </c>
       <c r="BM1" s="35" t="s">
         <v>138</v>
       </c>
@@ -3982,11 +4117,14 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
+        <v>408</v>
+      </c>
       <c r="B2" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="71" t="s">
         <v>366</v>
       </c>
       <c r="D2" s="9" t="b">
@@ -4067,7 +4205,7 @@
       <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="9"/>
+      <c r="AD2" s="107"/>
       <c r="AE2" s="9" t="s">
         <v>13</v>
       </c>
@@ -4107,10 +4245,10 @@
       <c r="AQ2" s="9">
         <v>12345</v>
       </c>
-      <c r="AR2" s="78" t="s">
+      <c r="AR2" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="78" t="s">
+      <c r="AS2" s="72" t="s">
         <v>45</v>
       </c>
       <c r="AT2" s="9">
@@ -4134,18 +4272,19 @@
       <c r="AZ2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA2" s="79" t="s">
+      <c r="BA2" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" s="80" t="s">
-        <v>398</v>
+      <c r="BB2" s="74" t="s">
+        <v>400</v>
       </c>
       <c r="BC2" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="BD2" s="81" t="s">
+      <c r="BD2" s="75" t="s">
         <v>9</v>
       </c>
+      <c r="BE2" s="105"/>
       <c r="BF2" s="9" t="s">
         <v>368</v>
       </c>
@@ -4164,7 +4303,7 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="82"/>
+      <c r="BL2" s="107"/>
       <c r="BM2" s="9" t="s">
         <v>370</v>
       </c>
@@ -4193,11 +4332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="104"/>
       <c r="B3" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="71" t="s">
         <v>372</v>
       </c>
       <c r="D3" s="9" t="b">
@@ -4278,7 +4418,7 @@
       <c r="AC3" s="9">
         <v>15</v>
       </c>
-      <c r="AD3" s="9"/>
+      <c r="AD3" s="107"/>
       <c r="AE3" s="9" t="s">
         <v>13</v>
       </c>
@@ -4318,10 +4458,10 @@
       <c r="AQ3" s="9">
         <v>12345</v>
       </c>
-      <c r="AR3" s="78" t="s">
+      <c r="AR3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="78" t="s">
+      <c r="AS3" s="72" t="s">
         <v>45</v>
       </c>
       <c r="AT3" s="9">
@@ -4345,18 +4485,19 @@
       <c r="AZ3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA3" s="79" t="s">
+      <c r="BA3" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="80" t="s">
-        <v>398</v>
+      <c r="BB3" s="74" t="s">
+        <v>400</v>
       </c>
       <c r="BC3" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="BD3" s="81" t="s">
+      <c r="BD3" s="75" t="s">
         <v>9</v>
       </c>
+      <c r="BE3" s="105"/>
       <c r="BF3" s="9" t="s">
         <v>374</v>
       </c>
@@ -4375,7 +4516,7 @@
       <c r="BK3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL3" s="82"/>
+      <c r="BL3" s="107"/>
       <c r="BM3" s="9" t="s">
         <v>376</v>
       </c>
@@ -4404,11 +4545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="104"/>
       <c r="B4" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="71" t="s">
         <v>378</v>
       </c>
       <c r="D4" s="9" t="b">
@@ -4489,7 +4631,7 @@
       <c r="AC4" s="9">
         <v>15</v>
       </c>
-      <c r="AD4" s="9"/>
+      <c r="AD4" s="107"/>
       <c r="AE4" s="9" t="s">
         <v>13</v>
       </c>
@@ -4529,10 +4671,10 @@
       <c r="AQ4" s="9">
         <v>12345</v>
       </c>
-      <c r="AR4" s="78" t="s">
+      <c r="AR4" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AS4" s="78" t="s">
+      <c r="AS4" s="72" t="s">
         <v>45</v>
       </c>
       <c r="AT4" s="9">
@@ -4556,18 +4698,19 @@
       <c r="AZ4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA4" s="79" t="s">
+      <c r="BA4" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="BB4" s="80" t="s">
-        <v>398</v>
+      <c r="BB4" s="74" t="s">
+        <v>400</v>
       </c>
       <c r="BC4" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="BD4" s="81" t="s">
+      <c r="BD4" s="75" t="s">
         <v>9</v>
       </c>
+      <c r="BE4" s="105"/>
       <c r="BF4" s="9" t="s">
         <v>380</v>
       </c>
@@ -4586,7 +4729,7 @@
       <c r="BK4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL4" s="82"/>
+      <c r="BL4" s="107"/>
       <c r="BM4" s="9" t="s">
         <v>382</v>
       </c>
@@ -4615,11 +4758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" s="1" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="104"/>
       <c r="B5" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="71" t="s">
         <v>384</v>
       </c>
       <c r="D5" s="9" t="b">
@@ -4700,7 +4844,7 @@
       <c r="AC5" s="9">
         <v>15</v>
       </c>
-      <c r="AD5" s="9"/>
+      <c r="AD5" s="107"/>
       <c r="AE5" s="9" t="s">
         <v>13</v>
       </c>
@@ -4740,10 +4884,10 @@
       <c r="AQ5" s="9">
         <v>12345</v>
       </c>
-      <c r="AR5" s="78" t="s">
+      <c r="AR5" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AS5" s="78" t="s">
+      <c r="AS5" s="72" t="s">
         <v>45</v>
       </c>
       <c r="AT5" s="9">
@@ -4767,18 +4911,19 @@
       <c r="AZ5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA5" s="79" t="s">
+      <c r="BA5" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="BB5" s="80" t="s">
-        <v>398</v>
+      <c r="BB5" s="74" t="s">
+        <v>400</v>
       </c>
       <c r="BC5" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="BD5" s="81" t="s">
+      <c r="BD5" s="75" t="s">
         <v>9</v>
       </c>
+      <c r="BE5" s="105"/>
       <c r="BF5" s="9" t="s">
         <v>386</v>
       </c>
@@ -4797,7 +4942,7 @@
       <c r="BK5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL5" s="82"/>
+      <c r="BL5" s="107"/>
       <c r="BM5" s="9" t="s">
         <v>388</v>
       </c>
@@ -4826,11 +4971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="104"/>
       <c r="B6" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="71" t="s">
         <v>390</v>
       </c>
       <c r="D6" s="9" t="b">
@@ -4911,7 +5057,7 @@
       <c r="AC6" s="9">
         <v>15</v>
       </c>
-      <c r="AD6" s="9"/>
+      <c r="AD6" s="108"/>
       <c r="AE6" s="9" t="s">
         <v>13</v>
       </c>
@@ -4951,10 +5097,10 @@
       <c r="AQ6" s="9">
         <v>12345</v>
       </c>
-      <c r="AR6" s="78" t="s">
+      <c r="AR6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AS6" s="78" t="s">
+      <c r="AS6" s="72" t="s">
         <v>45</v>
       </c>
       <c r="AT6" s="9">
@@ -4978,18 +5124,19 @@
       <c r="AZ6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA6" s="79" t="s">
+      <c r="BA6" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="BB6" s="80" t="s">
-        <v>398</v>
+      <c r="BB6" s="74" t="s">
+        <v>400</v>
       </c>
       <c r="BC6" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="BD6" s="81" t="s">
+      <c r="BD6" s="75" t="s">
         <v>9</v>
       </c>
+      <c r="BE6" s="106"/>
       <c r="BF6" s="9" t="s">
         <v>392</v>
       </c>
@@ -5008,7 +5155,7 @@
       <c r="BK6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL6" s="82"/>
+      <c r="BL6" s="108"/>
       <c r="BM6" s="9" t="s">
         <v>394</v>
       </c>
@@ -5038,24 +5185,31 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="BE1:BE6"/>
+    <mergeCell ref="BL1:BL6"/>
+    <mergeCell ref="AD1:AD6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1"/>
-    <hyperlink ref="AS2" r:id="rId2"/>
-    <hyperlink ref="AR3" r:id="rId3"/>
-    <hyperlink ref="AS3" r:id="rId4"/>
-    <hyperlink ref="AR4" r:id="rId5"/>
-    <hyperlink ref="AS4" r:id="rId6"/>
-    <hyperlink ref="AR5" r:id="rId7"/>
-    <hyperlink ref="AS5" r:id="rId8"/>
-    <hyperlink ref="AR6" r:id="rId9"/>
-    <hyperlink ref="AS6" r:id="rId10"/>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="AR3" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
+    <hyperlink ref="AS3" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
+    <hyperlink ref="AR4" r:id="rId5" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
+    <hyperlink ref="AS4" r:id="rId6" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
+    <hyperlink ref="AR5" r:id="rId7" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
+    <hyperlink ref="AS5" r:id="rId8" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
+    <hyperlink ref="AR6" r:id="rId9" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
+    <hyperlink ref="AS6" r:id="rId10" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5184,7 +5338,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5270,7 +5424,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5350,7 +5504,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5430,7 +5584,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5510,7 +5664,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -5585,7 +5739,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
       </c>
@@ -5658,7 +5812,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -5763,7 +5917,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
@@ -5820,7 +5974,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -5910,7 +6064,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
@@ -5998,7 +6152,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -6042,7 +6196,7 @@
       <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+      <c r="A13" s="87"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
       </c>
@@ -6086,7 +6240,7 @@
       <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -6191,7 +6345,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -6250,33 +6404,1304 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="P3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="P4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="P5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="P11" r:id="rId9"/>
-    <hyperlink ref="Q11" r:id="rId10"/>
-    <hyperlink ref="F9" r:id="rId11"/>
-    <hyperlink ref="L9" r:id="rId12"/>
-    <hyperlink ref="T9" r:id="rId13"/>
-    <hyperlink ref="AE15" r:id="rId14"/>
-    <hyperlink ref="AF15" r:id="rId15"/>
-    <hyperlink ref="AG15" r:id="rId16"/>
-    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D76375-B2A5-4120-925D-3FD725167083}">
+  <dimension ref="A1:DB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="CD1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:CY2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="82" max="82" width="15.88671875" customWidth="1"/>
+    <col min="83" max="83" width="12.33203125" customWidth="1"/>
+    <col min="96" max="96" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:106" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="107" t="s">
+        <v>410</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL1" s="107" t="s">
+        <v>411</v>
+      </c>
+      <c r="BM1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV1" s="109" t="s">
+        <v>412</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ1" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA1" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC1" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="CF1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG1" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH1" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ1" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK1" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL1" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN1" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="CO1" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="CR1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="CS1" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="CU1" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="CV1" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="CW1" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="CX1" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="CY1" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="CZ1" s="110"/>
+      <c r="DA1" s="110"/>
+      <c r="DB1" s="110"/>
+    </row>
+    <row r="2" spans="1:106" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="9">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
+        <v>15</v>
+      </c>
+      <c r="O2" s="9">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>15</v>
+      </c>
+      <c r="R2" s="9">
+        <v>15</v>
+      </c>
+      <c r="S2" s="9">
+        <v>15</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <v>15</v>
+      </c>
+      <c r="V2" s="9">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9">
+        <v>15</v>
+      </c>
+      <c r="X2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR2" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="BD2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE2" s="108"/>
+      <c r="BF2" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL2" s="108"/>
+      <c r="BM2" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="109"/>
+      <c r="BW2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF2" s="8">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CR2" s="9">
+        <v>3</v>
+      </c>
+      <c r="CS2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="9">
+        <v>20</v>
+      </c>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="BV1:BV2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{4D2EBC6A-89AB-4085-A7FB-83DF19761297}"/>
+    <hyperlink ref="AS2" r:id="rId2" xr:uid="{99576C67-CEA6-447D-984D-BD62061BFDCC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A35EACA-CCE7-4525-9B46-48561DADBEC5}">
+  <dimension ref="A1:CY2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CY12" sqref="CY12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="107" t="s">
+        <v>410</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL1" s="107" t="s">
+        <v>411</v>
+      </c>
+      <c r="BM1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV1" s="109" t="s">
+        <v>412</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ1" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA1" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC1" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="CF1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG1" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH1" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ1" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK1" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL1" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN1" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="CO1" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="CR1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="CS1" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="CU1" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="CV1" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="CW1" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="CX1" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="CY1" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="9">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
+        <v>15</v>
+      </c>
+      <c r="O2" s="9">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>15</v>
+      </c>
+      <c r="R2" s="9">
+        <v>15</v>
+      </c>
+      <c r="S2" s="9">
+        <v>15</v>
+      </c>
+      <c r="T2" s="9">
+        <v>15</v>
+      </c>
+      <c r="U2" s="9">
+        <v>15</v>
+      </c>
+      <c r="V2" s="9">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9">
+        <v>15</v>
+      </c>
+      <c r="X2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR2" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="BD2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE2" s="108"/>
+      <c r="BF2" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL2" s="108"/>
+      <c r="BM2" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="109"/>
+      <c r="BW2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="9">
+        <v>3</v>
+      </c>
+      <c r="CS2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="9">
+        <v>20</v>
+      </c>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="BV1:BV2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{DA3EEBFB-5DCC-405E-947E-8806BC26D898}"/>
+    <hyperlink ref="AS2" r:id="rId2" xr:uid="{EA886719-D8F6-45BC-B21E-C17C1678BC04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6309,16 +7734,16 @@
       <c r="G1" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="76" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="84"/>
+      <c r="K1" s="77"/>
       <c r="L1" s="21" t="s">
         <v>211</v>
       </c>
@@ -6381,10 +7806,10 @@
       <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="78" t="s">
         <v>399</v>
       </c>
       <c r="G2">
@@ -6461,10 +7886,10 @@
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="78" t="s">
         <v>399</v>
       </c>
       <c r="G3">
@@ -6486,12 +7911,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADBAF0E-E27A-4330-AED3-1B45DC430CAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6590,7 +8029,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="88" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6658,7 +8097,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>195</v>
@@ -6686,7 +8125,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -6716,7 +8155,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -6748,7 +8187,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -6780,7 +8219,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -6836,7 +8275,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -6847,7 +8286,7 @@
         <v>193</v>
       </c>
       <c r="E8" s="9">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -7043,7 +8482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7158,7 +8597,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7247,7 +8686,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
+      <c r="A3" s="91"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -7334,7 +8773,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
@@ -7421,7 +8860,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -7460,7 +8899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -7517,7 +8956,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7534,7 +8973,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -7567,13 +9006,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -7615,7 +9054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7714,7 +9153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7750,7 +9189,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7776,7 +9215,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -7798,7 +9237,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -7820,7 +9259,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -7842,7 +9281,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -7858,7 +9297,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
@@ -7874,7 +9313,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -7890,7 +9329,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -7900,7 +9339,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -7928,7 +9367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7952,7 +9391,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="8"/>
@@ -7964,7 +9403,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -7974,7 +9413,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -7984,7 +9423,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -7994,7 +9433,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -8004,7 +9443,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8014,7 +9453,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -8024,7 +9463,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -8034,7 +9473,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -8062,7 +9501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8086,7 +9525,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="87" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -8098,7 +9537,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -8108,7 +9547,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -8118,7 +9557,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -8128,7 +9567,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -8138,7 +9577,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="87"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -8148,7 +9587,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -8158,7 +9597,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -8168,7 +9607,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Enroll_Template_Data" sheetId="18" r:id="rId18"/>
     <sheet name="Integration_Test_Data" sheetId="19" r:id="rId19"/>
     <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId20"/>
+    <sheet name="Approve_enrollment_test_data" sheetId="21" r:id="rId21"/>
+    <sheet name="Disable_enrollment_test_data" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="423">
   <si>
     <t>Password</t>
   </si>
@@ -1253,6 +1255,66 @@
   </si>
   <si>
     <t>65437535263a4d61e9244be1</t>
+  </si>
+  <si>
+    <t>Create_User_Test_Data</t>
+  </si>
+  <si>
+    <t>Create_Notification_Group_Test_Data</t>
+  </si>
+  <si>
+    <t>Create_Enrollment_Group_Test_Data</t>
+  </si>
+  <si>
+    <t>Enrollment_Test_Data</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isLinked         </t>
+  </si>
+  <si>
+    <t>IsExact</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>User_Role_Test_Data</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_RoleName</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_User</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_NG</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_DES</t>
+  </si>
+  <si>
+    <t>INT_01_Approve_EN_EG</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_RoleName</t>
+  </si>
+  <si>
+    <t>INT_01_Disbale_EN_User</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_NG</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_DES</t>
+  </si>
+  <si>
+    <t>INT_01_Disable_EN_EG</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1337,8 +1399,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1662,12 +1730,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1948,6 +2025,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2221,7 +2313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6276,7 +6368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -6483,6 +6575,1270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CY2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL1" s="107" t="s">
+        <v>405</v>
+      </c>
+      <c r="BM1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV1" s="108" t="s">
+        <v>406</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ1" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA1" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC1" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="CF1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG1" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH1" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ1" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK1" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL1" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN1" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="CO1" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="CR1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="CS1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="CT1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="CU1" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="CV1" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="CW1" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="CX1" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="CY1" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="109" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="9">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
+        <v>15</v>
+      </c>
+      <c r="O2" s="9">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>15</v>
+      </c>
+      <c r="R2" s="9">
+        <v>15</v>
+      </c>
+      <c r="S2" s="9">
+        <v>15</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <v>15</v>
+      </c>
+      <c r="V2" s="9">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9">
+        <v>15</v>
+      </c>
+      <c r="X2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR2" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA2" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="BD2" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE2" s="110"/>
+      <c r="BF2" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL2" s="110"/>
+      <c r="BM2" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="108"/>
+      <c r="BW2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF2" s="8">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="9">
+        <v>3</v>
+      </c>
+      <c r="CS2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="9">
+        <v>20</v>
+      </c>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="BV1:BV2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CY2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="107" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="107" t="s">
+        <v>404</v>
+      </c>
+      <c r="BF1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="BK1" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL1" s="107" t="s">
+        <v>405</v>
+      </c>
+      <c r="BM1" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="BO1" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP1" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="BQ1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="BR1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="BS1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT1" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU1" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV1" s="108" t="s">
+        <v>406</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="BZ1" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="CA1" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB1" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC1" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="CF1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG1" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH1" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="CI1" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ1" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK1" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL1" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN1" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="CO1" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="CR1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="CS1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="CT1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="CU1" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="CV1" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="CW1" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="CX1" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="CY1" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="109" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="9">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9">
+        <v>15</v>
+      </c>
+      <c r="H2" s="9">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9">
+        <v>15</v>
+      </c>
+      <c r="K2" s="9">
+        <v>15</v>
+      </c>
+      <c r="L2" s="9">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
+        <v>15</v>
+      </c>
+      <c r="O2" s="9">
+        <v>15</v>
+      </c>
+      <c r="P2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>15</v>
+      </c>
+      <c r="R2" s="9">
+        <v>15</v>
+      </c>
+      <c r="S2" s="9">
+        <v>15</v>
+      </c>
+      <c r="T2" s="9">
+        <v>15</v>
+      </c>
+      <c r="U2" s="9">
+        <v>15</v>
+      </c>
+      <c r="V2" s="9">
+        <v>15</v>
+      </c>
+      <c r="W2" s="9">
+        <v>15</v>
+      </c>
+      <c r="X2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>12345</v>
+      </c>
+      <c r="AR2" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA2" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB2" s="80" t="s">
+        <v>398</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD2" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE2" s="110"/>
+      <c r="BF2" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL2" s="110"/>
+      <c r="BM2" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="BO2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BP2" s="9">
+        <v>0.83</v>
+      </c>
+      <c r="BQ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="108"/>
+      <c r="BW2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CA2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="CD2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="CF2" s="8">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="CH2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="CI2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="CJ2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="CK2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CL2" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="CN2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="9">
+        <v>3</v>
+      </c>
+      <c r="CS2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="9">
+        <v>20</v>
+      </c>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="BE1:BE2"/>
+    <mergeCell ref="BL1:BL2"/>
+    <mergeCell ref="BV1:BV2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C0351-3F73-4412-AB4C-FE7AC95D169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="18" activeTab="21"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -24,29 +30,17 @@
     <sheet name="Region_Test_Data" sheetId="15" r:id="rId15"/>
     <sheet name="Visitor_Search_Test_Data" sheetId="16" r:id="rId16"/>
     <sheet name="Enrollment_Data_Test_Data" sheetId="17" r:id="rId17"/>
-    <sheet name="Enroll_Template_Data" sheetId="18" r:id="rId18"/>
-    <sheet name="Integration_Test_Data" sheetId="19" r:id="rId19"/>
-    <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId20"/>
-    <sheet name="Approve_enrollment_test_data" sheetId="21" r:id="rId21"/>
-    <sheet name="Disable_enrollment_test_data" sheetId="22" r:id="rId22"/>
+    <sheet name="Integration_Test_Data" sheetId="19" r:id="rId18"/>
+    <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId19"/>
+    <sheet name="Approve_enrollment_test_data" sheetId="21" r:id="rId20"/>
+    <sheet name="Disable_enrollment_test_data" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="420">
   <si>
     <t>Password</t>
   </si>
@@ -1129,15 +1123,6 @@
   </si>
   <si>
     <t>Test_12</t>
-  </si>
-  <si>
-    <t>algVersion</t>
-  </si>
-  <si>
-    <t>stale</t>
-  </si>
-  <si>
-    <t>Enrollment Template Data</t>
   </si>
   <si>
     <t>Users No.</t>
@@ -1320,7 +1305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1744,7 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1930,12 +1915,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1965,6 +1944,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2025,19 +2010,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2313,14 +2292,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2455,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2999,7 +2978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3111,7 +3090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3181,7 +3160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3214,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3456,7 +3435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3570,14 +3549,14 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3786,7 +3765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3800,61 +3779,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="F1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="74"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -3865,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>111</v>
@@ -3948,7 +3876,7 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="75"/>
+      <c r="AD1" s="73"/>
       <c r="AE1" s="12" t="s">
         <v>17</v>
       </c>
@@ -4045,7 +3973,7 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="76"/>
+      <c r="BL1" s="74"/>
       <c r="BM1" s="35" t="s">
         <v>138</v>
       </c>
@@ -4076,10 +4004,10 @@
     </row>
     <row r="2" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>366</v>
+        <v>362</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>363</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -4199,10 +4127,10 @@
       <c r="AQ2" s="9">
         <v>12345</v>
       </c>
-      <c r="AR2" s="78" t="s">
+      <c r="AR2" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="78" t="s">
+      <c r="AS2" s="76" t="s">
         <v>45</v>
       </c>
       <c r="AT2" s="9">
@@ -4226,23 +4154,23 @@
       <c r="AZ2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA2" s="79" t="s">
+      <c r="BA2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" s="80" t="s">
-        <v>398</v>
+      <c r="BB2" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD2" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="BD2" s="79" t="s">
         <v>9</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -4256,12 +4184,12 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="82"/>
+      <c r="BL2" s="80"/>
       <c r="BM2" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -4287,10 +4215,10 @@
     </row>
     <row r="3" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>372</v>
+        <v>368</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>369</v>
       </c>
       <c r="D3" s="9" t="b">
         <v>1</v>
@@ -4410,10 +4338,10 @@
       <c r="AQ3" s="9">
         <v>12345</v>
       </c>
-      <c r="AR3" s="78" t="s">
+      <c r="AR3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="78" t="s">
+      <c r="AS3" s="76" t="s">
         <v>45</v>
       </c>
       <c r="AT3" s="9">
@@ -4437,23 +4365,23 @@
       <c r="AZ3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA3" s="79" t="s">
+      <c r="BA3" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="80" t="s">
-        <v>398</v>
+      <c r="BB3" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="BC3" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="BD3" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD3" s="79" t="s">
         <v>9</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="BG3" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="BH3" s="9" t="s">
         <v>203</v>
@@ -4467,12 +4395,12 @@
       <c r="BK3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL3" s="82"/>
+      <c r="BL3" s="80"/>
       <c r="BM3" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="BN3" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="BO3" s="9">
         <v>0.83</v>
@@ -4498,10 +4426,10 @@
     </row>
     <row r="4" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>375</v>
       </c>
       <c r="D4" s="9" t="b">
         <v>1</v>
@@ -4621,10 +4549,10 @@
       <c r="AQ4" s="9">
         <v>12345</v>
       </c>
-      <c r="AR4" s="78" t="s">
+      <c r="AR4" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AS4" s="78" t="s">
+      <c r="AS4" s="76" t="s">
         <v>45</v>
       </c>
       <c r="AT4" s="9">
@@ -4648,23 +4576,23 @@
       <c r="AZ4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA4" s="79" t="s">
+      <c r="BA4" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="BB4" s="80" t="s">
-        <v>398</v>
+      <c r="BB4" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="BC4" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD4" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="BD4" s="79" t="s">
         <v>9</v>
       </c>
       <c r="BF4" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BG4" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BH4" s="9" t="s">
         <v>203</v>
@@ -4678,12 +4606,12 @@
       <c r="BK4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL4" s="82"/>
+      <c r="BL4" s="80"/>
       <c r="BM4" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BN4" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BO4" s="9">
         <v>0.83</v>
@@ -4709,10 +4637,10 @@
     </row>
     <row r="5" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>381</v>
       </c>
       <c r="D5" s="9" t="b">
         <v>1</v>
@@ -4832,10 +4760,10 @@
       <c r="AQ5" s="9">
         <v>12345</v>
       </c>
-      <c r="AR5" s="78" t="s">
+      <c r="AR5" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AS5" s="78" t="s">
+      <c r="AS5" s="76" t="s">
         <v>45</v>
       </c>
       <c r="AT5" s="9">
@@ -4859,23 +4787,23 @@
       <c r="AZ5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA5" s="79" t="s">
+      <c r="BA5" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="BB5" s="80" t="s">
-        <v>398</v>
+      <c r="BB5" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="BD5" s="81" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD5" s="79" t="s">
         <v>9</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BH5" s="9" t="s">
         <v>203</v>
@@ -4889,12 +4817,12 @@
       <c r="BK5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL5" s="82"/>
+      <c r="BL5" s="80"/>
       <c r="BM5" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="BN5" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BO5" s="9">
         <v>0.83</v>
@@ -4920,10 +4848,10 @@
     </row>
     <row r="6" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>390</v>
+        <v>386</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>387</v>
       </c>
       <c r="D6" s="9" t="b">
         <v>1</v>
@@ -5043,10 +4971,10 @@
       <c r="AQ6" s="9">
         <v>12345</v>
       </c>
-      <c r="AR6" s="78" t="s">
+      <c r="AR6" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AS6" s="78" t="s">
+      <c r="AS6" s="76" t="s">
         <v>45</v>
       </c>
       <c r="AT6" s="9">
@@ -5070,23 +4998,23 @@
       <c r="AZ6" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA6" s="79" t="s">
+      <c r="BA6" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="BB6" s="80" t="s">
-        <v>398</v>
+      <c r="BB6" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="BC6" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BD6" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="BD6" s="79" t="s">
         <v>9</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="BG6" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="BH6" s="9" t="s">
         <v>203</v>
@@ -5100,12 +5028,12 @@
       <c r="BK6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL6" s="82"/>
+      <c r="BL6" s="80"/>
       <c r="BM6" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="BN6" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="BO6" s="9">
         <v>0.83</v>
@@ -5131,23 +5059,237 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1"/>
-    <hyperlink ref="AS2" r:id="rId2"/>
-    <hyperlink ref="AR3" r:id="rId3"/>
-    <hyperlink ref="AS3" r:id="rId4"/>
-    <hyperlink ref="AR4" r:id="rId5"/>
-    <hyperlink ref="AS4" r:id="rId6"/>
-    <hyperlink ref="AR5" r:id="rId7"/>
-    <hyperlink ref="AS5" r:id="rId8"/>
-    <hyperlink ref="AR6" r:id="rId9"/>
-    <hyperlink ref="AS6" r:id="rId10"/>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="AR3" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
+    <hyperlink ref="AS3" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
+    <hyperlink ref="AR4" r:id="rId5" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
+    <hyperlink ref="AS4" r:id="rId6" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
+    <hyperlink ref="AR5" r:id="rId7" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
+    <hyperlink ref="AS5" r:id="rId8" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
+    <hyperlink ref="AR6" r:id="rId9" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
+    <hyperlink ref="AS6" r:id="rId10" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="82"/>
+      <c r="L1" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="U2" s="9">
+        <v>7000</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6342,244 +6484,30 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="P3" r:id="rId3"/>
-    <hyperlink ref="Q3" r:id="rId4"/>
-    <hyperlink ref="P4" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="P5" r:id="rId7"/>
-    <hyperlink ref="Q5" r:id="rId8"/>
-    <hyperlink ref="P11" r:id="rId9"/>
-    <hyperlink ref="Q11" r:id="rId10"/>
-    <hyperlink ref="F9" r:id="rId11"/>
-    <hyperlink ref="L9" r:id="rId12"/>
-    <hyperlink ref="T9" r:id="rId13"/>
-    <hyperlink ref="AE15" r:id="rId14"/>
-    <hyperlink ref="AF15" r:id="rId15"/>
-    <hyperlink ref="AG15" r:id="rId16"/>
-    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="83" t="s">
-        <v>397</v>
-      </c>
-      <c r="J1" s="83" t="s">
-        <v>263</v>
-      </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>396</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>398</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="U2" s="9">
-        <v>7000</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>396</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6589,11 +6517,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>111</v>
@@ -6676,8 +6604,8 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="107" t="s">
-        <v>403</v>
+      <c r="AD1" s="106" t="s">
+        <v>400</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>17</v>
@@ -6757,8 +6685,8 @@
       <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="107" t="s">
-        <v>404</v>
+      <c r="BE1" s="106" t="s">
+        <v>401</v>
       </c>
       <c r="BF1" s="21" t="s">
         <v>138</v>
@@ -6778,8 +6706,8 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="107" t="s">
-        <v>405</v>
+      <c r="BL1" s="106" t="s">
+        <v>402</v>
       </c>
       <c r="BM1" s="35" t="s">
         <v>138</v>
@@ -6809,7 +6737,7 @@
         <v>145</v>
       </c>
       <c r="BV1" s="108" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="BW1" s="12" t="s">
         <v>163</v>
@@ -6875,36 +6803,36 @@
         <v>239</v>
       </c>
       <c r="CS1" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="CT1" s="21" t="s">
         <v>244</v>
       </c>
       <c r="CU1" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="CV1" s="21" t="s">
         <v>359</v>
       </c>
       <c r="CW1" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="CX1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="CY1" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="CX1" s="21" t="s">
+      <c r="B2" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="75" t="s">
         <v>410</v>
-      </c>
-      <c r="CY1" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
-        <v>412</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>413</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -6984,7 +6912,7 @@
       <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="110"/>
+      <c r="AD2" s="107"/>
       <c r="AE2" s="9" t="s">
         <v>13</v>
       </c>
@@ -7024,10 +6952,10 @@
       <c r="AQ2" s="9">
         <v>12345</v>
       </c>
-      <c r="AR2" s="78" t="s">
+      <c r="AR2" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="78" t="s">
+      <c r="AS2" s="76" t="s">
         <v>45</v>
       </c>
       <c r="AT2" s="9">
@@ -7051,24 +6979,24 @@
       <c r="AZ2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA2" s="79" t="s">
+      <c r="BA2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" s="80" t="s">
-        <v>398</v>
+      <c r="BB2" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="BD2" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="BD2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="110"/>
+      <c r="BE2" s="107"/>
       <c r="BF2" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -7082,12 +7010,12 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="110"/>
+      <c r="BL2" s="107"/>
       <c r="BM2" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -7203,29 +7131,29 @@
     <mergeCell ref="BV1:BV2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1"/>
-    <hyperlink ref="AS2" r:id="rId2"/>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>111</v>
@@ -7308,8 +7236,8 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="107" t="s">
-        <v>403</v>
+      <c r="AD1" s="106" t="s">
+        <v>400</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>17</v>
@@ -7389,8 +7317,8 @@
       <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="107" t="s">
-        <v>404</v>
+      <c r="BE1" s="106" t="s">
+        <v>401</v>
       </c>
       <c r="BF1" s="21" t="s">
         <v>138</v>
@@ -7410,8 +7338,8 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="107" t="s">
-        <v>405</v>
+      <c r="BL1" s="106" t="s">
+        <v>402</v>
       </c>
       <c r="BM1" s="35" t="s">
         <v>138</v>
@@ -7441,7 +7369,7 @@
         <v>145</v>
       </c>
       <c r="BV1" s="108" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="BW1" s="12" t="s">
         <v>163</v>
@@ -7507,36 +7435,36 @@
         <v>239</v>
       </c>
       <c r="CS1" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="CT1" s="21" t="s">
         <v>244</v>
       </c>
       <c r="CU1" s="21" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="CV1" s="21" t="s">
         <v>359</v>
       </c>
       <c r="CW1" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="CX1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="CY1" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="CX1" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="CY1" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
-        <v>412</v>
-      </c>
       <c r="B2" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>418</v>
+        <v>362</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>415</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -7616,7 +7544,7 @@
       <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="110"/>
+      <c r="AD2" s="107"/>
       <c r="AE2" s="9" t="s">
         <v>13</v>
       </c>
@@ -7656,10 +7584,10 @@
       <c r="AQ2" s="9">
         <v>12345</v>
       </c>
-      <c r="AR2" s="78" t="s">
+      <c r="AR2" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="78" t="s">
+      <c r="AS2" s="76" t="s">
         <v>45</v>
       </c>
       <c r="AT2" s="9">
@@ -7683,24 +7611,24 @@
       <c r="AZ2" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BA2" s="79" t="s">
+      <c r="BA2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="BB2" s="80" t="s">
-        <v>398</v>
+      <c r="BB2" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="BD2" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="110"/>
+      <c r="BE2" s="107"/>
       <c r="BF2" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -7714,12 +7642,12 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="110"/>
+      <c r="BL2" s="107"/>
       <c r="BM2" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -7835,15 +7763,15 @@
     <mergeCell ref="BV1:BV2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1"/>
-    <hyperlink ref="AS2" r:id="rId2"/>
+    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8399,7 +8327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8816,7 +8744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -8971,7 +8899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9070,7 +8998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9284,7 +9212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9418,7 +9346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C0351-3F73-4412-AB4C-FE7AC95D169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +25,7 @@
     <sheet name="Visitor_Search_Test_Data" sheetId="16" r:id="rId16"/>
     <sheet name="Enrollment_Data_Test_Data" sheetId="17" r:id="rId17"/>
     <sheet name="Integration_Test_Data" sheetId="19" r:id="rId18"/>
-    <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId19"/>
+    <sheet name="Integration_VS_Test_Data" sheetId="20" r:id="rId19"/>
     <sheet name="Approve_enrollment_test_data" sheetId="21" r:id="rId20"/>
     <sheet name="Disable_enrollment_test_data" sheetId="22" r:id="rId21"/>
   </sheets>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="424">
   <si>
     <t>Password</t>
   </si>
@@ -1239,9 +1233,6 @@
     <t>CaseId</t>
   </si>
   <si>
-    <t>65437535263a4d61e9244be1</t>
-  </si>
-  <si>
     <t>Create_User_Test_Data</t>
   </si>
   <si>
@@ -1300,12 +1291,27 @@
   </si>
   <si>
     <t>INT_01_Disable_EN_EG</t>
+  </si>
+  <si>
+    <t>API_Name</t>
+  </si>
+  <si>
+    <t>Start Search</t>
+  </si>
+  <si>
+    <t>create enrollment</t>
+  </si>
+  <si>
+    <t>add_notes</t>
+  </si>
+  <si>
+    <t>enrollment index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1729,7 +1735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1943,7 +1949,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2019,6 +2024,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2292,14 +2305,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2336,7 +2349,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="85" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2356,7 +2369,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2374,7 +2387,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2392,7 +2405,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2410,7 +2423,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="88"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2434,7 +2447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,7 +2523,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2569,7 +2582,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>211</v>
@@ -2622,7 +2635,7 @@
       <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2690,7 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>195</v>
@@ -2702,7 +2715,7 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2729,7 +2742,7 @@
       <c r="S6" s="17"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>235</v>
@@ -2754,7 +2767,7 @@
       <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -2781,7 +2794,7 @@
       <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>216</v>
@@ -2814,7 +2827,7 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
       </c>
@@ -2849,7 +2862,7 @@
       <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>271</v>
@@ -2876,7 +2889,7 @@
       <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2905,7 +2918,7 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>196</v>
@@ -2936,7 +2949,7 @@
       <c r="S13" s="21"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
       </c>
@@ -2978,7 +2991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3012,7 +3025,7 @@
       <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -3030,7 +3043,7 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -3046,7 +3059,7 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
       </c>
@@ -3064,7 +3077,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3160,7 +3173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3193,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3255,7 +3268,7 @@
       <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>216</v>
@@ -3279,7 +3292,7 @@
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="101"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
@@ -3353,7 +3366,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="101" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="21"/>
@@ -3379,7 +3392,7 @@
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="17" t="s">
         <v>151</v>
       </c>
@@ -3435,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3450,7 +3463,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3509,7 +3522,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
+      <c r="A2" s="104"/>
       <c r="C2" t="s">
         <v>307</v>
       </c>
@@ -3549,14 +3562,14 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3765,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3779,10 +3792,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -5059,39 +5072,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="AR3" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
-    <hyperlink ref="AS3" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
-    <hyperlink ref="AR4" r:id="rId5" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
-    <hyperlink ref="AS4" r:id="rId6" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
-    <hyperlink ref="AR5" r:id="rId7" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
-    <hyperlink ref="AS5" r:id="rId8" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
-    <hyperlink ref="AR6" r:id="rId9" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
-    <hyperlink ref="AS6" r:id="rId10" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
+    <hyperlink ref="AR3" r:id="rId3"/>
+    <hyperlink ref="AS3" r:id="rId4"/>
+    <hyperlink ref="AR4" r:id="rId5"/>
+    <hyperlink ref="AS4" r:id="rId6"/>
+    <hyperlink ref="AR5" r:id="rId7"/>
+    <hyperlink ref="AS5" r:id="rId8"/>
+    <hyperlink ref="AR6" r:id="rId9"/>
+    <hyperlink ref="AS6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="10" max="10" width="25.21875" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" customWidth="1"/>
+    <col min="53" max="53" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>6</v>
+        <v>419</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -5100,187 +5119,685 @@
         <v>338</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="J1" s="81" t="s">
         <v>263</v>
       </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="82"/>
       <c r="L1" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH1" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="AI1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="AK1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="AL1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="AM1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="AO1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="AP1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="AR1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="AS1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="AT1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="AU1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="BA1" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB1" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="BD1" s="40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V2" s="17">
+        <v>1</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>5000</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF2" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR2" s="9">
+        <v>7000</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="9">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="82"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+    </row>
+    <row r="4" spans="1:56" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="17">
         <v>0.25</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="17">
         <v>30</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E4" s="108" t="s">
         <v>393</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F4" s="108" t="s">
         <v>396</v>
       </c>
-      <c r="G2">
+      <c r="G4" s="17">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H4" s="17">
         <v>50</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I4" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J4" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L4" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="17">
+        <v>1</v>
+      </c>
+      <c r="W4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="X4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>5000</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF4" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="U2" s="9">
+      <c r="AR4" s="9">
         <v>7000</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="AU4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AV4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AW4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="9" t="b">
+      <c r="AX4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY4" s="9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="BA4" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="9">
+        <v>100</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="17">
         <v>0.25</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="17">
         <v>30</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E5" s="108" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F5" s="108" t="s">
         <v>396</v>
       </c>
-      <c r="G3">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H5" s="17">
         <v>50</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I5" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J5" s="17" t="s">
         <v>397</v>
       </c>
+      <c r="L5" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" s="17">
+        <v>1</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>5000</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF5" s="77" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH5" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>7000</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="9">
+        <v>100</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5289,7 +5806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5418,7 +5935,7 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5504,7 +6021,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5584,7 +6101,7 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5664,7 +6181,7 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5744,7 +6261,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -5819,7 +6336,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
       </c>
@@ -5892,7 +6409,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -5997,7 +6514,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
@@ -6054,7 +6571,7 @@
       <c r="AI9" s="17"/>
     </row>
     <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -6144,7 +6661,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
@@ -6232,7 +6749,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -6276,7 +6793,7 @@
       <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
       </c>
@@ -6320,7 +6837,7 @@
       <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -6425,7 +6942,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -6484,30 +7001,30 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="P11" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="L9" r:id="rId12"/>
+    <hyperlink ref="T9" r:id="rId13"/>
+    <hyperlink ref="AE15" r:id="rId14"/>
+    <hyperlink ref="AF15" r:id="rId15"/>
+    <hyperlink ref="AG15" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6517,7 +7034,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -6604,8 +7121,8 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="106" t="s">
-        <v>400</v>
+      <c r="AD1" s="105" t="s">
+        <v>399</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>17</v>
@@ -6685,8 +7202,8 @@
       <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="106" t="s">
-        <v>401</v>
+      <c r="BE1" s="105" t="s">
+        <v>400</v>
       </c>
       <c r="BF1" s="21" t="s">
         <v>138</v>
@@ -6706,8 +7223,8 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="106" t="s">
-        <v>402</v>
+      <c r="BL1" s="105" t="s">
+        <v>401</v>
       </c>
       <c r="BM1" s="35" t="s">
         <v>138</v>
@@ -6736,8 +7253,8 @@
       <c r="BU1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BV1" s="108" t="s">
-        <v>403</v>
+      <c r="BV1" s="107" t="s">
+        <v>402</v>
       </c>
       <c r="BW1" s="12" t="s">
         <v>163</v>
@@ -6803,36 +7320,36 @@
         <v>239</v>
       </c>
       <c r="CS1" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CT1" s="21" t="s">
         <v>244</v>
       </c>
       <c r="CU1" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CV1" s="21" t="s">
         <v>359</v>
       </c>
       <c r="CW1" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="CX1" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="CX1" s="21" t="s">
+      <c r="CY1" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="CY1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
-        <v>409</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -6912,7 +7429,7 @@
       <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="107"/>
+      <c r="AD2" s="106"/>
       <c r="AE2" s="9" t="s">
         <v>13</v>
       </c>
@@ -6986,17 +7503,17 @@
         <v>395</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BD2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="107"/>
+      <c r="BE2" s="106"/>
       <c r="BF2" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="BG2" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -7010,12 +7527,12 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="107"/>
+      <c r="BL2" s="106"/>
       <c r="BM2" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -7038,7 +7555,7 @@
       <c r="BU2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="BV2" s="108"/>
+      <c r="BV2" s="107"/>
       <c r="BW2" s="23" t="s">
         <v>59</v>
       </c>
@@ -7131,15 +7648,15 @@
     <mergeCell ref="BV1:BV2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7149,7 +7666,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -7236,8 +7753,8 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="106" t="s">
-        <v>400</v>
+      <c r="AD1" s="105" t="s">
+        <v>399</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>17</v>
@@ -7317,8 +7834,8 @@
       <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="106" t="s">
-        <v>401</v>
+      <c r="BE1" s="105" t="s">
+        <v>400</v>
       </c>
       <c r="BF1" s="21" t="s">
         <v>138</v>
@@ -7338,8 +7855,8 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="106" t="s">
-        <v>402</v>
+      <c r="BL1" s="105" t="s">
+        <v>401</v>
       </c>
       <c r="BM1" s="35" t="s">
         <v>138</v>
@@ -7368,8 +7885,8 @@
       <c r="BU1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BV1" s="108" t="s">
-        <v>403</v>
+      <c r="BV1" s="107" t="s">
+        <v>402</v>
       </c>
       <c r="BW1" s="12" t="s">
         <v>163</v>
@@ -7435,36 +7952,36 @@
         <v>239</v>
       </c>
       <c r="CS1" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CT1" s="21" t="s">
         <v>244</v>
       </c>
       <c r="CU1" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CV1" s="21" t="s">
         <v>359</v>
       </c>
       <c r="CW1" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="CX1" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="CX1" s="21" t="s">
+      <c r="CY1" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="CY1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
-        <v>409</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -7544,7 +8061,7 @@
       <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="107"/>
+      <c r="AD2" s="106"/>
       <c r="AE2" s="9" t="s">
         <v>13</v>
       </c>
@@ -7618,17 +8135,17 @@
         <v>395</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BD2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="107"/>
+      <c r="BE2" s="106"/>
       <c r="BF2" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="BG2" s="9" t="s">
         <v>417</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>418</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -7642,12 +8159,12 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="107"/>
+      <c r="BL2" s="106"/>
       <c r="BM2" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -7670,7 +8187,7 @@
       <c r="BU2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="BV2" s="108"/>
+      <c r="BV2" s="107"/>
       <c r="BW2" s="23" t="s">
         <v>59</v>
       </c>
@@ -7763,19 +8280,19 @@
     <mergeCell ref="BV1:BV2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7874,7 +8391,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -7942,7 +8459,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>195</v>
@@ -7970,7 +8487,7 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +8517,7 @@
       <c r="V4" s="17"/>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -8032,7 +8549,7 @@
       <c r="V5" s="17"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -8064,7 +8581,7 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -8120,7 +8637,7 @@
       <c r="V7" s="17"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -8327,7 +8844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8442,7 +8959,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -8531,7 +9048,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -8618,7 +9135,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
@@ -8705,7 +9222,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -8744,7 +9261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
@@ -8801,7 +9318,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -8818,7 +9335,7 @@
       <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96"/>
+      <c r="A3" s="95"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -8851,13 +9368,13 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -8899,7 +9416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8998,7 +9515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9034,7 +9551,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -9060,7 +9577,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -9082,7 +9599,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -9104,7 +9621,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -9126,7 +9643,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -9142,7 +9659,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
@@ -9158,7 +9675,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -9174,7 +9691,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -9184,7 +9701,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -9212,7 +9729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9236,7 +9753,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="8"/>
@@ -9248,7 +9765,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -9258,7 +9775,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -9268,7 +9785,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -9278,7 +9795,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -9288,7 +9805,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -9298,7 +9815,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -9308,7 +9825,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -9318,7 +9835,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -9346,7 +9863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9370,7 +9887,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -9382,7 +9899,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -9392,7 +9909,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -9402,7 +9919,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -9412,7 +9929,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -9422,7 +9939,7 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -9432,7 +9949,7 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -9442,7 +9959,7 @@
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -9452,7 +9969,7 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Hub\FF_Automation_Script_13_09_2023\API_Test_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C0351-3F73-4412-AB4C-FE7AC95D169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="7890" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +25,7 @@
     <sheet name="Visitor_Search_Test_Data" sheetId="16" r:id="rId16"/>
     <sheet name="Enrollment_Data_Test_Data" sheetId="17" r:id="rId17"/>
     <sheet name="Integration_Test_Data" sheetId="19" r:id="rId18"/>
-    <sheet name="Integration_VS_Metada_Test_Data" sheetId="20" r:id="rId19"/>
+    <sheet name="Integration_VS_Test_Data" sheetId="20" r:id="rId19"/>
     <sheet name="Approve_enrollment_test_data" sheetId="21" r:id="rId20"/>
     <sheet name="Disable_enrollment_test_data" sheetId="22" r:id="rId21"/>
   </sheets>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="425">
   <si>
     <t>Password</t>
   </si>
@@ -1221,27 +1215,12 @@
     <t>limit</t>
   </si>
   <si>
-    <t>10/01/2023 12:00 AM</t>
-  </si>
-  <si>
     <t>IsMale</t>
   </si>
   <si>
-    <t>65437532263a4d61e9244baa</t>
-  </si>
-  <si>
-    <t>11/03/2023 4:05 PM</t>
-  </si>
-  <si>
-    <t>65437a182a20514fe0422a27</t>
-  </si>
-  <si>
     <t>CaseId</t>
   </si>
   <si>
-    <t>65437535263a4d61e9244be1</t>
-  </si>
-  <si>
     <t>Create_User_Test_Data</t>
   </si>
   <si>
@@ -1300,12 +1279,42 @@
   </si>
   <si>
     <t>INT_01_Disable_EN_EG</t>
+  </si>
+  <si>
+    <t>API_Name</t>
+  </si>
+  <si>
+    <t>Start Search</t>
+  </si>
+  <si>
+    <t>create enrollment</t>
+  </si>
+  <si>
+    <t>add_notes</t>
+  </si>
+  <si>
+    <t>enrollment index</t>
+  </si>
+  <si>
+    <t>655c8247a536eefab62aab3f</t>
+  </si>
+  <si>
+    <t>11/01/2023 12:00 AM</t>
+  </si>
+  <si>
+    <t>655cc7626f64a58d8da6887d</t>
+  </si>
+  <si>
+    <t>655ccceb31223f00e056eeb3</t>
+  </si>
+  <si>
+    <t>11/22/2023 11:09 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1729,7 +1738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1943,13 +1952,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2292,27 +2308,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2335,8 +2351,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2355,8 +2371,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="87"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -2373,8 +2389,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="87"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2391,8 +2407,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2409,8 +2425,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="88"/>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="91"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2434,23 +2450,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -2509,8 +2525,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2568,8 +2584,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="96"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>211</v>
@@ -2621,8 +2637,8 @@
       </c>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="96"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -2676,8 +2692,8 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="96"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>195</v>
@@ -2701,8 +2717,8 @@
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="96"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2728,8 +2744,8 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="96"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>235</v>
@@ -2753,8 +2769,8 @@
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="96"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -2780,8 +2796,8 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="96"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>216</v>
@@ -2813,8 +2829,8 @@
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="96"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
       </c>
@@ -2848,8 +2864,8 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>271</v>
@@ -2875,8 +2891,8 @@
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
+    <row r="12" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
@@ -2904,8 +2920,8 @@
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
         <v>196</v>
@@ -2935,8 +2951,8 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
       </c>
@@ -2978,22 +2994,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>6</v>
       </c>
@@ -3011,8 +3027,8 @@
       </c>
       <c r="F1" s="57"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
         <v>285</v>
       </c>
       <c r="B2" s="52" t="s">
@@ -3029,8 +3045,8 @@
       </c>
       <c r="F2" s="57"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="98"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="101"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -3045,8 +3061,8 @@
       </c>
       <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="98"/>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="101"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
       </c>
@@ -3063,8 +3079,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="102"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
@@ -3090,22 +3106,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3160,15 +3176,15 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,18 +3209,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3249,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>304</v>
       </c>
@@ -3254,8 +3270,8 @@
       <c r="H2" s="17"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="103"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
         <v>216</v>
@@ -3278,8 +3294,8 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="101"/>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3318,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
@@ -3330,7 +3346,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
       <c r="C6" s="61" t="s">
         <v>313</v>
       </c>
@@ -3352,8 +3368,8 @@
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
         <v>321</v>
       </c>
       <c r="B7" s="21"/>
@@ -3378,8 +3394,8 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="103"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="106"/>
       <c r="B8" s="17" t="s">
         <v>151</v>
       </c>
@@ -3402,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>317</v>
@@ -3435,22 +3451,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3508,8 +3524,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="105"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="108"/>
       <c r="C2" t="s">
         <v>307</v>
       </c>
@@ -3549,23 +3565,23 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3585,7 +3601,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>341</v>
       </c>
@@ -3605,7 +3621,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="66"/>
       <c r="C3" s="67" t="s">
@@ -3621,7 +3637,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>341</v>
       </c>
@@ -3641,7 +3657,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
         <v>346</v>
@@ -3656,7 +3672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>275</v>
       </c>
@@ -3673,7 +3689,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="66"/>
       <c r="C7" s="67" t="s">
         <v>350</v>
@@ -3715,7 +3731,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>360</v>
       </c>
@@ -3765,30 +3781,30 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -4002,7 +4018,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>362</v>
       </c>
@@ -4158,7 +4174,7 @@
         <v>59</v>
       </c>
       <c r="BB2" s="78" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="BC2" s="9" t="s">
         <v>364</v>
@@ -4213,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>368</v>
       </c>
@@ -4369,7 +4385,7 @@
         <v>59</v>
       </c>
       <c r="BB3" s="78" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="BC3" s="9" t="s">
         <v>370</v>
@@ -4424,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>374</v>
       </c>
@@ -4580,7 +4596,7 @@
         <v>59</v>
       </c>
       <c r="BB4" s="78" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="BC4" s="9" t="s">
         <v>376</v>
@@ -4635,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>380</v>
       </c>
@@ -4791,7 +4807,7 @@
         <v>59</v>
       </c>
       <c r="BB5" s="78" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="BC5" s="9" t="s">
         <v>382</v>
@@ -4846,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:73" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>386</v>
       </c>
@@ -5002,7 +5018,7 @@
         <v>59</v>
       </c>
       <c r="BB6" s="78" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="BC6" s="9" t="s">
         <v>388</v>
@@ -5059,39 +5075,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="AR3" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
-    <hyperlink ref="AS3" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
-    <hyperlink ref="AR4" r:id="rId5" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
-    <hyperlink ref="AS4" r:id="rId6" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
-    <hyperlink ref="AR5" r:id="rId7" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
-    <hyperlink ref="AS5" r:id="rId8" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
-    <hyperlink ref="AR6" r:id="rId9" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
-    <hyperlink ref="AS6" r:id="rId10" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
+    <hyperlink ref="AR3" r:id="rId3"/>
+    <hyperlink ref="AS3" r:id="rId4"/>
+    <hyperlink ref="AR4" r:id="rId5"/>
+    <hyperlink ref="AS4" r:id="rId6"/>
+    <hyperlink ref="AR5" r:id="rId7"/>
+    <hyperlink ref="AS5" r:id="rId8"/>
+    <hyperlink ref="AR6" r:id="rId9"/>
+    <hyperlink ref="AS6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" customWidth="1"/>
+    <col min="53" max="53" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>6</v>
+        <v>415</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
@@ -5100,187 +5122,685 @@
         <v>338</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="J1" s="81" t="s">
         <v>263</v>
       </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="82"/>
       <c r="L1" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH1" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="AK1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="AL1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="AM1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="AO1" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="AP1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="AR1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="AS1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="AT1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="AU1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AV1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AW1" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="AA1" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AX1" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="AY1" s="21" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="BA1" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="BB1" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="BD1" s="40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V2" s="17">
+        <v>1</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>5000</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF2" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR2" s="9">
+        <v>7000</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB2" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="9">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="82"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+    </row>
+    <row r="4" spans="1:56" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="17">
         <v>0.25</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="17">
         <v>30</v>
       </c>
-      <c r="E2" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>396</v>
-      </c>
-      <c r="G2">
+      <c r="E4" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="17">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H4" s="17">
         <v>50</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>395</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="P4" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="17">
+        <v>1</v>
+      </c>
+      <c r="W4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="X4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>5000</v>
+      </c>
+      <c r="AD4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF4" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="AL4" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="AM4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="AN4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="AO4" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="U2" s="9">
+      <c r="AR4" s="9">
         <v>7000</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="AS4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AT4" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="AU4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AV4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AW4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" s="9" t="b">
+      <c r="AX4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY4" s="9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="BA4" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="9">
+        <v>100</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="17">
         <v>0.25</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="17">
         <v>30</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>393</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>396</v>
-      </c>
-      <c r="G3">
+      <c r="E5" s="85" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H5" s="17">
         <v>50</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I5" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>397</v>
-      </c>
+      <c r="J5" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>1</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V5" s="17">
+        <v>1</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>5000</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF5" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH5" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>7000</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="9">
+        <v>100</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5289,49 +5809,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
     <col min="18" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="20.88671875" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" customWidth="1"/>
-    <col min="25" max="25" width="24.6640625" customWidth="1"/>
-    <col min="26" max="26" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.44140625" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="25" max="25" width="24.7109375" customWidth="1"/>
+    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -5417,8 +5937,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5503,8 +6023,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -5583,8 +6103,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5663,8 +6183,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5743,8 +6263,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+    <row r="6" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -5818,8 +6338,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
       </c>
@@ -5891,8 +6411,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+    <row r="8" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -5996,8 +6516,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="89"/>
+    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="92"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
@@ -6053,8 +6573,8 @@
       <c r="AH9" s="17"/>
       <c r="AI9" s="17"/>
     </row>
-    <row r="10" spans="1:35" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+    <row r="10" spans="1:35" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
@@ -6143,8 +6663,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
@@ -6231,8 +6751,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+    <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
@@ -6275,8 +6795,8 @@
       <c r="AC12" s="38"/>
       <c r="AD12" s="38"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
       </c>
@@ -6319,8 +6839,8 @@
       <c r="AC13" s="38"/>
       <c r="AD13" s="38"/>
     </row>
-    <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
+    <row r="14" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
@@ -6424,8 +6944,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
       </c>
@@ -6475,7 +6995,7 @@
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
     </row>
-    <row r="21" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z21" s="25"/>
     </row>
   </sheetData>
@@ -6484,40 +7004,40 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="Q3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="Q4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="Q5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="T9" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="AE15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="AF15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="AG15" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3"/>
+    <hyperlink ref="Q3" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="Q4" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="Q5" r:id="rId8"/>
+    <hyperlink ref="P11" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="F9" r:id="rId11"/>
+    <hyperlink ref="L9" r:id="rId12"/>
+    <hyperlink ref="T9" r:id="rId13"/>
+    <hyperlink ref="AE15" r:id="rId14"/>
+    <hyperlink ref="AF15" r:id="rId15"/>
+    <hyperlink ref="AG15" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:103" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -6604,8 +7124,8 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="106" t="s">
-        <v>400</v>
+      <c r="AD1" s="109" t="s">
+        <v>395</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>17</v>
@@ -6685,8 +7205,8 @@
       <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="106" t="s">
-        <v>401</v>
+      <c r="BE1" s="109" t="s">
+        <v>396</v>
       </c>
       <c r="BF1" s="21" t="s">
         <v>138</v>
@@ -6706,8 +7226,8 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="106" t="s">
-        <v>402</v>
+      <c r="BL1" s="109" t="s">
+        <v>397</v>
       </c>
       <c r="BM1" s="35" t="s">
         <v>138</v>
@@ -6736,8 +7256,8 @@
       <c r="BU1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BV1" s="108" t="s">
-        <v>403</v>
+      <c r="BV1" s="111" t="s">
+        <v>398</v>
       </c>
       <c r="BW1" s="12" t="s">
         <v>163</v>
@@ -6803,36 +7323,36 @@
         <v>239</v>
       </c>
       <c r="CS1" s="21" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="CT1" s="21" t="s">
         <v>244</v>
       </c>
       <c r="CU1" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="CV1" s="21" t="s">
         <v>359</v>
       </c>
       <c r="CW1" s="21" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="CX1" s="21" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="CY1" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
-        <v>409</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>404</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -6912,7 +7432,7 @@
       <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="107"/>
+      <c r="AD2" s="110"/>
       <c r="AE2" s="9" t="s">
         <v>13</v>
       </c>
@@ -6983,20 +7503,20 @@
         <v>59</v>
       </c>
       <c r="BB2" s="78" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="BD2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="107"/>
+      <c r="BE2" s="110"/>
       <c r="BF2" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -7010,12 +7530,12 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="107"/>
+      <c r="BL2" s="110"/>
       <c r="BM2" s="9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -7038,7 +7558,7 @@
       <c r="BU2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="BV2" s="108"/>
+      <c r="BV2" s="111"/>
       <c r="BW2" s="23" t="s">
         <v>59</v>
       </c>
@@ -7131,25 +7651,25 @@
     <mergeCell ref="BV1:BV2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:103" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -7236,8 +7756,8 @@
       <c r="AC1" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="106" t="s">
-        <v>400</v>
+      <c r="AD1" s="109" t="s">
+        <v>395</v>
       </c>
       <c r="AE1" s="12" t="s">
         <v>17</v>
@@ -7317,8 +7837,8 @@
       <c r="BD1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="106" t="s">
-        <v>401</v>
+      <c r="BE1" s="109" t="s">
+        <v>396</v>
       </c>
       <c r="BF1" s="21" t="s">
         <v>138</v>
@@ -7338,8 +7858,8 @@
       <c r="BK1" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="106" t="s">
-        <v>402</v>
+      <c r="BL1" s="109" t="s">
+        <v>397</v>
       </c>
       <c r="BM1" s="35" t="s">
         <v>138</v>
@@ -7368,8 +7888,8 @@
       <c r="BU1" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="BV1" s="108" t="s">
-        <v>403</v>
+      <c r="BV1" s="111" t="s">
+        <v>398</v>
       </c>
       <c r="BW1" s="12" t="s">
         <v>163</v>
@@ -7435,36 +7955,36 @@
         <v>239</v>
       </c>
       <c r="CS1" s="21" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="CT1" s="21" t="s">
         <v>244</v>
       </c>
       <c r="CU1" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="CV1" s="21" t="s">
         <v>359</v>
       </c>
       <c r="CW1" s="21" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="CX1" s="21" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="CY1" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
-        <v>409</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:103" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>404</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D2" s="9" t="b">
         <v>1</v>
@@ -7544,7 +8064,7 @@
       <c r="AC2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="107"/>
+      <c r="AD2" s="110"/>
       <c r="AE2" s="9" t="s">
         <v>13</v>
       </c>
@@ -7615,20 +8135,20 @@
         <v>59</v>
       </c>
       <c r="BB2" s="78" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="BD2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="BE2" s="107"/>
+      <c r="BE2" s="110"/>
       <c r="BF2" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>203</v>
@@ -7642,12 +8162,12 @@
       <c r="BK2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BL2" s="107"/>
+      <c r="BL2" s="110"/>
       <c r="BM2" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="BO2" s="9">
         <v>0.83</v>
@@ -7670,7 +8190,7 @@
       <c r="BU2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="BV2" s="108"/>
+      <c r="BV2" s="111"/>
       <c r="BW2" s="23" t="s">
         <v>59</v>
       </c>
@@ -7763,49 +8283,48 @@
     <mergeCell ref="BV1:BV2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AR2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="AS2" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink ref="AR2" r:id="rId1"/>
+    <hyperlink ref="AS2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -7873,8 +8392,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -7941,8 +8460,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91"/>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="94"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
         <v>195</v>
@@ -7969,8 +8488,8 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="94"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
@@ -7999,8 +8518,8 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="91"/>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="94"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
@@ -8031,8 +8550,8 @@
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="91"/>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="94"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
@@ -8063,8 +8582,8 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91"/>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="94"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -8119,8 +8638,8 @@
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91"/>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="94"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
       </c>
@@ -8173,7 +8692,7 @@
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
@@ -8253,7 +8772,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>153</v>
       </c>
@@ -8327,32 +8846,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -8441,8 +8960,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -8530,8 +9049,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="96"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
       </c>
@@ -8617,8 +9136,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="96"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
       </c>
@@ -8704,8 +9223,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
@@ -8744,28 +9263,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -8800,8 +9319,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
         <v>149</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -8817,8 +9336,8 @@
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96"/>
+    <row r="3" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
@@ -8850,14 +9369,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="99"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -8899,19 +9418,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -8998,16 +9517,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -9033,8 +9552,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>201</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -9059,8 +9578,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
@@ -9081,8 +9600,8 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -9103,8 +9622,8 @@
       </c>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
@@ -9125,8 +9644,8 @@
       </c>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -9141,8 +9660,8 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
       </c>
@@ -9157,8 +9676,8 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
@@ -9173,8 +9692,8 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -9183,8 +9702,8 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -9193,7 +9712,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -9212,16 +9731,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -9235,8 +9754,8 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="8"/>
@@ -9247,8 +9766,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -9257,8 +9776,8 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -9267,8 +9786,8 @@
       <c r="G4" s="41"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -9277,8 +9796,8 @@
       <c r="G5" s="41"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -9287,8 +9806,8 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -9297,8 +9816,8 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -9307,8 +9826,8 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -9317,8 +9836,8 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -9327,7 +9846,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -9346,16 +9865,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -9369,8 +9888,8 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>210</v>
       </c>
       <c r="B2" s="8"/>
@@ -9381,8 +9900,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="92"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -9391,8 +9910,8 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="92"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -9401,8 +9920,8 @@
       <c r="G4" s="41"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="92"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="41"/>
@@ -9411,8 +9930,8 @@
       <c r="G5" s="41"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="92"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -9421,8 +9940,8 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
@@ -9431,8 +9950,8 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -9441,8 +9960,8 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -9451,8 +9970,8 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="92"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -9461,7 +9980,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>

--- a/API_Test_Data/API_Test_Data_Excel.xlsx
+++ b/API_Test_Data/API_Test_Data_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23145" windowHeight="7890" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="7896" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test_Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="427">
   <si>
     <t>Password</t>
   </si>
@@ -1309,6 +1309,12 @@
   </si>
   <si>
     <t>11/22/2023 11:09 AM</t>
+  </si>
+  <si>
+    <t>Test case no</t>
+  </si>
+  <si>
+    <t>655f2bec0f1012cb21d326f4</t>
   </si>
 </sst>
 </file>
@@ -2322,13 +2328,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2351,7 +2357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -2389,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
@@ -2407,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -2425,7 +2431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="91"/>
       <c r="B6" s="5" t="s">
         <v>14</v>
@@ -2457,16 +2463,16 @@
       <selection sqref="A1:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>210</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
@@ -2637,7 +2643,7 @@
       </c>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
@@ -2692,7 +2698,7 @@
       </c>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
@@ -2717,7 +2723,7 @@
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="96"/>
       <c r="B6" s="8" t="s">
         <v>14</v>
@@ -2744,7 +2750,7 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="96"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
@@ -2769,7 +2775,7 @@
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="96"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
@@ -2796,7 +2802,7 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="96"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
@@ -2829,7 +2835,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
     </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="96"/>
       <c r="B10" s="9" t="s">
         <v>158</v>
@@ -2864,7 +2870,7 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
@@ -2891,7 +2897,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="96"/>
       <c r="B12" s="8" t="s">
         <v>69</v>
@@ -2920,7 +2926,7 @@
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="96"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21" t="s">
@@ -2951,7 +2957,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="97"/>
       <c r="B14" s="8" t="s">
         <v>275</v>
@@ -3001,15 +3007,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>6</v>
       </c>
@@ -3027,7 +3033,7 @@
       </c>
       <c r="F1" s="57"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="100" t="s">
         <v>285</v>
       </c>
@@ -3045,7 +3051,7 @@
       </c>
       <c r="F2" s="57"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="101"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
@@ -3061,7 +3067,7 @@
       </c>
       <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="101"/>
       <c r="B4" s="56" t="s">
         <v>282</v>
@@ -3079,7 +3085,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="102"/>
       <c r="B5" s="52" t="s">
         <v>11</v>
@@ -3113,15 +3119,15 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3181,10 +3187,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3214,13 +3220,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -3249,7 +3255,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>304</v>
       </c>
@@ -3270,7 +3276,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="103"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
@@ -3294,7 +3300,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="104"/>
       <c r="B4" s="61" t="s">
         <v>10</v>
@@ -3318,7 +3324,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
@@ -3346,7 +3352,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C6" s="61" t="s">
         <v>313</v>
       </c>
@@ -3368,7 +3374,7 @@
       <c r="I6" s="61"/>
       <c r="J6" s="61"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="105" t="s">
         <v>321</v>
       </c>
@@ -3394,7 +3400,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="106"/>
       <c r="B8" s="17" t="s">
         <v>151</v>
@@ -3418,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>317</v>
@@ -3458,14 +3464,14 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
         <v>6</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="108"/>
       <c r="C2" t="s">
         <v>307</v>
@@ -3579,9 +3585,9 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>341</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="66"/>
       <c r="C3" s="67" t="s">
@@ -3637,7 +3643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>341</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
         <v>346</v>
@@ -3672,7 +3678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>275</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="66"/>
       <c r="C7" s="67" t="s">
         <v>350</v>
@@ -3731,7 +3737,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>360</v>
       </c>
@@ -3788,7 +3794,7 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,9 +3808,9 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -5092,26 +5098,26 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="32" max="32" width="13.85546875" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" customWidth="1"/>
-    <col min="53" max="53" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="32" max="32" width="13.88671875" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" customWidth="1"/>
+    <col min="53" max="53" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="29.45" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>415</v>
       </c>
@@ -5411,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:56" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36"/>
       <c r="B3" s="86"/>
       <c r="C3" s="35" t="s">
@@ -5620,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>12</v>
@@ -5779,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="L6" s="88"/>
       <c r="M6" s="88"/>
       <c r="N6" s="88"/>
@@ -5802,6 +5808,142 @@
       <c r="AE6" s="88"/>
       <c r="AF6" s="88"/>
     </row>
+    <row r="7" spans="1:56" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" s="17">
+        <v>5000</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="V8" s="77" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5816,42 +5958,42 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
     <col min="18" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" customWidth="1"/>
-    <col min="24" max="24" width="18.28515625" customWidth="1"/>
-    <col min="25" max="25" width="24.7109375" customWidth="1"/>
-    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="25" max="25" width="24.6640625" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.44140625" customWidth="1"/>
+    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -5937,7 +6079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>43</v>
       </c>
@@ -6023,7 +6165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="92"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -6103,7 +6245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="92"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
@@ -6183,7 +6325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="92"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -6263,7 +6405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="92"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
@@ -6338,7 +6480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="92"/>
       <c r="B7" s="28" t="s">
         <v>151</v>
@@ -6411,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="92"/>
       <c r="B8" s="21" t="s">
         <v>1</v>
@@ -6516,7 +6658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="92"/>
       <c r="B9" s="8" t="s">
         <v>152</v>
@@ -6573,7 +6715,7 @@
       <c r="AH9" s="17"/>
       <c r="AI9" s="17"/>
     </row>
-    <row r="10" spans="1:35" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="92"/>
       <c r="B10" s="21" t="s">
         <v>1</v>
@@ -6663,7 +6805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="92"/>
       <c r="B11" s="8" t="s">
         <v>153</v>
@@ -6751,7 +6893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="92"/>
       <c r="B12" s="21" t="s">
         <v>1</v>
@@ -6795,7 +6937,7 @@
       <c r="AC12" s="38"/>
       <c r="AD12" s="38"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="92"/>
       <c r="B13" s="8" t="s">
         <v>158</v>
@@ -6839,7 +6981,7 @@
       <c r="AC13" s="38"/>
       <c r="AD13" s="38"/>
     </row>
-    <row r="14" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="92"/>
       <c r="B14" s="21" t="s">
         <v>1</v>
@@ -6944,7 +7086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="92"/>
       <c r="B15" s="8" t="s">
         <v>69</v>
@@ -6995,7 +7137,7 @@
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
     </row>
-    <row r="21" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="26:26" ht="15" x14ac:dyDescent="0.25">
       <c r="Z21" s="25"/>
     </row>
   </sheetData>
@@ -7034,9 +7176,9 @@
       <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:103" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -7344,7 +7486,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:103" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>404</v>
       </c>
@@ -7662,13 +7804,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
       <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:103" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -7976,7 +8118,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:103" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>404</v>
       </c>
@@ -8298,33 +8440,33 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -8392,7 +8534,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
         <v>257</v>
       </c>
@@ -8460,7 +8602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="94"/>
       <c r="B3" s="8"/>
       <c r="C3" s="35" t="s">
@@ -8488,7 +8630,7 @@
       <c r="U3" s="17"/>
       <c r="V3" s="17"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="94"/>
       <c r="B4" s="14" t="s">
         <v>10</v>
@@ -8518,7 +8660,7 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="94"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
@@ -8550,7 +8692,7 @@
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="94"/>
       <c r="B6" s="14" t="s">
         <v>14</v>
@@ -8582,7 +8724,7 @@
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="94"/>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -8638,7 +8780,7 @@
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="94"/>
       <c r="B8" s="14" t="s">
         <v>151</v>
@@ -8692,7 +8834,7 @@
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
     </row>
-    <row r="9" spans="1:27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
@@ -8772,7 +8914,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>153</v>
       </c>
@@ -8853,25 +8995,25 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -8960,7 +9102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>110</v>
       </c>
@@ -9049,7 +9191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="52" t="s">
         <v>10</v>
@@ -9136,7 +9278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="52" t="s">
         <v>11</v>
@@ -9223,7 +9365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="97"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -9270,21 +9412,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -9319,7 +9461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
         <v>149</v>
       </c>
@@ -9336,7 +9478,7 @@
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
       <c r="B3" s="8" t="s">
         <v>10</v>
@@ -9369,13 +9511,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -9425,12 +9567,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9524,9 +9666,9 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -9552,7 +9694,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>201</v>
       </c>
@@ -9578,7 +9720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="92"/>
       <c r="B3" s="21" t="s">
         <v>1</v>
@@ -9600,7 +9742,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="92"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
@@ -9622,7 +9764,7 @@
       </c>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="92"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -9644,7 +9786,7 @@
       </c>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="92"/>
       <c r="B6" s="21" t="s">
         <v>1</v>
@@ -9660,7 +9802,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="92"/>
       <c r="B7" s="8" t="s">
         <v>151</v>
@@ -9676,7 +9818,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="92"/>
       <c r="B8" s="8" t="s">
         <v>152</v>
@@ -9692,7 +9834,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -9702,7 +9844,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="92"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
@@ -9712,7 +9854,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -9738,9 +9880,9 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -9754,7 +9896,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>209</v>
       </c>
@@ -9766,7 +9908,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="92"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -9776,7 +9918,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="92"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -9786,7 +9928,7 @@
       <c r="G4" s="41"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="92"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -9796,7 +9938,7 @@
       <c r="G5" s="41"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="92"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -9806,7 +9948,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="92"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
@@ -9816,7 +9958,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="92"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
@@ -9826,7 +9968,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -9836,7 +9978,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="92"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
@@ -9846,7 +9988,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -9872,9 +10014,9 @@
       <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>6</v>
       </c>
@@ -9888,7 +10030,7 @@
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>210</v>
       </c>
@@ -9900,7 +10042,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="92"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -9910,7 +10052,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="92"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -9920,7 +10062,7 @@
       <c r="G4" s="41"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="92"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -9930,7 +10072,7 @@
       <c r="G5" s="41"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="92"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -9940,7 +10082,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="92"/>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
@@ -9950,7 +10092,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="92"/>
       <c r="B8" s="8"/>
       <c r="C8" s="41"/>
@@ -9960,7 +10102,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="92"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -9970,7 +10112,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="92"/>
       <c r="B10" s="8"/>
       <c r="C10" s="17"/>
@@ -9980,7 +10122,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
